--- a/Resistor calc.xlsx
+++ b/Resistor calc.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamiens\STM32CubeIDE\workspace_1.3.0\StylophOverkill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Home\MyProjects\Music\Stylophone\Firmware\StylophOverkill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689844A6-2BAB-4E86-88F8-6D1B66971391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37440" windowHeight="21840" xr2:uid="{F073F507-F63B-4A22-A3C6-9238A433AD52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37440" windowHeight="21840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +31,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>ADCNoteTable = {</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +92,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -98,6 +104,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -123,7 +130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -176,7 +183,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$19</c:f>
+              <c:f>Sheet1!$O$6:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -297,7 +304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1673291296"/>
@@ -359,7 +366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2080592816"/>
@@ -376,6 +383,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -383,6 +391,685 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.49433426804555408"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7513-4EE3-97B0-12FF6B151441}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$6:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7513-4EE3-97B0-12FF6B151441}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$6:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7513-4EE3-97B0-12FF6B151441}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1874028799"/>
+        <c:axId val="1874029631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1874028799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4096"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874029631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1874029631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874028799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -407,7 +1094,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -458,7 +1145,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -984,7 +2227,7 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -1007,6 +2250,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1311,24 +2584,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A3B72-E3B6-4227-9DA6-79DF77705FD7}">
-  <dimension ref="G4:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G4:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:19" x14ac:dyDescent="0.25">
       <c r="I4">
         <v>3</v>
       </c>
       <c r="L4">
         <v>12</v>
       </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>3500</v>
+      </c>
+      <c r="S5" t="str">
+        <f>CONCATENATE(S4,O5,",")</f>
+        <v>ADCNoteTable = {3500,</v>
+      </c>
+    </row>
+    <row r="6" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>1000</v>
       </c>
@@ -1351,20 +2636,32 @@
         <v>3377</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>L6-L7</f>
         <v>504</v>
       </c>
-      <c r="N6">
-        <f>ROUND(M6/2+L7,0)</f>
+      <c r="O6">
+        <f>ROUND(L7+N6/2,0)</f>
         <v>3125</v>
       </c>
-      <c r="O6">
+      <c r="P6">
+        <f>ROUND(L6-N6/2,0)</f>
+        <v>3125</v>
+      </c>
+      <c r="Q6">
         <v>2.4736842110000001</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>2.4736842110000001</v>
       </c>
+      <c r="S6" t="str">
+        <f t="shared" ref="S6:S21" si="0">CONCATENATE(S5,O6,",")</f>
+        <v>ADCNoteTable = {3500,3125,</v>
+      </c>
     </row>
-    <row r="7" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>1000</v>
       </c>
@@ -1372,35 +2669,47 @@
         <v>4700</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I20" si="0">G7+I6</f>
+        <f t="shared" ref="I7:I20" si="1">G7+I6</f>
         <v>2000</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K20" si="1">$I$4*H7/(H7+I7)</f>
+        <f t="shared" ref="K7:K20" si="2">$I$4*H7/(H7+I7)</f>
         <v>2.1044776119402986</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L20" si="2">ROUND(K7*(2^$L$4-1)/$I$4,0)</f>
+        <f>ROUND(K7*(2^$L$4-1)/$I$4,0)</f>
         <v>2873</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N20" si="3">L7-L8</f>
         <v>373</v>
       </c>
-      <c r="N7">
-        <f t="shared" ref="N7:N19" si="3">ROUND(M7/2+L8,0)</f>
+      <c r="O7">
+        <f t="shared" ref="O7:O20" si="4">ROUND(L8+N7/2,0)</f>
         <v>2687</v>
       </c>
-      <c r="O7">
+      <c r="P7">
+        <f t="shared" ref="P7:P20" si="5">ROUND(L7-N7/2,0)</f>
+        <v>2687</v>
+      </c>
+      <c r="Q7">
         <v>-0.36920659859999999</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.36920659859999999</v>
       </c>
+      <c r="S7" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,</v>
+      </c>
     </row>
-    <row r="8" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>1000</v>
       </c>
@@ -1408,35 +2717,47 @@
         <v>4700</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8311688311688312</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f>ROUND(K8*(2^$L$4-1)/$I$4,0)</f>
         <v>2500</v>
       </c>
       <c r="M8">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
         <v>2356</v>
       </c>
-      <c r="O8">
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>2356</v>
+      </c>
+      <c r="Q8">
         <v>-0.27330878079999998</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.27330878079999998</v>
       </c>
+      <c r="S8" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,</v>
+      </c>
     </row>
-    <row r="9" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>1000</v>
       </c>
@@ -1444,35 +2765,47 @@
         <v>4700</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6206896551724137</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f>ROUND(K9*(2^$L$4-1)/$I$4,0)</f>
         <v>2212</v>
       </c>
       <c r="M9">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
         <v>2098</v>
       </c>
-      <c r="O9">
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>2098</v>
+      </c>
+      <c r="Q9">
         <v>-0.21047917599999999</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.21047917599999999</v>
       </c>
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,</v>
+      </c>
     </row>
-    <row r="10" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>1000</v>
       </c>
@@ -1480,35 +2813,47 @@
         <v>4700</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4536082474226804</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f>ROUND(K10*(2^$L$4-1)/$I$4,0)</f>
         <v>1984</v>
       </c>
       <c r="M10">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
         <v>1892</v>
       </c>
-      <c r="O10">
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>1892</v>
+      </c>
+      <c r="Q10">
         <v>-0.16708140769999999</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.16708140769999999</v>
       </c>
+      <c r="S10" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,</v>
+      </c>
     </row>
-    <row r="11" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>1000</v>
       </c>
@@ -1516,35 +2861,47 @@
         <v>4700</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3177570093457944</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f>ROUND(K11*(2^$L$4-1)/$I$4,0)</f>
         <v>1799</v>
       </c>
       <c r="M11">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
         <v>1722</v>
       </c>
-      <c r="O11">
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>1722</v>
+      </c>
+      <c r="Q11">
         <v>-0.13585123809999999</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.13585123809999999</v>
       </c>
+      <c r="S11" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,</v>
+      </c>
     </row>
-    <row r="12" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>1000</v>
       </c>
@@ -1552,35 +2909,47 @@
         <v>4700</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="J12">
         <v>7</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2051282051282051</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f>ROUND(K12*(2^$L$4-1)/$I$4,0)</f>
         <v>1645</v>
       </c>
       <c r="M12">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
         <v>1580</v>
       </c>
-      <c r="O12">
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>1580</v>
+      </c>
+      <c r="Q12">
         <v>-0.1126288042</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>0.1126288042</v>
       </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,</v>
+      </c>
     </row>
-    <row r="13" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>1000</v>
       </c>
@@ -1588,35 +2957,47 @@
         <v>4700</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.110236220472441</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f>ROUND(K13*(2^$L$4-1)/$I$4,0)</f>
         <v>1515</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
         <v>1460</v>
       </c>
-      <c r="O13">
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>1460</v>
+      </c>
+      <c r="Q13">
         <v>-9.4891984659999998E-2</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>9.4891984659999998E-2</v>
       </c>
+      <c r="S13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,</v>
+      </c>
     </row>
-    <row r="14" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>1000</v>
       </c>
@@ -1624,35 +3005,47 @@
         <v>4700</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="J14">
         <v>9</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0291970802919708</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f>ROUND(K14*(2^$L$4-1)/$I$4,0)</f>
         <v>1405</v>
       </c>
       <c r="M14">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
         <v>1357</v>
       </c>
-      <c r="O14">
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>1357</v>
+      </c>
+      <c r="Q14">
         <v>-8.1039140179999997E-2</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>8.1039140179999997E-2</v>
       </c>
+      <c r="S14" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,</v>
+      </c>
     </row>
-    <row r="15" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>1000</v>
       </c>
@@ -1660,35 +3053,47 @@
         <v>4700</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95918367346938771</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f>ROUND(K15*(2^$L$4-1)/$I$4,0)</f>
         <v>1309</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
         <v>1268</v>
       </c>
-      <c r="O15">
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>1268</v>
+      </c>
+      <c r="Q15">
         <v>-7.0013406819999999E-2</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>7.0013406819999999E-2</v>
       </c>
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,</v>
+      </c>
     </row>
-    <row r="16" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1000</v>
       </c>
@@ -1696,35 +3101,47 @@
         <v>4700</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="J16">
         <v>11</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89808917197452232</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f>ROUND(K16*(2^$L$4-1)/$I$4,0)</f>
         <v>1226</v>
       </c>
       <c r="M16">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
         <v>1189</v>
       </c>
-      <c r="O16">
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>1189</v>
+      </c>
+      <c r="Q16">
         <v>-6.1094501490000001E-2</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>6.1094501490000001E-2</v>
       </c>
+      <c r="S16" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,</v>
+      </c>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>1000</v>
       </c>
@@ -1732,35 +3149,47 @@
         <v>4700</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="J17">
         <v>12</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84431137724550898</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f>ROUND(K17*(2^$L$4-1)/$I$4,0)</f>
         <v>1152</v>
       </c>
       <c r="M17">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
         <v>1120</v>
       </c>
-      <c r="O17">
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>1120</v>
+      </c>
+      <c r="Q17">
         <v>-5.3777794730000002E-2</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>5.3777794730000002E-2</v>
       </c>
+      <c r="S17" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,</v>
+      </c>
     </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>1000</v>
       </c>
@@ -1768,35 +3197,47 @@
         <v>4700</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="J18">
         <v>13</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79661016949152541</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f>ROUND(K18*(2^$L$4-1)/$I$4,0)</f>
         <v>1087</v>
       </c>
       <c r="M18">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
         <v>1058</v>
       </c>
-      <c r="O18">
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>1058</v>
+      </c>
+      <c r="Q18">
         <v>-4.7701207750000002E-2</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>4.7701207750000002E-2</v>
       </c>
+      <c r="S18" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,</v>
+      </c>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>1000</v>
       </c>
@@ -1804,35 +3245,47 @@
         <v>4700</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="J19">
         <v>14</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75401069518716579</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f>ROUND(K19*(2^$L$4-1)/$I$4,0)</f>
         <v>1029</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
         <v>1003</v>
       </c>
-      <c r="O19">
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>1003</v>
+      </c>
+      <c r="Q19">
         <v>-4.2599474300000002E-2</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>4.2599474300000002E-2</v>
       </c>
+      <c r="S19" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,</v>
+      </c>
     </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>1000</v>
       </c>
@@ -1840,28 +3293,49 @@
         <v>4700</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="J20">
         <v>15</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.71573604060913709</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f>ROUND(K20*(2^$L$4-1)/$I$4,0)</f>
         <v>977</v>
       </c>
       <c r="M20">
-        <v>977</v>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>N19</f>
+        <v>52</v>
       </c>
       <c r="O20">
+        <v>900</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>951</v>
+      </c>
+      <c r="Q20">
         <v>-3.8274654579999998E-2</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>3.8274654579999998E-2</v>
+      </c>
+      <c r="S20" t="str">
+        <f>CONCATENATE(S19,O20)</f>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,900</v>
+      </c>
+    </row>
+    <row r="21" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="S21" t="str">
+        <f>CONCATENATE(S20,"};")</f>
+        <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,900};</v>
       </c>
     </row>
   </sheetData>

--- a/Resistor calc.xlsx
+++ b/Resistor calc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Home\MyProjects\Music\Stylophone\Firmware\StylophOverkill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamiens\STM32CubeIDE\workspace_1.3.0\StylophOverkill\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54BFED-74E1-4314-94F4-8EE6C516484C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37440" windowHeight="21840"/>
+    <workbookView xWindow="-37590" yWindow="-150" windowWidth="37710" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,16 +33,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>ADCNoteTable = {</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>D#</t>
+  </si>
+  <si>
+    <t>F#</t>
+  </si>
+  <si>
+    <t>G#</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Prescaler</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>Hz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,14 +135,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -92,7 +163,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -104,7 +175,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -130,7 +200,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -304,7 +374,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1673291296"/>
@@ -366,7 +436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2080592816"/>
@@ -383,7 +453,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -391,6 +460,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -414,7 +484,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -428,7 +498,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -473,7 +543,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -989,7 +1059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1874029631"/>
@@ -1053,7 +1123,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1874028799"/>
@@ -1094,7 +1164,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2221,23 +2291,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4D7BB8-C89F-475F-8449-38873D643CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,20 +2327,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2584,14 +2660,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G4:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="G4:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AA61" sqref="AA61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="7:19" x14ac:dyDescent="0.25">
       <c r="I4">
@@ -2632,7 +2712,7 @@
         <v>2.4736842105263159</v>
       </c>
       <c r="L6">
-        <f>ROUND(K6*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" ref="L6:L20" si="0">ROUND(K6*(2^$L$4-1)/$I$4,0)</f>
         <v>3377</v>
       </c>
       <c r="M6">
@@ -2657,7 +2737,7 @@
         <v>2.4736842110000001</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" ref="S6:S21" si="0">CONCATENATE(S5,O6,",")</f>
+        <f t="shared" ref="S6:S19" si="1">CONCATENATE(S5,O6,",")</f>
         <v>ADCNoteTable = {3500,3125,</v>
       </c>
     </row>
@@ -2669,33 +2749,33 @@
         <v>4700</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I20" si="1">G7+I6</f>
+        <f t="shared" ref="I7:I20" si="2">G7+I6</f>
         <v>2000</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K20" si="2">$I$4*H7/(H7+I7)</f>
+        <f t="shared" ref="K7:K20" si="3">$I$4*H7/(H7+I7)</f>
         <v>2.1044776119402986</v>
       </c>
       <c r="L7">
-        <f>ROUND(K7*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>2873</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N20" si="3">L7-L8</f>
+        <f t="shared" ref="N7:N19" si="4">L7-L8</f>
         <v>373</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O20" si="4">ROUND(L8+N7/2,0)</f>
+        <f t="shared" ref="O7:O19" si="5">ROUND(L8+N7/2,0)</f>
         <v>2687</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P20" si="5">ROUND(L7-N7/2,0)</f>
+        <f t="shared" ref="P7:P20" si="6">ROUND(L7-N7/2,0)</f>
         <v>2687</v>
       </c>
       <c r="Q7">
@@ -2705,7 +2785,7 @@
         <v>0.36920659859999999</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,</v>
       </c>
     </row>
@@ -2717,35 +2797,35 @@
         <v>4700</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8311688311688312</v>
       </c>
       <c r="L8">
-        <f>ROUND(K8*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
-        <v>2356</v>
-      </c>
-      <c r="P8">
         <f t="shared" si="5"/>
         <v>2356</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>2356</v>
+      </c>
       <c r="Q8">
         <v>-0.27330878079999998</v>
       </c>
@@ -2753,7 +2833,7 @@
         <v>0.27330878079999998</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,</v>
       </c>
     </row>
@@ -2765,35 +2845,35 @@
         <v>4700</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6206896551724137</v>
       </c>
       <c r="L9">
-        <f>ROUND(K9*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>2212</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
-        <v>2098</v>
-      </c>
-      <c r="P9">
         <f t="shared" si="5"/>
         <v>2098</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>2098</v>
+      </c>
       <c r="Q9">
         <v>-0.21047917599999999</v>
       </c>
@@ -2801,7 +2881,7 @@
         <v>0.21047917599999999</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,</v>
       </c>
     </row>
@@ -2813,35 +2893,35 @@
         <v>4700</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4536082474226804</v>
       </c>
       <c r="L10">
-        <f>ROUND(K10*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>185</v>
       </c>
       <c r="O10">
-        <f t="shared" si="4"/>
-        <v>1892</v>
-      </c>
-      <c r="P10">
         <f t="shared" si="5"/>
         <v>1892</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>1892</v>
+      </c>
       <c r="Q10">
         <v>-0.16708140769999999</v>
       </c>
@@ -2849,7 +2929,7 @@
         <v>0.16708140769999999</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,</v>
       </c>
     </row>
@@ -2861,35 +2941,35 @@
         <v>4700</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3177570093457944</v>
       </c>
       <c r="L11">
-        <f>ROUND(K11*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1799</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
-        <v>1722</v>
-      </c>
-      <c r="P11">
         <f t="shared" si="5"/>
         <v>1722</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>1722</v>
+      </c>
       <c r="Q11">
         <v>-0.13585123809999999</v>
       </c>
@@ -2897,7 +2977,7 @@
         <v>0.13585123809999999</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,</v>
       </c>
     </row>
@@ -2909,35 +2989,35 @@
         <v>4700</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7000</v>
       </c>
       <c r="J12">
         <v>7</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2051282051282051</v>
       </c>
       <c r="L12">
-        <f>ROUND(K12*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1645</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
-        <v>1580</v>
-      </c>
-      <c r="P12">
         <f t="shared" si="5"/>
         <v>1580</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>1580</v>
+      </c>
       <c r="Q12">
         <v>-0.1126288042</v>
       </c>
@@ -2945,7 +3025,7 @@
         <v>0.1126288042</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,</v>
       </c>
     </row>
@@ -2957,35 +3037,35 @@
         <v>4700</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8000</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.110236220472441</v>
       </c>
       <c r="L13">
-        <f>ROUND(K13*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1515</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
-        <v>1460</v>
-      </c>
-      <c r="P13">
         <f t="shared" si="5"/>
         <v>1460</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>1460</v>
+      </c>
       <c r="Q13">
         <v>-9.4891984659999998E-2</v>
       </c>
@@ -2993,7 +3073,7 @@
         <v>9.4891984659999998E-2</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,</v>
       </c>
     </row>
@@ -3005,35 +3085,35 @@
         <v>4700</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="J14">
         <v>9</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0291970802919708</v>
       </c>
       <c r="L14">
-        <f>ROUND(K14*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1405</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
-        <v>1357</v>
-      </c>
-      <c r="P14">
         <f t="shared" si="5"/>
         <v>1357</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>1357</v>
+      </c>
       <c r="Q14">
         <v>-8.1039140179999997E-2</v>
       </c>
@@ -3041,7 +3121,7 @@
         <v>8.1039140179999997E-2</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,</v>
       </c>
     </row>
@@ -3053,35 +3133,35 @@
         <v>4700</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95918367346938771</v>
       </c>
       <c r="L15">
-        <f>ROUND(K15*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1309</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
-        <v>1268</v>
-      </c>
-      <c r="P15">
         <f t="shared" si="5"/>
         <v>1268</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>1268</v>
+      </c>
       <c r="Q15">
         <v>-7.0013406819999999E-2</v>
       </c>
@@ -3089,7 +3169,7 @@
         <v>7.0013406819999999E-2</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,</v>
       </c>
     </row>
@@ -3101,35 +3181,35 @@
         <v>4700</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="J16">
         <v>11</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89808917197452232</v>
       </c>
       <c r="L16">
-        <f>ROUND(K16*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1226</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
-        <v>1189</v>
-      </c>
-      <c r="P16">
         <f t="shared" si="5"/>
         <v>1189</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>1189</v>
+      </c>
       <c r="Q16">
         <v>-6.1094501490000001E-2</v>
       </c>
@@ -3137,11 +3217,11 @@
         <v>6.1094501490000001E-2</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,</v>
       </c>
     </row>
-    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>1000</v>
       </c>
@@ -3149,35 +3229,35 @@
         <v>4700</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
       <c r="J17">
         <v>12</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84431137724550898</v>
       </c>
       <c r="L17">
-        <f>ROUND(K17*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1152</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
-        <v>1120</v>
-      </c>
-      <c r="P17">
         <f t="shared" si="5"/>
         <v>1120</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>1120</v>
+      </c>
       <c r="Q17">
         <v>-5.3777794730000002E-2</v>
       </c>
@@ -3185,11 +3265,11 @@
         <v>5.3777794730000002E-2</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,</v>
       </c>
     </row>
-    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>1000</v>
       </c>
@@ -3197,35 +3277,35 @@
         <v>4700</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13000</v>
       </c>
       <c r="J18">
         <v>13</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79661016949152541</v>
       </c>
       <c r="L18">
-        <f>ROUND(K18*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1087</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
-        <v>1058</v>
-      </c>
-      <c r="P18">
         <f t="shared" si="5"/>
         <v>1058</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>1058</v>
+      </c>
       <c r="Q18">
         <v>-4.7701207750000002E-2</v>
       </c>
@@ -3233,11 +3313,11 @@
         <v>4.7701207750000002E-2</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,</v>
       </c>
     </row>
-    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>1000</v>
       </c>
@@ -3245,35 +3325,35 @@
         <v>4700</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="J19">
         <v>14</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75401069518716579</v>
       </c>
       <c r="L19">
-        <f>ROUND(K19*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1029</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
-        <v>1003</v>
-      </c>
-      <c r="P19">
         <f t="shared" si="5"/>
         <v>1003</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>1003</v>
+      </c>
       <c r="Q19">
         <v>-4.2599474300000002E-2</v>
       </c>
@@ -3281,11 +3361,11 @@
         <v>4.2599474300000002E-2</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,</v>
       </c>
     </row>
-    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>1000</v>
       </c>
@@ -3293,18 +3373,18 @@
         <v>4700</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="J20">
         <v>15</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71573604060913709</v>
       </c>
       <c r="L20">
-        <f>ROUND(K20*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>977</v>
       </c>
       <c r="M20">
@@ -3318,7 +3398,7 @@
         <v>900</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>951</v>
       </c>
       <c r="Q20">
@@ -3332,10 +3412,1365 @@
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,900</v>
       </c>
     </row>
-    <row r="21" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:26" x14ac:dyDescent="0.25">
       <c r="S21" t="str">
         <f>CONCATENATE(S20,"};")</f>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,900};</v>
+      </c>
+    </row>
+    <row r="26" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>170</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <f>I26*1000000</f>
+        <v>170000000</v>
+      </c>
+    </row>
+    <row r="27" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>K27*1000000000</f>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <f>1/K26</f>
+        <v>5.8823529411764704E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28" t="str">
+        <f>_xlfn.CONCAT(P28,Q28)</f>
+        <v>A3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28">
+        <f>L6</f>
+        <v>3377</v>
+      </c>
+      <c r="U28">
+        <f>U40/2</f>
+        <v>220</v>
+      </c>
+      <c r="V28">
+        <f>$K$26/($J$30*U28)</f>
+        <v>38636.36363636364</v>
+      </c>
+      <c r="W28">
+        <f>ROUND(V28,0)</f>
+        <v>38636</v>
+      </c>
+      <c r="X28">
+        <f>$K$26/(W28*$J$30)</f>
+        <v>220.00207060772337</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>1-X28/U28</f>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z28" s="1">
+        <f>1-ROUND(W28/2,0)/(W28/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" ref="R29:R55" si="7">_xlfn.CONCAT(P29,Q29)</f>
+        <v>A#3</v>
+      </c>
+      <c r="S29" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29">
+        <f>L7</f>
+        <v>2873</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U39" si="8">U41/2</f>
+        <v>233.08</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V55" si="9">$K$26/($J$30*U29)</f>
+        <v>36468.165436759911</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:W55" si="10">ROUND(V29,0)</f>
+        <v>36468</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ref="X29:X55" si="11">$K$26/(W29*$J$30)</f>
+        <v>233.0810573653614</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" ref="Y29:Y55" si="12">1-X29/U29</f>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" ref="Z29:Z55" si="13">1-ROUND(W29/2,0)/(W29/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="7"/>
+        <v>B3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30">
+        <f>L8</f>
+        <v>2500</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="8"/>
+        <v>246.94</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="9"/>
+        <v>34421.316919089659</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="10"/>
+        <v>34421</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="11"/>
+        <v>246.94227361203917</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="12"/>
+        <v>-9.2071435942031599E-6</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.9052032189724741E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>450</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="7"/>
+        <v>C3</v>
+      </c>
+      <c r="S31" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <f>L9</f>
+        <v>2212</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="8"/>
+        <v>261.625</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="9"/>
+        <v>32489.249880554227</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="10"/>
+        <v>32489</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="11"/>
+        <v>261.62701221952045</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="12"/>
+        <v>-7.6912356252734071E-6</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.0779648496404022E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>J32/1000</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="J32">
+        <f>K26/J30/J31</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32">
+        <v>20000</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="7"/>
+        <v>C#3</v>
+      </c>
+      <c r="S32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32">
+        <f>L10</f>
+        <v>1984</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="8"/>
+        <v>277.185</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="9"/>
+        <v>30665.440049064706</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="10"/>
+        <v>30665</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="11"/>
+        <v>277.18897766182943</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.4350205925328652E-5</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.2610467960214606E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f>K27*J30*J31</f>
+        <v>5.2941176470588231E-5</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="7"/>
+        <v>D3</v>
+      </c>
+      <c r="S33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33">
+        <f>L11</f>
+        <v>1799</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="8"/>
+        <v>293.66500000000002</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="9"/>
+        <v>28944.545655764221</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="10"/>
+        <v>28945</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="11"/>
+        <v>293.66039039557779</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="12"/>
+        <v>1.56968124298551E-5</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.4548281222956945E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f>1/J33</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="7"/>
+        <v>D#3</v>
+      </c>
+      <c r="S34" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34">
+        <f>L12</f>
+        <v>1645</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="8"/>
+        <v>311.125</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="9"/>
+        <v>27320.208919244677</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="10"/>
+        <v>27320</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="11"/>
+        <v>311.12737920937042</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="12"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="7"/>
+        <v>E3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35">
+        <f>L13</f>
+        <v>1515</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="8"/>
+        <v>329.625</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="9"/>
+        <v>25786.879029199848</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="10"/>
+        <v>25787</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="11"/>
+        <v>329.62345367820996</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="12"/>
+        <v>4.6911544635541702E-6</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.8779229844410068E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>9</v>
+      </c>
+      <c r="P36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="7"/>
+        <v>F3</v>
+      </c>
+      <c r="S36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T36">
+        <f>L14</f>
+        <v>1405</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="8"/>
+        <v>349.23</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="9"/>
+        <v>24339.260659164447</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="10"/>
+        <v>24339</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="11"/>
+        <v>349.23374008792473</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.070952645743084E-5</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="13"/>
+        <v>-4.1086322363215189E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="7"/>
+        <v>F#3</v>
+      </c>
+      <c r="S37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37">
+        <f>L15</f>
+        <v>1309</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="8"/>
+        <v>369.995</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="9"/>
+        <v>22973.283422748958</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="10"/>
+        <v>22973</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="11"/>
+        <v>369.99956470639444</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.2337211028334849E-5</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="13"/>
+        <v>-4.3529360553629104E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f>K26/(J30*J31)</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="O38">
+        <v>11</v>
+      </c>
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="7"/>
+        <v>G3</v>
+      </c>
+      <c r="S38" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38">
+        <f>L16</f>
+        <v>1226</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="8"/>
+        <v>391.995</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="9"/>
+        <v>21683.950050383297</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="10"/>
+        <v>21684</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="11"/>
+        <v>391.99409703006825</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="12"/>
+        <v>2.3035241055735511E-6</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>12</v>
+      </c>
+      <c r="P39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="7"/>
+        <v>G#3</v>
+      </c>
+      <c r="S39" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39">
+        <f>L17</f>
+        <v>1152</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="8"/>
+        <v>415.30500000000001</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="9"/>
+        <v>20466.885782737987</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="10"/>
+        <v>20467</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="11"/>
+        <v>415.30268236673669</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="12"/>
+        <v>5.580557092543792E-6</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="13"/>
+        <v>-4.8859139101908866E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>13</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f>Q28+1</f>
+        <v>4</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="7"/>
+        <v>A4</v>
+      </c>
+      <c r="S40" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40">
+        <f>L18</f>
+        <v>1087</v>
+      </c>
+      <c r="U40">
+        <v>440</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="9"/>
+        <v>19318.18181818182</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="10"/>
+        <v>19318</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="11"/>
+        <v>440.00414121544674</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="12"/>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>14</v>
+      </c>
+      <c r="P41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q104" si="14">Q29+1</f>
+        <v>4</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="7"/>
+        <v>A#4</v>
+      </c>
+      <c r="S41" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41">
+        <f>L19</f>
+        <v>1029</v>
+      </c>
+      <c r="U41">
+        <v>466.16</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="9"/>
+        <v>18234.082718379956</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="10"/>
+        <v>18234</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="11"/>
+        <v>466.16211473072281</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="12"/>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>15</v>
+      </c>
+      <c r="P42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="7"/>
+        <v>B4</v>
+      </c>
+      <c r="S42" t="s">
+        <v>13</v>
+      </c>
+      <c r="T42">
+        <f>L20</f>
+        <v>977</v>
+      </c>
+      <c r="U42">
+        <v>493.88</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="9"/>
+        <v>17210.658459544829</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="10"/>
+        <v>17211</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="11"/>
+        <v>493.87019929115098</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9844312077910153E-5</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="13"/>
+        <v>-5.8102376387259014E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>16</v>
+      </c>
+      <c r="P43" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="7"/>
+        <v>C4</v>
+      </c>
+      <c r="S43" t="s">
+        <v>14</v>
+      </c>
+      <c r="T43">
+        <f>L6</f>
+        <v>3377</v>
+      </c>
+      <c r="U43">
+        <v>523.25</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="9"/>
+        <v>16244.624940277114</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="10"/>
+        <v>16245</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="11"/>
+        <v>523.23791935980307</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" si="12"/>
+        <v>2.3087702239688035E-5</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="13"/>
+        <v>-6.1557402277534479E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>17</v>
+      </c>
+      <c r="P44" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="7"/>
+        <v>C#4</v>
+      </c>
+      <c r="S44" t="s">
+        <v>14</v>
+      </c>
+      <c r="T44">
+        <f>L7</f>
+        <v>2873</v>
+      </c>
+      <c r="U44">
+        <v>554.37</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="9"/>
+        <v>15332.720024532353</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="10"/>
+        <v>15333</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="11"/>
+        <v>554.35987738863889</v>
+      </c>
+      <c r="Y44" s="1">
+        <f t="shared" si="12"/>
+        <v>1.8259666578535061E-5</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="13"/>
+        <v>-6.5218809104594655E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>18</v>
+      </c>
+      <c r="P45" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="7"/>
+        <v>D4</v>
+      </c>
+      <c r="S45" t="s">
+        <v>14</v>
+      </c>
+      <c r="T45">
+        <f>L8</f>
+        <v>2500</v>
+      </c>
+      <c r="U45">
+        <v>587.33000000000004</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="9"/>
+        <v>14472.272827882111</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="10"/>
+        <v>14472</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="11"/>
+        <v>587.34107241569927</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.8852120101442438E-5</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>19</v>
+      </c>
+      <c r="P46" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="7"/>
+        <v>D#4</v>
+      </c>
+      <c r="S46" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46">
+        <f>L9</f>
+        <v>2212</v>
+      </c>
+      <c r="U46">
+        <v>622.25</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="9"/>
+        <v>13660.104459622338</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="10"/>
+        <v>13660</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="11"/>
+        <v>622.25475841874083</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" si="12"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="7"/>
+        <v>E4</v>
+      </c>
+      <c r="S47" t="s">
+        <v>14</v>
+      </c>
+      <c r="T47">
+        <f>L10</f>
+        <v>1984</v>
+      </c>
+      <c r="U47">
+        <v>659.25</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="9"/>
+        <v>12893.439514599924</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="10"/>
+        <v>12893</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="11"/>
+        <v>659.27247343519741</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.4089397341618977E-5</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" si="13"/>
+        <v>-7.756146746307202E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>21</v>
+      </c>
+      <c r="P48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="7"/>
+        <v>F4</v>
+      </c>
+      <c r="S48" t="s">
+        <v>14</v>
+      </c>
+      <c r="T48">
+        <f>L11</f>
+        <v>1799</v>
+      </c>
+      <c r="U48">
+        <v>698.46</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="9"/>
+        <v>12169.630329582224</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="10"/>
+        <v>12170</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="11"/>
+        <v>698.43878389482336</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="12"/>
+        <v>3.0375547886318799E-5</v>
+      </c>
+      <c r="Z48" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>22</v>
+      </c>
+      <c r="P49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="7"/>
+        <v>F#4</v>
+      </c>
+      <c r="S49" t="s">
+        <v>14</v>
+      </c>
+      <c r="T49">
+        <f>L12</f>
+        <v>1645</v>
+      </c>
+      <c r="U49">
+        <v>739.99</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="9"/>
+        <v>11486.641711374479</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="10"/>
+        <v>11487</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="11"/>
+        <v>739.9669191259685</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="12"/>
+        <v>3.1190791810020713E-5</v>
+      </c>
+      <c r="Z49" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.705493166183409E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>23</v>
+      </c>
+      <c r="P50" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="7"/>
+        <v>G4</v>
+      </c>
+      <c r="S50" t="s">
+        <v>14</v>
+      </c>
+      <c r="T50">
+        <f>L13</f>
+        <v>1515</v>
+      </c>
+      <c r="U50">
+        <v>783.99</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="9"/>
+        <v>10841.975025191648</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="10"/>
+        <v>10842</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="11"/>
+        <v>783.98819406013649</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="12"/>
+        <v>2.3035241055735511E-6</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="7"/>
+        <v>G#4</v>
+      </c>
+      <c r="S51" t="s">
+        <v>14</v>
+      </c>
+      <c r="T51">
+        <f>L14</f>
+        <v>1405</v>
+      </c>
+      <c r="U51">
+        <v>830.61</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="9"/>
+        <v>10233.442891368994</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="10"/>
+        <v>10233</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="11"/>
+        <v>830.64594937945867</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="12"/>
+        <v>-4.3280696667036267E-5</v>
+      </c>
+      <c r="Z51" s="1">
+        <f t="shared" si="13"/>
+        <v>-9.772305286825933E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>25</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="7"/>
+        <v>A5</v>
+      </c>
+      <c r="S52" t="s">
+        <v>14</v>
+      </c>
+      <c r="T52">
+        <f>L15</f>
+        <v>1309</v>
+      </c>
+      <c r="U52">
+        <f>U40*2</f>
+        <v>880</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="9"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="10"/>
+        <v>9659</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="11"/>
+        <v>880.00828243089347</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" si="12"/>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z52" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.0353038616828236E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>26</v>
+      </c>
+      <c r="P53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="7"/>
+        <v>A#5</v>
+      </c>
+      <c r="S53" t="s">
+        <v>14</v>
+      </c>
+      <c r="T53">
+        <f>L16</f>
+        <v>1226</v>
+      </c>
+      <c r="U53">
+        <f t="shared" ref="U53:U55" si="15">U41*2</f>
+        <v>932.32</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="9"/>
+        <v>9117.0413591899778</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="10"/>
+        <v>9117</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="11"/>
+        <v>932.32422946144561</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="12"/>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z53" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.0968520346610333E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>27</v>
+      </c>
+      <c r="P54" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="7"/>
+        <v>B5</v>
+      </c>
+      <c r="S54" t="s">
+        <v>14</v>
+      </c>
+      <c r="T54">
+        <f>L17</f>
+        <v>1152</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="15"/>
+        <v>987.76</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="9"/>
+        <v>8605.3292297724147</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="10"/>
+        <v>8605</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="11"/>
+        <v>987.79779198140614</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.82602873230109E-5</v>
+      </c>
+      <c r="Z54" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.162115049389012E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>28</v>
+      </c>
+      <c r="P55" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="7"/>
+        <v>C5</v>
+      </c>
+      <c r="S55" t="s">
+        <v>14</v>
+      </c>
+      <c r="T55">
+        <f>L18</f>
+        <v>1087</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="15"/>
+        <v>1046.5</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="9"/>
+        <v>8122.3124701385568</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="10"/>
+        <v>8122</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="11"/>
+        <v>1046.5402610194533</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.8472068278450067E-5</v>
+      </c>
+      <c r="Z55" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Resistor calc.xlsx
+++ b/Resistor calc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37440" windowHeight="21840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37230" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,16 +32,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>ADCNoteTable = {</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>D#</t>
+  </si>
+  <si>
+    <t>F#</t>
+  </si>
+  <si>
+    <t>G#</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Prescaler</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Presc</t>
+  </si>
+  <si>
+    <t>Lookup Size</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">].ADC_VAL = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">].PWM_PR = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">].PWM_ARR = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">].Synth_PR = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">].Synth_ARR = </t>
+  </si>
+  <si>
+    <t>; notes[</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,14 +161,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2221,23 +2318,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4D7BB8-C89F-475F-8449-38873D643CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,20 +2354,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2585,13 +2688,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G4:S21"/>
+  <dimension ref="G4:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="K20" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47:U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="7:19" x14ac:dyDescent="0.25">
       <c r="I4">
@@ -2632,7 +2744,7 @@
         <v>2.4736842105263159</v>
       </c>
       <c r="L6">
-        <f>ROUND(K6*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" ref="L6:L20" si="0">ROUND(K6*(2^$L$4-1)/$I$4,0)</f>
         <v>3377</v>
       </c>
       <c r="M6">
@@ -2657,7 +2769,7 @@
         <v>2.4736842110000001</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" ref="S6:S21" si="0">CONCATENATE(S5,O6,",")</f>
+        <f t="shared" ref="S6:S19" si="1">CONCATENATE(S5,O6,",")</f>
         <v>ADCNoteTable = {3500,3125,</v>
       </c>
     </row>
@@ -2669,33 +2781,33 @@
         <v>4700</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I20" si="1">G7+I6</f>
+        <f t="shared" ref="I7:I20" si="2">G7+I6</f>
         <v>2000</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K20" si="2">$I$4*H7/(H7+I7)</f>
+        <f t="shared" ref="K7:K20" si="3">$I$4*H7/(H7+I7)</f>
         <v>2.1044776119402986</v>
       </c>
       <c r="L7">
-        <f>ROUND(K7*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>2873</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N20" si="3">L7-L8</f>
+        <f t="shared" ref="N7:N19" si="4">L7-L8</f>
         <v>373</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O20" si="4">ROUND(L8+N7/2,0)</f>
+        <f t="shared" ref="O7:O19" si="5">ROUND(L8+N7/2,0)</f>
         <v>2687</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P20" si="5">ROUND(L7-N7/2,0)</f>
+        <f t="shared" ref="P7:P20" si="6">ROUND(L7-N7/2,0)</f>
         <v>2687</v>
       </c>
       <c r="Q7">
@@ -2705,7 +2817,7 @@
         <v>0.36920659859999999</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,</v>
       </c>
     </row>
@@ -2717,35 +2829,35 @@
         <v>4700</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8311688311688312</v>
       </c>
       <c r="L8">
-        <f>ROUND(K8*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
-        <v>2356</v>
-      </c>
-      <c r="P8">
         <f t="shared" si="5"/>
         <v>2356</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>2356</v>
+      </c>
       <c r="Q8">
         <v>-0.27330878079999998</v>
       </c>
@@ -2753,7 +2865,7 @@
         <v>0.27330878079999998</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,</v>
       </c>
     </row>
@@ -2765,35 +2877,35 @@
         <v>4700</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6206896551724137</v>
       </c>
       <c r="L9">
-        <f>ROUND(K9*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>2212</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
-        <v>2098</v>
-      </c>
-      <c r="P9">
         <f t="shared" si="5"/>
         <v>2098</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>2098</v>
+      </c>
       <c r="Q9">
         <v>-0.21047917599999999</v>
       </c>
@@ -2801,7 +2913,7 @@
         <v>0.21047917599999999</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,</v>
       </c>
     </row>
@@ -2813,35 +2925,35 @@
         <v>4700</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4536082474226804</v>
       </c>
       <c r="L10">
-        <f>ROUND(K10*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>185</v>
       </c>
       <c r="O10">
-        <f t="shared" si="4"/>
-        <v>1892</v>
-      </c>
-      <c r="P10">
         <f t="shared" si="5"/>
         <v>1892</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>1892</v>
+      </c>
       <c r="Q10">
         <v>-0.16708140769999999</v>
       </c>
@@ -2849,7 +2961,7 @@
         <v>0.16708140769999999</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,</v>
       </c>
     </row>
@@ -2861,35 +2973,35 @@
         <v>4700</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3177570093457944</v>
       </c>
       <c r="L11">
-        <f>ROUND(K11*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1799</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
-        <v>1722</v>
-      </c>
-      <c r="P11">
         <f t="shared" si="5"/>
         <v>1722</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>1722</v>
+      </c>
       <c r="Q11">
         <v>-0.13585123809999999</v>
       </c>
@@ -2897,7 +3009,7 @@
         <v>0.13585123809999999</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,</v>
       </c>
     </row>
@@ -2909,35 +3021,35 @@
         <v>4700</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7000</v>
       </c>
       <c r="J12">
         <v>7</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2051282051282051</v>
       </c>
       <c r="L12">
-        <f>ROUND(K12*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1645</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
-        <v>1580</v>
-      </c>
-      <c r="P12">
         <f t="shared" si="5"/>
         <v>1580</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>1580</v>
+      </c>
       <c r="Q12">
         <v>-0.1126288042</v>
       </c>
@@ -2945,7 +3057,7 @@
         <v>0.1126288042</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,</v>
       </c>
     </row>
@@ -2957,35 +3069,35 @@
         <v>4700</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8000</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.110236220472441</v>
       </c>
       <c r="L13">
-        <f>ROUND(K13*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1515</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
-        <v>1460</v>
-      </c>
-      <c r="P13">
         <f t="shared" si="5"/>
         <v>1460</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>1460</v>
+      </c>
       <c r="Q13">
         <v>-9.4891984659999998E-2</v>
       </c>
@@ -2993,7 +3105,7 @@
         <v>9.4891984659999998E-2</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,</v>
       </c>
     </row>
@@ -3005,35 +3117,35 @@
         <v>4700</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="J14">
         <v>9</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0291970802919708</v>
       </c>
       <c r="L14">
-        <f>ROUND(K14*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1405</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
-        <v>1357</v>
-      </c>
-      <c r="P14">
         <f t="shared" si="5"/>
         <v>1357</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>1357</v>
+      </c>
       <c r="Q14">
         <v>-8.1039140179999997E-2</v>
       </c>
@@ -3041,7 +3153,7 @@
         <v>8.1039140179999997E-2</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,</v>
       </c>
     </row>
@@ -3053,35 +3165,35 @@
         <v>4700</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95918367346938771</v>
       </c>
       <c r="L15">
-        <f>ROUND(K15*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1309</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
-        <v>1268</v>
-      </c>
-      <c r="P15">
         <f t="shared" si="5"/>
         <v>1268</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>1268</v>
+      </c>
       <c r="Q15">
         <v>-7.0013406819999999E-2</v>
       </c>
@@ -3089,7 +3201,7 @@
         <v>7.0013406819999999E-2</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,</v>
       </c>
     </row>
@@ -3101,35 +3213,35 @@
         <v>4700</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="J16">
         <v>11</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89808917197452232</v>
       </c>
       <c r="L16">
-        <f>ROUND(K16*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1226</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
-        <v>1189</v>
-      </c>
-      <c r="P16">
         <f t="shared" si="5"/>
         <v>1189</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>1189</v>
+      </c>
       <c r="Q16">
         <v>-6.1094501490000001E-2</v>
       </c>
@@ -3137,11 +3249,11 @@
         <v>6.1094501490000001E-2</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,</v>
       </c>
     </row>
-    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:36" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>1000</v>
       </c>
@@ -3149,35 +3261,35 @@
         <v>4700</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
       <c r="J17">
         <v>12</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84431137724550898</v>
       </c>
       <c r="L17">
-        <f>ROUND(K17*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1152</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
-        <v>1120</v>
-      </c>
-      <c r="P17">
         <f t="shared" si="5"/>
         <v>1120</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>1120</v>
+      </c>
       <c r="Q17">
         <v>-5.3777794730000002E-2</v>
       </c>
@@ -3185,11 +3297,11 @@
         <v>5.3777794730000002E-2</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,</v>
       </c>
     </row>
-    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:36" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>1000</v>
       </c>
@@ -3197,35 +3309,35 @@
         <v>4700</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13000</v>
       </c>
       <c r="J18">
         <v>13</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79661016949152541</v>
       </c>
       <c r="L18">
-        <f>ROUND(K18*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1087</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
-        <v>1058</v>
-      </c>
-      <c r="P18">
         <f t="shared" si="5"/>
         <v>1058</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>1058</v>
+      </c>
       <c r="Q18">
         <v>-4.7701207750000002E-2</v>
       </c>
@@ -3233,11 +3345,11 @@
         <v>4.7701207750000002E-2</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,</v>
       </c>
     </row>
-    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:36" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>1000</v>
       </c>
@@ -3245,35 +3357,35 @@
         <v>4700</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="J19">
         <v>14</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75401069518716579</v>
       </c>
       <c r="L19">
-        <f>ROUND(K19*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>1029</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
-        <v>1003</v>
-      </c>
-      <c r="P19">
         <f t="shared" si="5"/>
         <v>1003</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>1003</v>
+      </c>
       <c r="Q19">
         <v>-4.2599474300000002E-2</v>
       </c>
@@ -3281,11 +3393,11 @@
         <v>4.2599474300000002E-2</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,</v>
       </c>
     </row>
-    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:36" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>1000</v>
       </c>
@@ -3293,18 +3405,18 @@
         <v>4700</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="J20">
         <v>15</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71573604060913709</v>
       </c>
       <c r="L20">
-        <f>ROUND(K20*(2^$L$4-1)/$I$4,0)</f>
+        <f t="shared" si="0"/>
         <v>977</v>
       </c>
       <c r="M20">
@@ -3318,7 +3430,7 @@
         <v>900</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>951</v>
       </c>
       <c r="Q20">
@@ -3332,10 +3444,3106 @@
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,900</v>
       </c>
     </row>
-    <row r="21" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:36" x14ac:dyDescent="0.25">
       <c r="S21" t="str">
         <f>CONCATENATE(S20,"};")</f>
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,900};</v>
+      </c>
+    </row>
+    <row r="26" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>170</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <f>I26*1000000</f>
+        <v>170000000</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>K27*1000000000</f>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <f>1/K26</f>
+        <v>5.8823529411764704E-9</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <f>L6</f>
+        <v>3377</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28" t="str">
+        <f>_xlfn.CONCAT(P28,Q28)</f>
+        <v>A3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28">
+        <f>O6</f>
+        <v>3125</v>
+      </c>
+      <c r="U28">
+        <f>U40/2</f>
+        <v>220</v>
+      </c>
+      <c r="V28">
+        <f>$K$26/($J$30*U28)</f>
+        <v>38636.36363636364</v>
+      </c>
+      <c r="W28">
+        <f>ROUND(V28,0)</f>
+        <v>38636</v>
+      </c>
+      <c r="X28">
+        <f>$K$26/(W28*$J$30)</f>
+        <v>220.00207060772337</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>1-X28/U28</f>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z28" s="1">
+        <f>1-ROUND(W28/2,0)/(W28/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <f>U28*$AD$26</f>
+        <v>88000</v>
+      </c>
+      <c r="AF28">
+        <f>$K$26/(AD28*AE28)</f>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="AG28">
+        <f>ROUND(AF28,0)</f>
+        <v>1932</v>
+      </c>
+      <c r="AH28">
+        <f>$K$26/(AG28*AD28)</f>
+        <v>87991.718426501029</v>
+      </c>
+      <c r="AI28" s="1">
+        <f>1-AH28/AE28</f>
+        <v>9.4108789761015998E-5</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f>1-ROUND(AG28/2,0)/(AG28/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <f t="shared" ref="N29:N46" si="7">L7</f>
+        <v>2873</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" ref="R29:R55" si="8">_xlfn.CONCAT(P29,Q29)</f>
+        <v>A#3</v>
+      </c>
+      <c r="S29" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T42" si="9">O7</f>
+        <v>2687</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U39" si="10">U41/2</f>
+        <v>233.08</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V55" si="11">$K$26/($J$30*U29)</f>
+        <v>36468.165436759911</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:W55" si="12">ROUND(V29,0)</f>
+        <v>36468</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ref="X29:X55" si="13">$K$26/(W29*$J$30)</f>
+        <v>233.0810573653614</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" ref="Y29:Y55" si="14">1-X29/U29</f>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" ref="Z29:Z55" si="15">1-ROUND(W29/2,0)/(W29/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f>AD28</f>
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <f>U29*$AD$26</f>
+        <v>93232</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" ref="AF29:AF55" si="16">$K$26/(AD29*AE29)</f>
+        <v>1823.4082718379955</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" ref="AG29:AG55" si="17">ROUND(AF29,0)</f>
+        <v>1823</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" ref="AH29:AH55" si="18">$K$26/(AG29*AD29)</f>
+        <v>93252.879868348871</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" ref="AI29:AI55" si="19">1-AH29/AE29</f>
+        <v>-2.2395602742486531E-4</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" ref="AJ29:AJ55" si="20">1-ROUND(AG29/2,0)/(AG29/2)</f>
+        <v>-5.4854635216683434E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>2500</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="8"/>
+        <v>B3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>2356</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="10"/>
+        <v>246.94</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="11"/>
+        <v>34421.316919089659</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="12"/>
+        <v>34421</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="13"/>
+        <v>246.94227361203917</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="14"/>
+        <v>-9.2071435942031599E-6</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.9052032189724741E-5</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" ref="AD30:AD55" si="21">AD29</f>
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <f>U30*$AD$26</f>
+        <v>98776</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="16"/>
+        <v>1721.0658459544829</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="17"/>
+        <v>1721</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="18"/>
+        <v>98779.779198140619</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="19"/>
+        <v>-3.82602873230109E-5</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="20"/>
+        <v>-5.8105752469495009E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>450</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>2212</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="8"/>
+        <v>C3</v>
+      </c>
+      <c r="S31" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>2098</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="10"/>
+        <v>261.625</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="11"/>
+        <v>32489.249880554227</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="12"/>
+        <v>32489</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="13"/>
+        <v>261.62701221952045</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="14"/>
+        <v>-7.6912356252734071E-6</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.0779648496404022E-5</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <f>U31*$AD$26</f>
+        <v>104650</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="16"/>
+        <v>1624.4624940277115</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="17"/>
+        <v>1624</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="18"/>
+        <v>104679.80295566503</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="19"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>J32/1000</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="J32">
+        <f>K26/J30/J31</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <v>20000</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>1984</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="8"/>
+        <v>C#3</v>
+      </c>
+      <c r="S32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>1892</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="10"/>
+        <v>277.185</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="11"/>
+        <v>30665.440049064706</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="12"/>
+        <v>30665</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="13"/>
+        <v>277.18897766182943</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.4350205925328652E-5</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.2610467960214606E-5</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <f>U32*$AD$26</f>
+        <v>110874</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="16"/>
+        <v>1533.2720024532352</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="17"/>
+        <v>1533</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="18"/>
+        <v>110893.67253750816</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="19"/>
+        <v>-1.7743147634385892E-4</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="20"/>
+        <v>-6.5231572080892697E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f>K27*J30*J31</f>
+        <v>5.2941176470588231E-5</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>1799</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="8"/>
+        <v>D3</v>
+      </c>
+      <c r="S33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>1722</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="10"/>
+        <v>293.66500000000002</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="11"/>
+        <v>28944.545655764221</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="12"/>
+        <v>28945</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="13"/>
+        <v>293.66039039557779</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="14"/>
+        <v>1.56968124298551E-5</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.4548281222956945E-5</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <f>U33*$AD$26</f>
+        <v>117466.00000000001</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="16"/>
+        <v>1447.2272827882109</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="17"/>
+        <v>1447</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="18"/>
+        <v>117484.45058742225</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="19"/>
+        <v>-1.5707172647605461E-4</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f t="shared" si="20"/>
+        <v>-6.9108500345538282E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f>1/J33</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>1645</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="8"/>
+        <v>D#3</v>
+      </c>
+      <c r="S34" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="9"/>
+        <v>1580</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="10"/>
+        <v>311.125</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="11"/>
+        <v>27320.208919244677</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="12"/>
+        <v>27320</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="13"/>
+        <v>311.12737920937042</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="14"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <f>U34*$AD$26</f>
+        <v>124450</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="16"/>
+        <v>1366.0104459622339</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="17"/>
+        <v>1366</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="18"/>
+        <v>124450.95168374816</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="19"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="AJ34" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>1515</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="8"/>
+        <v>E3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>1460</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="10"/>
+        <v>329.625</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="11"/>
+        <v>25786.879029199848</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="12"/>
+        <v>25787</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="13"/>
+        <v>329.62345367820996</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="14"/>
+        <v>4.6911544635541702E-6</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8779229844410068E-5</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <f>U35*$AD$26</f>
+        <v>131850</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="16"/>
+        <v>1289.3439514599925</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="17"/>
+        <v>1289</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="18"/>
+        <v>131885.18231186966</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="19"/>
+        <v>-2.6683588827958182E-4</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="20"/>
+        <v>-7.7579519006976128E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>1405</v>
+      </c>
+      <c r="O36">
+        <v>9</v>
+      </c>
+      <c r="P36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="8"/>
+        <v>F3</v>
+      </c>
+      <c r="S36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="9"/>
+        <v>1357</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="10"/>
+        <v>349.23</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="11"/>
+        <v>24339.260659164447</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="12"/>
+        <v>24339</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="13"/>
+        <v>349.23374008792473</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.070952645743084E-5</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.1086322363215189E-5</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <f>U36*$AD$26</f>
+        <v>139692</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="16"/>
+        <v>1216.9630329582224</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="17"/>
+        <v>1217</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="18"/>
+        <v>139687.75677896466</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="19"/>
+        <v>3.0375547886429821E-5</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="20"/>
+        <v>-8.2169268693510489E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>1309</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="8"/>
+        <v>F#3</v>
+      </c>
+      <c r="S37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="9"/>
+        <v>1268</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="10"/>
+        <v>369.995</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="11"/>
+        <v>22973.283422748958</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="12"/>
+        <v>22973</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="13"/>
+        <v>369.99956470639444</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.2337211028334849E-5</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.3529360553629104E-5</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <f>U37*$AD$26</f>
+        <v>147998</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="16"/>
+        <v>1148.6641711374477</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="17"/>
+        <v>1149</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="18"/>
+        <v>147954.74325500434</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="19"/>
+        <v>2.9227925374430974E-4</v>
+      </c>
+      <c r="AJ37" s="1">
+        <f t="shared" si="20"/>
+        <v>-8.7032201914705176E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f>K26/(J30*J31)</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>1226</v>
+      </c>
+      <c r="O38">
+        <v>11</v>
+      </c>
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="8"/>
+        <v>G3</v>
+      </c>
+      <c r="S38" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>1189</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="10"/>
+        <v>391.995</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="11"/>
+        <v>21683.950050383297</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="12"/>
+        <v>21684</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="13"/>
+        <v>391.99409703006825</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="14"/>
+        <v>2.3035241055735511E-6</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <f>U38*$AD$26</f>
+        <v>156798</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="16"/>
+        <v>1084.1975025191648</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="17"/>
+        <v>1084</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="18"/>
+        <v>156826.56826568267</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" si="19"/>
+        <v>-1.8219789590845359E-4</v>
+      </c>
+      <c r="AJ38" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>1152</v>
+      </c>
+      <c r="O39">
+        <v>12</v>
+      </c>
+      <c r="P39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="8"/>
+        <v>G#3</v>
+      </c>
+      <c r="S39" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>1120</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="10"/>
+        <v>415.30500000000001</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="11"/>
+        <v>20466.885782737987</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="12"/>
+        <v>20467</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="13"/>
+        <v>415.30268236673669</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="14"/>
+        <v>5.580557092543792E-6</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.8859139101908866E-5</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <f>U39*$AD$26</f>
+        <v>166122</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="16"/>
+        <v>1023.3442891368994</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="17"/>
+        <v>1023</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="18"/>
+        <v>166177.90811339198</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="19"/>
+        <v>-3.3654852091835608E-4</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f t="shared" si="20"/>
+        <v>-9.7751710654936375E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>1087</v>
+      </c>
+      <c r="O40">
+        <v>13</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f>Q28+1</f>
+        <v>4</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="8"/>
+        <v>A4</v>
+      </c>
+      <c r="S40" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="9"/>
+        <v>1058</v>
+      </c>
+      <c r="U40">
+        <v>440</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="11"/>
+        <v>19318.18181818182</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="12"/>
+        <v>19318</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="13"/>
+        <v>440.00414121544674</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="14"/>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <f>U40*$AD$26</f>
+        <v>176000</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="16"/>
+        <v>965.90909090909088</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="17"/>
+        <v>966</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="18"/>
+        <v>175983.43685300206</v>
+      </c>
+      <c r="AI40" s="1">
+        <f t="shared" si="19"/>
+        <v>9.4108789761015998E-5</v>
+      </c>
+      <c r="AJ40" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>1029</v>
+      </c>
+      <c r="O41">
+        <v>14</v>
+      </c>
+      <c r="P41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q55" si="22">Q29+1</f>
+        <v>4</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="8"/>
+        <v>A#4</v>
+      </c>
+      <c r="S41" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="9"/>
+        <v>1003</v>
+      </c>
+      <c r="U41">
+        <v>466.16</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="11"/>
+        <v>18234.082718379956</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="12"/>
+        <v>18234</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="13"/>
+        <v>466.16211473072281</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <f>U41*$AD$26</f>
+        <v>186464</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="16"/>
+        <v>911.70413591899774</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="17"/>
+        <v>912</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="18"/>
+        <v>186403.50877192983</v>
+      </c>
+      <c r="AI41" s="1">
+        <f t="shared" si="19"/>
+        <v>3.2441236951996633E-4</v>
+      </c>
+      <c r="AJ41" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>977</v>
+      </c>
+      <c r="O42">
+        <v>15</v>
+      </c>
+      <c r="P42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="8"/>
+        <v>B4</v>
+      </c>
+      <c r="S42" t="s">
+        <v>13</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="9"/>
+        <v>900</v>
+      </c>
+      <c r="U42">
+        <v>493.88</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="11"/>
+        <v>17210.658459544829</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="12"/>
+        <v>17211</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="13"/>
+        <v>493.87019929115098</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="14"/>
+        <v>1.9844312077910153E-5</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="15"/>
+        <v>-5.8102376387259014E-5</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <f>U42*$AD$26</f>
+        <v>197552</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="16"/>
+        <v>860.53292297724147</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="17"/>
+        <v>861</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="18"/>
+        <v>197444.83159117305</v>
+      </c>
+      <c r="AI42" s="1">
+        <f t="shared" si="19"/>
+        <v>5.4248202410989155E-4</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.1614401858304202E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f>L6</f>
+        <v>3377</v>
+      </c>
+      <c r="O43">
+        <v>16</v>
+      </c>
+      <c r="P43" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="8"/>
+        <v>C4</v>
+      </c>
+      <c r="S43" t="s">
+        <v>28</v>
+      </c>
+      <c r="T43">
+        <f>O6</f>
+        <v>3125</v>
+      </c>
+      <c r="U43">
+        <v>523.25</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="11"/>
+        <v>16244.624940277114</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="12"/>
+        <v>16245</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="13"/>
+        <v>523.23791935980307</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" si="14"/>
+        <v>2.3087702239688035E-5</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="15"/>
+        <v>-6.1557402277534479E-5</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <f>U43*$AD$26</f>
+        <v>209300</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="16"/>
+        <v>812.23124701385575</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="17"/>
+        <v>812</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="18"/>
+        <v>209359.60591133006</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" si="19"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ43" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f t="shared" ref="N44:N55" si="23">L7</f>
+        <v>2873</v>
+      </c>
+      <c r="O44">
+        <v>17</v>
+      </c>
+      <c r="P44" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="8"/>
+        <v>C#4</v>
+      </c>
+      <c r="S44" t="s">
+        <v>28</v>
+      </c>
+      <c r="T44">
+        <f t="shared" ref="T44:T55" si="24">O7</f>
+        <v>2687</v>
+      </c>
+      <c r="U44">
+        <v>554.37</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="11"/>
+        <v>15332.720024532353</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="12"/>
+        <v>15333</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="13"/>
+        <v>554.35987738863889</v>
+      </c>
+      <c r="Y44" s="1">
+        <f t="shared" si="14"/>
+        <v>1.8259666578535061E-5</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="15"/>
+        <v>-6.5218809104594655E-5</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <f>U44*$AD$26</f>
+        <v>221748</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="16"/>
+        <v>766.63600122661762</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="17"/>
+        <v>767</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="18"/>
+        <v>221642.76401564537</v>
+      </c>
+      <c r="AI44" s="1">
+        <f t="shared" si="19"/>
+        <v>4.7457467194578218E-4</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.3037809647979959E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f t="shared" si="23"/>
+        <v>2500</v>
+      </c>
+      <c r="O45">
+        <v>18</v>
+      </c>
+      <c r="P45" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="8"/>
+        <v>D4</v>
+      </c>
+      <c r="S45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="24"/>
+        <v>2356</v>
+      </c>
+      <c r="U45">
+        <v>587.33000000000004</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="11"/>
+        <v>14472.272827882111</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="12"/>
+        <v>14472</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="13"/>
+        <v>587.34107241569927</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.8852120101442438E-5</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <f>U45*$AD$26</f>
+        <v>234932.00000000003</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="16"/>
+        <v>723.61364139410546</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="17"/>
+        <v>724</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="18"/>
+        <v>234806.62983425416</v>
+      </c>
+      <c r="AI45" s="1">
+        <f t="shared" si="19"/>
+        <v>5.3364448327974934E-4</v>
+      </c>
+      <c r="AJ45" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f t="shared" si="23"/>
+        <v>2212</v>
+      </c>
+      <c r="O46">
+        <v>19</v>
+      </c>
+      <c r="P46" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="8"/>
+        <v>D#4</v>
+      </c>
+      <c r="S46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="24"/>
+        <v>2098</v>
+      </c>
+      <c r="U46">
+        <v>622.25</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="11"/>
+        <v>13660.104459622338</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="12"/>
+        <v>13660</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="13"/>
+        <v>622.25475841874083</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" si="14"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <f>U46*$AD$26</f>
+        <v>248900</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="16"/>
+        <v>683.00522298111696</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="17"/>
+        <v>683</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="18"/>
+        <v>248901.90336749633</v>
+      </c>
+      <c r="AI46" s="1">
+        <f t="shared" si="19"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="AJ46" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.4641288433381305E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f t="shared" si="23"/>
+        <v>1984</v>
+      </c>
+      <c r="O47">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="8"/>
+        <v>E4</v>
+      </c>
+      <c r="S47" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="24"/>
+        <v>1892</v>
+      </c>
+      <c r="U47">
+        <v>659.25</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="11"/>
+        <v>12893.439514599924</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="12"/>
+        <v>12893</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="13"/>
+        <v>659.27247343519741</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.4089397341618977E-5</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" si="15"/>
+        <v>-7.756146746307202E-5</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <f>U47*$AD$26</f>
+        <v>263700</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="16"/>
+        <v>644.67197572999623</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="17"/>
+        <v>645</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="18"/>
+        <v>263565.89147286821</v>
+      </c>
+      <c r="AI47" s="1">
+        <f t="shared" si="19"/>
+        <v>5.0856475969585091E-4</v>
+      </c>
+      <c r="AJ47" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.5503875968991832E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f t="shared" si="23"/>
+        <v>1799</v>
+      </c>
+      <c r="O48">
+        <v>21</v>
+      </c>
+      <c r="P48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="8"/>
+        <v>F4</v>
+      </c>
+      <c r="S48" t="s">
+        <v>28</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="24"/>
+        <v>1722</v>
+      </c>
+      <c r="U48">
+        <v>698.46</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="11"/>
+        <v>12169.630329582224</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="12"/>
+        <v>12170</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="13"/>
+        <v>698.43878389482336</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="14"/>
+        <v>3.0375547886318799E-5</v>
+      </c>
+      <c r="Z48" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <f>U48*$AD$26</f>
+        <v>279384</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="16"/>
+        <v>608.48151647911118</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="17"/>
+        <v>608</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="18"/>
+        <v>279605.26315789472</v>
+      </c>
+      <c r="AI48" s="1">
+        <f t="shared" si="19"/>
+        <v>-7.9196789327484751E-4</v>
+      </c>
+      <c r="AJ48" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f t="shared" si="23"/>
+        <v>1645</v>
+      </c>
+      <c r="O49">
+        <v>22</v>
+      </c>
+      <c r="P49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="8"/>
+        <v>F#4</v>
+      </c>
+      <c r="S49" t="s">
+        <v>28</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="24"/>
+        <v>1580</v>
+      </c>
+      <c r="U49">
+        <v>739.99</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="11"/>
+        <v>11486.641711374479</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="12"/>
+        <v>11487</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="13"/>
+        <v>739.9669191259685</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="14"/>
+        <v>3.1190791810020713E-5</v>
+      </c>
+      <c r="Z49" s="1">
+        <f t="shared" si="15"/>
+        <v>-8.705493166183409E-5</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <f>U49*$AD$26</f>
+        <v>295996</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="16"/>
+        <v>574.33208556872387</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="17"/>
+        <v>574</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="18"/>
+        <v>296167.24738675955</v>
+      </c>
+      <c r="AI49" s="1">
+        <f t="shared" si="19"/>
+        <v>-5.78546286975401E-4</v>
+      </c>
+      <c r="AJ49" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f t="shared" si="23"/>
+        <v>1515</v>
+      </c>
+      <c r="O50">
+        <v>23</v>
+      </c>
+      <c r="P50" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="8"/>
+        <v>G4</v>
+      </c>
+      <c r="S50" t="s">
+        <v>28</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="24"/>
+        <v>1460</v>
+      </c>
+      <c r="U50">
+        <v>783.99</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="11"/>
+        <v>10841.975025191648</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="12"/>
+        <v>10842</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="13"/>
+        <v>783.98819406013649</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="14"/>
+        <v>2.3035241055735511E-6</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <f>U50*$AD$26</f>
+        <v>313596</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="16"/>
+        <v>542.0987512595824</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="17"/>
+        <v>542</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="18"/>
+        <v>313653.13653136534</v>
+      </c>
+      <c r="AI50" s="1">
+        <f t="shared" si="19"/>
+        <v>-1.8219789590845359E-4</v>
+      </c>
+      <c r="AJ50" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f t="shared" si="23"/>
+        <v>1405</v>
+      </c>
+      <c r="O51">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="8"/>
+        <v>G#4</v>
+      </c>
+      <c r="S51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="24"/>
+        <v>1357</v>
+      </c>
+      <c r="U51">
+        <v>830.61</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="11"/>
+        <v>10233.442891368994</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="12"/>
+        <v>10233</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="13"/>
+        <v>830.64594937945867</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.3280696667036267E-5</v>
+      </c>
+      <c r="Z51" s="1">
+        <f t="shared" si="15"/>
+        <v>-9.772305286825933E-5</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <f>U51*$AD$26</f>
+        <v>332244</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="16"/>
+        <v>511.67214456844971</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="17"/>
+        <v>512</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="18"/>
+        <v>332031.25</v>
+      </c>
+      <c r="AI51" s="1">
+        <f t="shared" si="19"/>
+        <v>6.403426397466605E-4</v>
+      </c>
+      <c r="AJ51" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <f t="shared" si="23"/>
+        <v>1309</v>
+      </c>
+      <c r="O52">
+        <v>25</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="8"/>
+        <v>A5</v>
+      </c>
+      <c r="S52" t="s">
+        <v>28</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="24"/>
+        <v>1268</v>
+      </c>
+      <c r="U52">
+        <f>U40*2</f>
+        <v>880</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="11"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="12"/>
+        <v>9659</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="13"/>
+        <v>880.00828243089347</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" si="14"/>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z52" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.0353038616828236E-4</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <f>U52*$AD$26</f>
+        <v>352000</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="16"/>
+        <v>482.95454545454544</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="17"/>
+        <v>483</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="18"/>
+        <v>351966.87370600412</v>
+      </c>
+      <c r="AI52" s="1">
+        <f t="shared" si="19"/>
+        <v>9.4108789761015998E-5</v>
+      </c>
+      <c r="AJ52" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.0703933747412417E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <f t="shared" si="23"/>
+        <v>1226</v>
+      </c>
+      <c r="O53">
+        <v>26</v>
+      </c>
+      <c r="P53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="8"/>
+        <v>A#5</v>
+      </c>
+      <c r="S53" t="s">
+        <v>28</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="24"/>
+        <v>1189</v>
+      </c>
+      <c r="U53">
+        <f t="shared" ref="U53:U55" si="25">U41*2</f>
+        <v>932.32</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="11"/>
+        <v>9117.0413591899778</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="12"/>
+        <v>9117</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="13"/>
+        <v>932.32422946144561</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z53" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.0968520346610333E-4</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <f>U53*$AD$26</f>
+        <v>372928</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="16"/>
+        <v>455.85206795949887</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="17"/>
+        <v>456</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="18"/>
+        <v>372807.01754385966</v>
+      </c>
+      <c r="AI53" s="1">
+        <f t="shared" si="19"/>
+        <v>3.2441236951996633E-4</v>
+      </c>
+      <c r="AJ53" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <f t="shared" si="23"/>
+        <v>1152</v>
+      </c>
+      <c r="O54">
+        <v>27</v>
+      </c>
+      <c r="P54" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="8"/>
+        <v>B5</v>
+      </c>
+      <c r="S54" t="s">
+        <v>28</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="24"/>
+        <v>1120</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="25"/>
+        <v>987.76</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="11"/>
+        <v>8605.3292297724147</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="12"/>
+        <v>8605</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="13"/>
+        <v>987.79779198140614</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.82602873230109E-5</v>
+      </c>
+      <c r="Z54" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.162115049389012E-4</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <f>U54*$AD$26</f>
+        <v>395104</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="16"/>
+        <v>430.26646148862073</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="17"/>
+        <v>430</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="18"/>
+        <v>395348.83720930235</v>
+      </c>
+      <c r="AI54" s="1">
+        <f t="shared" si="19"/>
+        <v>-6.1967788051342509E-4</v>
+      </c>
+      <c r="AJ54" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <f t="shared" si="23"/>
+        <v>1087</v>
+      </c>
+      <c r="O55">
+        <v>28</v>
+      </c>
+      <c r="P55" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="8"/>
+        <v>C5</v>
+      </c>
+      <c r="S55" t="s">
+        <v>28</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="24"/>
+        <v>1058</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="25"/>
+        <v>1046.5</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="11"/>
+        <v>8122.3124701385568</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="12"/>
+        <v>8122</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="13"/>
+        <v>1046.5402610194533</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.8472068278450067E-5</v>
+      </c>
+      <c r="Z55" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <f>U55*$AD$26</f>
+        <v>418600</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="16"/>
+        <v>406.11562350692788</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="17"/>
+        <v>406</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="18"/>
+        <v>418719.21182266012</v>
+      </c>
+      <c r="AI55" s="1">
+        <f t="shared" si="19"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ55" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f>T28</f>
+        <v>3125</v>
+      </c>
+      <c r="L59">
+        <f>$J$30</f>
+        <v>20</v>
+      </c>
+      <c r="M59">
+        <f>W28</f>
+        <v>38636</v>
+      </c>
+      <c r="N59">
+        <f>AD28</f>
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <f>AG28</f>
+        <v>1932</v>
+      </c>
+      <c r="P59" t="str">
+        <f>CONCATENATE($J$58,J59,K$58,K59,$J$58,J59,L$58,L59,$J$58,J59,M$58,M59,$J$58,J59,N$58,N59,$J$58,J59,O$58,O59)</f>
+        <v>; notes[0].ADC_VAL = 3125; notes[0].PWM_PR = 20; notes[0].PWM_ARR = 38636; notes[0].Synth_PR = 1; notes[0].Synth_ARR = 1932</v>
+      </c>
+    </row>
+    <row r="60" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60:K123" si="26">T29</f>
+        <v>2687</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ref="L60:L123" si="27">$J$30</f>
+        <v>20</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ref="M60:M123" si="28">W29</f>
+        <v>36468</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60:N123" si="29">AD29</f>
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ref="O60:O123" si="30">AG29</f>
+        <v>1823</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" ref="P60:P86" si="31">CONCATENATE($J$58,J60,K$58,K60,$J$58,J60,L$58,L60,$J$58,J60,M$58,M60,$J$58,J60,N$58,N60,$J$58,J60,O$58,O60)</f>
+        <v>; notes[1].ADC_VAL = 2687; notes[1].PWM_PR = 20; notes[1].PWM_ARR = 36468; notes[1].Synth_PR = 1; notes[1].Synth_ARR = 1823</v>
+      </c>
+    </row>
+    <row r="61" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="26"/>
+        <v>2356</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="28"/>
+        <v>34421</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="30"/>
+        <v>1721</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[2].ADC_VAL = 2356; notes[2].PWM_PR = 20; notes[2].PWM_ARR = 34421; notes[2].Synth_PR = 1; notes[2].Synth_ARR = 1721</v>
+      </c>
+    </row>
+    <row r="62" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="26"/>
+        <v>2098</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="28"/>
+        <v>32489</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="30"/>
+        <v>1624</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[3].ADC_VAL = 2098; notes[3].PWM_PR = 20; notes[3].PWM_ARR = 32489; notes[3].Synth_PR = 1; notes[3].Synth_ARR = 1624</v>
+      </c>
+    </row>
+    <row r="63" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="26"/>
+        <v>1892</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="28"/>
+        <v>30665</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="30"/>
+        <v>1533</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[4].ADC_VAL = 1892; notes[4].PWM_PR = 20; notes[4].PWM_ARR = 30665; notes[4].Synth_PR = 1; notes[4].Synth_ARR = 1533</v>
+      </c>
+    </row>
+    <row r="64" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="26"/>
+        <v>1722</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="28"/>
+        <v>28945</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="30"/>
+        <v>1447</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[5].ADC_VAL = 1722; notes[5].PWM_PR = 20; notes[5].PWM_ARR = 28945; notes[5].Synth_PR = 1; notes[5].Synth_ARR = 1447</v>
+      </c>
+    </row>
+    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="26"/>
+        <v>1580</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="28"/>
+        <v>27320</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="30"/>
+        <v>1366</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[6].ADC_VAL = 1580; notes[6].PWM_PR = 20; notes[6].PWM_ARR = 27320; notes[6].Synth_PR = 1; notes[6].Synth_ARR = 1366</v>
+      </c>
+    </row>
+    <row r="66" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>7</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="26"/>
+        <v>1460</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="28"/>
+        <v>25787</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="30"/>
+        <v>1289</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[7].ADC_VAL = 1460; notes[7].PWM_PR = 20; notes[7].PWM_ARR = 25787; notes[7].Synth_PR = 1; notes[7].Synth_ARR = 1289</v>
+      </c>
+    </row>
+    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="26"/>
+        <v>1357</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="28"/>
+        <v>24339</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="30"/>
+        <v>1217</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[8].ADC_VAL = 1357; notes[8].PWM_PR = 20; notes[8].PWM_ARR = 24339; notes[8].Synth_PR = 1; notes[8].Synth_ARR = 1217</v>
+      </c>
+    </row>
+    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="26"/>
+        <v>1268</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="28"/>
+        <v>22973</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="30"/>
+        <v>1149</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[9].ADC_VAL = 1268; notes[9].PWM_PR = 20; notes[9].PWM_ARR = 22973; notes[9].Synth_PR = 1; notes[9].Synth_ARR = 1149</v>
+      </c>
+    </row>
+    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="26"/>
+        <v>1189</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="28"/>
+        <v>21684</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="30"/>
+        <v>1084</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[10].ADC_VAL = 1189; notes[10].PWM_PR = 20; notes[10].PWM_ARR = 21684; notes[10].Synth_PR = 1; notes[10].Synth_ARR = 1084</v>
+      </c>
+    </row>
+    <row r="70" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>11</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="26"/>
+        <v>1120</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="28"/>
+        <v>20467</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="30"/>
+        <v>1023</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[11].ADC_VAL = 1120; notes[11].PWM_PR = 20; notes[11].PWM_ARR = 20467; notes[11].Synth_PR = 1; notes[11].Synth_ARR = 1023</v>
+      </c>
+    </row>
+    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>12</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="26"/>
+        <v>1058</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="28"/>
+        <v>19318</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="30"/>
+        <v>966</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[12].ADC_VAL = 1058; notes[12].PWM_PR = 20; notes[12].PWM_ARR = 19318; notes[12].Synth_PR = 1; notes[12].Synth_ARR = 966</v>
+      </c>
+    </row>
+    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>13</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="26"/>
+        <v>1003</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="28"/>
+        <v>18234</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="30"/>
+        <v>912</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[13].ADC_VAL = 1003; notes[13].PWM_PR = 20; notes[13].PWM_ARR = 18234; notes[13].Synth_PR = 1; notes[13].Synth_ARR = 912</v>
+      </c>
+    </row>
+    <row r="73" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>14</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="26"/>
+        <v>900</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="28"/>
+        <v>17211</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="30"/>
+        <v>861</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[14].ADC_VAL = 900; notes[14].PWM_PR = 20; notes[14].PWM_ARR = 17211; notes[14].Synth_PR = 1; notes[14].Synth_ARR = 861</v>
+      </c>
+    </row>
+    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>15</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="26"/>
+        <v>3125</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="28"/>
+        <v>16245</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="30"/>
+        <v>812</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[15].ADC_VAL = 3125; notes[15].PWM_PR = 20; notes[15].PWM_ARR = 16245; notes[15].Synth_PR = 1; notes[15].Synth_ARR = 812</v>
+      </c>
+    </row>
+    <row r="75" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>16</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="26"/>
+        <v>2687</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="28"/>
+        <v>15333</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="30"/>
+        <v>767</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[16].ADC_VAL = 2687; notes[16].PWM_PR = 20; notes[16].PWM_ARR = 15333; notes[16].Synth_PR = 1; notes[16].Synth_ARR = 767</v>
+      </c>
+    </row>
+    <row r="76" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>17</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="26"/>
+        <v>2356</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="28"/>
+        <v>14472</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="30"/>
+        <v>724</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[17].ADC_VAL = 2356; notes[17].PWM_PR = 20; notes[17].PWM_ARR = 14472; notes[17].Synth_PR = 1; notes[17].Synth_ARR = 724</v>
+      </c>
+    </row>
+    <row r="77" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>18</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="26"/>
+        <v>2098</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="28"/>
+        <v>13660</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="30"/>
+        <v>683</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[18].ADC_VAL = 2098; notes[18].PWM_PR = 20; notes[18].PWM_ARR = 13660; notes[18].Synth_PR = 1; notes[18].Synth_ARR = 683</v>
+      </c>
+    </row>
+    <row r="78" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>19</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="26"/>
+        <v>1892</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="28"/>
+        <v>12893</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="30"/>
+        <v>645</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[19].ADC_VAL = 1892; notes[19].PWM_PR = 20; notes[19].PWM_ARR = 12893; notes[19].Synth_PR = 1; notes[19].Synth_ARR = 645</v>
+      </c>
+    </row>
+    <row r="79" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>20</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="26"/>
+        <v>1722</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="28"/>
+        <v>12170</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="30"/>
+        <v>608</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[20].ADC_VAL = 1722; notes[20].PWM_PR = 20; notes[20].PWM_ARR = 12170; notes[20].Synth_PR = 1; notes[20].Synth_ARR = 608</v>
+      </c>
+    </row>
+    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>21</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="26"/>
+        <v>1580</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="28"/>
+        <v>11487</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="30"/>
+        <v>574</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[21].ADC_VAL = 1580; notes[21].PWM_PR = 20; notes[21].PWM_ARR = 11487; notes[21].Synth_PR = 1; notes[21].Synth_ARR = 574</v>
+      </c>
+    </row>
+    <row r="81" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>22</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="26"/>
+        <v>1460</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="28"/>
+        <v>10842</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="30"/>
+        <v>542</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[22].ADC_VAL = 1460; notes[22].PWM_PR = 20; notes[22].PWM_ARR = 10842; notes[22].Synth_PR = 1; notes[22].Synth_ARR = 542</v>
+      </c>
+    </row>
+    <row r="82" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>23</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="26"/>
+        <v>1357</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="28"/>
+        <v>10233</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="30"/>
+        <v>512</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[23].ADC_VAL = 1357; notes[23].PWM_PR = 20; notes[23].PWM_ARR = 10233; notes[23].Synth_PR = 1; notes[23].Synth_ARR = 512</v>
+      </c>
+    </row>
+    <row r="83" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>24</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="26"/>
+        <v>1268</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="28"/>
+        <v>9659</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="30"/>
+        <v>483</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[24].ADC_VAL = 1268; notes[24].PWM_PR = 20; notes[24].PWM_ARR = 9659; notes[24].Synth_PR = 1; notes[24].Synth_ARR = 483</v>
+      </c>
+    </row>
+    <row r="84" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="26"/>
+        <v>1189</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="28"/>
+        <v>9117</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="30"/>
+        <v>456</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[25].ADC_VAL = 1189; notes[25].PWM_PR = 20; notes[25].PWM_ARR = 9117; notes[25].Synth_PR = 1; notes[25].Synth_ARR = 456</v>
+      </c>
+    </row>
+    <row r="85" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>26</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="26"/>
+        <v>1120</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="28"/>
+        <v>8605</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="30"/>
+        <v>430</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[26].ADC_VAL = 1120; notes[26].PWM_PR = 20; notes[26].PWM_ARR = 8605; notes[26].Synth_PR = 1; notes[26].Synth_ARR = 430</v>
+      </c>
+    </row>
+    <row r="86" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>27</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="26"/>
+        <v>1058</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="28"/>
+        <v>8122</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="30"/>
+        <v>406</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="31"/>
+        <v>; notes[27].ADC_VAL = 1058; notes[27].PWM_PR = 20; notes[27].PWM_ARR = 8122; notes[27].Synth_PR = 1; notes[27].Synth_ARR = 406</v>
       </c>
     </row>
   </sheetData>

--- a/Resistor calc.xlsx
+++ b/Resistor calc.xlsx
@@ -2690,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K20" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47:U47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L18" sqref="K18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="AE28">
-        <f>U28*$AD$26</f>
+        <f t="shared" ref="AE28:AE55" si="7">U28*$AD$26</f>
         <v>88000</v>
       </c>
       <c r="AF28">
@@ -3563,7 +3563,7 @@
     </row>
     <row r="29" spans="7:36" x14ac:dyDescent="0.25">
       <c r="N29">
-        <f t="shared" ref="N29:N46" si="7">L7</f>
+        <f t="shared" ref="N29:N42" si="8">L7</f>
         <v>2873</v>
       </c>
       <c r="O29">
@@ -3576,38 +3576,38 @@
         <v>3</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" ref="R29:R55" si="8">_xlfn.CONCAT(P29,Q29)</f>
+        <f t="shared" ref="R29:R55" si="9">_xlfn.CONCAT(P29,Q29)</f>
         <v>A#3</v>
       </c>
       <c r="S29" t="s">
         <v>13</v>
       </c>
       <c r="T29">
-        <f t="shared" ref="T29:T42" si="9">O7</f>
+        <f t="shared" ref="T29:T42" si="10">O7</f>
         <v>2687</v>
       </c>
       <c r="U29">
-        <f t="shared" ref="U29:U39" si="10">U41/2</f>
+        <f t="shared" ref="U29:U39" si="11">U41/2</f>
         <v>233.08</v>
       </c>
       <c r="V29">
-        <f t="shared" ref="V29:V55" si="11">$K$26/($J$30*U29)</f>
+        <f t="shared" ref="V29:V55" si="12">$K$26/($J$30*U29)</f>
         <v>36468.165436759911</v>
       </c>
       <c r="W29">
-        <f t="shared" ref="W29:W55" si="12">ROUND(V29,0)</f>
+        <f t="shared" ref="W29:W55" si="13">ROUND(V29,0)</f>
         <v>36468</v>
       </c>
       <c r="X29">
-        <f t="shared" ref="X29:X55" si="13">$K$26/(W29*$J$30)</f>
+        <f t="shared" ref="X29:X55" si="14">$K$26/(W29*$J$30)</f>
         <v>233.0810573653614</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" ref="Y29:Y55" si="14">1-X29/U29</f>
+        <f t="shared" ref="Y29:Y55" si="15">1-X29/U29</f>
         <v>-4.5364911678280606E-6</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" ref="Z29:Z55" si="15">1-ROUND(W29/2,0)/(W29/2)</f>
+        <f t="shared" ref="Z29:Z55" si="16">1-ROUND(W29/2,0)/(W29/2)</f>
         <v>0</v>
       </c>
       <c r="AD29">
@@ -3615,27 +3615,27 @@
         <v>1</v>
       </c>
       <c r="AE29">
-        <f>U29*$AD$26</f>
+        <f t="shared" si="7"/>
         <v>93232</v>
       </c>
       <c r="AF29">
-        <f t="shared" ref="AF29:AF55" si="16">$K$26/(AD29*AE29)</f>
+        <f t="shared" ref="AF29:AF55" si="17">$K$26/(AD29*AE29)</f>
         <v>1823.4082718379955</v>
       </c>
       <c r="AG29">
-        <f t="shared" ref="AG29:AG55" si="17">ROUND(AF29,0)</f>
+        <f t="shared" ref="AG29:AG55" si="18">ROUND(AF29,0)</f>
         <v>1823</v>
       </c>
       <c r="AH29">
-        <f t="shared" ref="AH29:AH55" si="18">$K$26/(AG29*AD29)</f>
+        <f t="shared" ref="AH29:AH55" si="19">$K$26/(AG29*AD29)</f>
         <v>93252.879868348871</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" ref="AI29:AI55" si="19">1-AH29/AE29</f>
+        <f t="shared" ref="AI29:AI55" si="20">1-AH29/AE29</f>
         <v>-2.2395602742486531E-4</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" ref="AJ29:AJ55" si="20">1-ROUND(AG29/2,0)/(AG29/2)</f>
+        <f t="shared" ref="AJ29:AJ55" si="21">1-ROUND(AG29/2,0)/(AG29/2)</f>
         <v>-5.4854635216683434E-4</v>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
         <v>20</v>
       </c>
       <c r="N30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2500</v>
       </c>
       <c r="O30">
@@ -3660,66 +3660,66 @@
         <v>3</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B3</v>
       </c>
       <c r="S30" t="s">
         <v>13</v>
       </c>
       <c r="T30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2356</v>
       </c>
       <c r="U30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>246.94</v>
       </c>
       <c r="V30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34421.316919089659</v>
       </c>
       <c r="W30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>34421</v>
       </c>
       <c r="X30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>246.94227361203917</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.2071435942031599E-6</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.9052032189724741E-5</v>
       </c>
       <c r="AD30">
-        <f t="shared" ref="AD30:AD55" si="21">AD29</f>
+        <f t="shared" ref="AD30:AD55" si="22">AD29</f>
         <v>1</v>
       </c>
       <c r="AE30">
-        <f>U30*$AD$26</f>
+        <f t="shared" si="7"/>
         <v>98776</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1721.0658459544829</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1721</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>98779.779198140619</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.82602873230109E-5</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5.8105752469495009E-4</v>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
         <v>450</v>
       </c>
       <c r="N31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2212</v>
       </c>
       <c r="O31">
@@ -3744,66 +3744,66 @@
         <v>3</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>C3</v>
       </c>
       <c r="S31" t="s">
         <v>13</v>
       </c>
       <c r="T31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2098</v>
       </c>
       <c r="U31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>261.625</v>
       </c>
       <c r="V31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32489.249880554227</v>
       </c>
       <c r="W31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32489</v>
       </c>
       <c r="X31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>261.62701221952045</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.6912356252734071E-6</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.0779648496404022E-5</v>
       </c>
       <c r="AD31">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="7"/>
+        <v>104650</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="17"/>
+        <v>1624.4624940277115</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="18"/>
+        <v>1624</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="19"/>
+        <v>104679.80295566503</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ31" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <f>U31*$AD$26</f>
-        <v>104650</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="16"/>
-        <v>1624.4624940277115</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="17"/>
-        <v>1624</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="18"/>
-        <v>104679.80295566503</v>
-      </c>
-      <c r="AI31" s="1">
-        <f t="shared" si="19"/>
-        <v>-2.8478696287659311E-4</v>
-      </c>
-      <c r="AJ31" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
         <v>20000</v>
       </c>
       <c r="N32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1984</v>
       </c>
       <c r="O32">
@@ -3836,66 +3836,66 @@
         <v>3</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>C#3</v>
       </c>
       <c r="S32" t="s">
         <v>13</v>
       </c>
       <c r="T32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1892</v>
       </c>
       <c r="U32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>277.185</v>
       </c>
       <c r="V32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30665.440049064706</v>
       </c>
       <c r="W32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30665</v>
       </c>
       <c r="X32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>277.18897766182943</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.4350205925328652E-5</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.2610467960214606E-5</v>
       </c>
       <c r="AD32">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="7"/>
+        <v>110874</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="17"/>
+        <v>1533.2720024532352</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="18"/>
+        <v>1533</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="19"/>
+        <v>110893.67253750816</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.7743147634385892E-4</v>
+      </c>
+      <c r="AJ32" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE32">
-        <f>U32*$AD$26</f>
-        <v>110874</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="16"/>
-        <v>1533.2720024532352</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="17"/>
-        <v>1533</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="18"/>
-        <v>110893.67253750816</v>
-      </c>
-      <c r="AI32" s="1">
-        <f t="shared" si="19"/>
-        <v>-1.7743147634385892E-4</v>
-      </c>
-      <c r="AJ32" s="1">
-        <f t="shared" si="20"/>
         <v>-6.5231572080892697E-4</v>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>5.2941176470588231E-5</v>
       </c>
       <c r="N33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1799</v>
       </c>
       <c r="O33">
@@ -3918,66 +3918,66 @@
         <v>3</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>D3</v>
       </c>
       <c r="S33" t="s">
         <v>13</v>
       </c>
       <c r="T33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1722</v>
       </c>
       <c r="U33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>293.66500000000002</v>
       </c>
       <c r="V33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28944.545655764221</v>
       </c>
       <c r="W33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28945</v>
       </c>
       <c r="X33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>293.66039039557779</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.56968124298551E-5</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.4548281222956945E-5</v>
       </c>
       <c r="AD33">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="7"/>
+        <v>117466.00000000001</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="17"/>
+        <v>1447.2272827882109</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="18"/>
+        <v>1447</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="19"/>
+        <v>117484.45058742225</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.5707172647605461E-4</v>
+      </c>
+      <c r="AJ33" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <f>U33*$AD$26</f>
-        <v>117466.00000000001</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="16"/>
-        <v>1447.2272827882109</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="17"/>
-        <v>1447</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="18"/>
-        <v>117484.45058742225</v>
-      </c>
-      <c r="AI33" s="1">
-        <f t="shared" si="19"/>
-        <v>-1.5707172647605461E-4</v>
-      </c>
-      <c r="AJ33" s="1">
-        <f t="shared" si="20"/>
         <v>-6.9108500345538282E-4</v>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
         <v>18888.888888888891</v>
       </c>
       <c r="N34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1645</v>
       </c>
       <c r="O34">
@@ -4000,72 +4000,72 @@
         <v>3</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>D#3</v>
       </c>
       <c r="S34" t="s">
         <v>13</v>
       </c>
       <c r="T34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1580</v>
       </c>
       <c r="U34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>311.125</v>
       </c>
       <c r="V34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27320.208919244677</v>
       </c>
       <c r="W34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27320</v>
       </c>
       <c r="X34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>311.12737920937042</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.6471173013903382E-6</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD34">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="7"/>
+        <v>124450</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="17"/>
+        <v>1366.0104459622339</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="18"/>
+        <v>1366</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="19"/>
+        <v>124450.95168374816</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="20"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="AJ34" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <f>U34*$AD$26</f>
-        <v>124450</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="16"/>
-        <v>1366.0104459622339</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" si="17"/>
-        <v>1366</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="18"/>
-        <v>124450.95168374816</v>
-      </c>
-      <c r="AI34" s="1">
-        <f t="shared" si="19"/>
-        <v>-7.6471173013903382E-6</v>
-      </c>
-      <c r="AJ34" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1515</v>
       </c>
       <c r="O35">
@@ -4078,72 +4078,72 @@
         <v>3</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>E3</v>
       </c>
       <c r="S35" t="s">
         <v>13</v>
       </c>
       <c r="T35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1460</v>
       </c>
       <c r="U35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>329.625</v>
       </c>
       <c r="V35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25786.879029199848</v>
       </c>
       <c r="W35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25787</v>
       </c>
       <c r="X35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>329.62345367820996</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.6911544635541702E-6</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8779229844410068E-5</v>
       </c>
       <c r="AD35">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="7"/>
+        <v>131850</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="17"/>
+        <v>1289.3439514599925</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="18"/>
+        <v>1289</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="19"/>
+        <v>131885.18231186966</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.6683588827958182E-4</v>
+      </c>
+      <c r="AJ35" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE35">
-        <f>U35*$AD$26</f>
-        <v>131850</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="16"/>
-        <v>1289.3439514599925</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="17"/>
-        <v>1289</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="18"/>
-        <v>131885.18231186966</v>
-      </c>
-      <c r="AI35" s="1">
-        <f t="shared" si="19"/>
-        <v>-2.6683588827958182E-4</v>
-      </c>
-      <c r="AJ35" s="1">
-        <f t="shared" si="20"/>
         <v>-7.7579519006976128E-4</v>
       </c>
     </row>
     <row r="36" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1405</v>
       </c>
       <c r="O36">
@@ -4156,72 +4156,72 @@
         <v>3</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>F3</v>
       </c>
       <c r="S36" t="s">
         <v>13</v>
       </c>
       <c r="T36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1357</v>
       </c>
       <c r="U36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>349.23</v>
       </c>
       <c r="V36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24339.260659164447</v>
       </c>
       <c r="W36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24339</v>
       </c>
       <c r="X36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>349.23374008792473</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.070952645743084E-5</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.1086322363215189E-5</v>
       </c>
       <c r="AD36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="7"/>
+        <v>139692</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="17"/>
+        <v>1216.9630329582224</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="18"/>
+        <v>1217</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="19"/>
+        <v>139687.75677896466</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="20"/>
+        <v>3.0375547886429821E-5</v>
+      </c>
+      <c r="AJ36" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE36">
-        <f>U36*$AD$26</f>
-        <v>139692</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" si="16"/>
-        <v>1216.9630329582224</v>
-      </c>
-      <c r="AG36">
-        <f t="shared" si="17"/>
-        <v>1217</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="18"/>
-        <v>139687.75677896466</v>
-      </c>
-      <c r="AI36" s="1">
-        <f t="shared" si="19"/>
-        <v>3.0375547886429821E-5</v>
-      </c>
-      <c r="AJ36" s="1">
-        <f t="shared" si="20"/>
         <v>-8.2169268693510489E-4</v>
       </c>
     </row>
     <row r="37" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1309</v>
       </c>
       <c r="O37">
@@ -4234,66 +4234,66 @@
         <v>3</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>F#3</v>
       </c>
       <c r="S37" t="s">
         <v>13</v>
       </c>
       <c r="T37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1268</v>
       </c>
       <c r="U37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>369.995</v>
       </c>
       <c r="V37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22973.283422748958</v>
       </c>
       <c r="W37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22973</v>
       </c>
       <c r="X37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>369.99956470639444</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.2337211028334849E-5</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.3529360553629104E-5</v>
       </c>
       <c r="AD37">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="7"/>
+        <v>147998</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="17"/>
+        <v>1148.6641711374477</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="18"/>
+        <v>1149</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="19"/>
+        <v>147954.74325500434</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="20"/>
+        <v>2.9227925374430974E-4</v>
+      </c>
+      <c r="AJ37" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE37">
-        <f>U37*$AD$26</f>
-        <v>147998</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="16"/>
-        <v>1148.6641711374477</v>
-      </c>
-      <c r="AG37">
-        <f t="shared" si="17"/>
-        <v>1149</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="18"/>
-        <v>147954.74325500434</v>
-      </c>
-      <c r="AI37" s="1">
-        <f t="shared" si="19"/>
-        <v>2.9227925374430974E-4</v>
-      </c>
-      <c r="AJ37" s="1">
-        <f t="shared" si="20"/>
         <v>-8.7032201914705176E-4</v>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
         <v>18888.888888888891</v>
       </c>
       <c r="N38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1226</v>
       </c>
       <c r="O38">
@@ -4316,72 +4316,72 @@
         <v>3</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>G3</v>
       </c>
       <c r="S38" t="s">
         <v>13</v>
       </c>
       <c r="T38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1189</v>
       </c>
       <c r="U38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>391.995</v>
       </c>
       <c r="V38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21683.950050383297</v>
       </c>
       <c r="W38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21684</v>
       </c>
       <c r="X38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>391.99409703006825</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3035241055735511E-6</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD38">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="7"/>
+        <v>156798</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="17"/>
+        <v>1084.1975025191648</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="18"/>
+        <v>1084</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="19"/>
+        <v>156826.56826568267</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.8219789590845359E-4</v>
+      </c>
+      <c r="AJ38" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE38">
-        <f>U38*$AD$26</f>
-        <v>156798</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="16"/>
-        <v>1084.1975025191648</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" si="17"/>
-        <v>1084</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" si="18"/>
-        <v>156826.56826568267</v>
-      </c>
-      <c r="AI38" s="1">
-        <f t="shared" si="19"/>
-        <v>-1.8219789590845359E-4</v>
-      </c>
-      <c r="AJ38" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1152</v>
       </c>
       <c r="O39">
@@ -4394,72 +4394,72 @@
         <v>3</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>G#3</v>
       </c>
       <c r="S39" t="s">
         <v>13</v>
       </c>
       <c r="T39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1120</v>
       </c>
       <c r="U39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>415.30500000000001</v>
       </c>
       <c r="V39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20466.885782737987</v>
       </c>
       <c r="W39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20467</v>
       </c>
       <c r="X39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>415.30268236673669</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.580557092543792E-6</v>
       </c>
       <c r="Z39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.8859139101908866E-5</v>
       </c>
       <c r="AD39">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="7"/>
+        <v>166122</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="17"/>
+        <v>1023.3442891368994</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="18"/>
+        <v>1023</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="19"/>
+        <v>166177.90811339198</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="20"/>
+        <v>-3.3654852091835608E-4</v>
+      </c>
+      <c r="AJ39" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE39">
-        <f>U39*$AD$26</f>
-        <v>166122</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" si="16"/>
-        <v>1023.3442891368994</v>
-      </c>
-      <c r="AG39">
-        <f t="shared" si="17"/>
-        <v>1023</v>
-      </c>
-      <c r="AH39">
-        <f t="shared" si="18"/>
-        <v>166177.90811339198</v>
-      </c>
-      <c r="AI39" s="1">
-        <f t="shared" si="19"/>
-        <v>-3.3654852091835608E-4</v>
-      </c>
-      <c r="AJ39" s="1">
-        <f t="shared" si="20"/>
         <v>-9.7751710654936375E-4</v>
       </c>
     </row>
     <row r="40" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1087</v>
       </c>
       <c r="O40">
@@ -4473,71 +4473,71 @@
         <v>4</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A4</v>
       </c>
       <c r="S40" t="s">
         <v>13</v>
       </c>
       <c r="T40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1058</v>
       </c>
       <c r="U40">
         <v>440</v>
       </c>
       <c r="V40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19318.18181818182</v>
       </c>
       <c r="W40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19318</v>
       </c>
       <c r="X40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>440.00414121544674</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.411853288066041E-6</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD40">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="7"/>
+        <v>176000</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="17"/>
+        <v>965.90909090909088</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="18"/>
+        <v>966</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="19"/>
+        <v>175983.43685300206</v>
+      </c>
+      <c r="AI40" s="1">
+        <f t="shared" si="20"/>
+        <v>9.4108789761015998E-5</v>
+      </c>
+      <c r="AJ40" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE40">
-        <f>U40*$AD$26</f>
-        <v>176000</v>
-      </c>
-      <c r="AF40">
-        <f t="shared" si="16"/>
-        <v>965.90909090909088</v>
-      </c>
-      <c r="AG40">
-        <f t="shared" si="17"/>
-        <v>966</v>
-      </c>
-      <c r="AH40">
-        <f t="shared" si="18"/>
-        <v>175983.43685300206</v>
-      </c>
-      <c r="AI40" s="1">
-        <f t="shared" si="19"/>
-        <v>9.4108789761015998E-5</v>
-      </c>
-      <c r="AJ40" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1029</v>
       </c>
       <c r="O41">
@@ -4547,75 +4547,75 @@
         <v>8</v>
       </c>
       <c r="Q41">
-        <f t="shared" ref="Q41:Q55" si="22">Q29+1</f>
+        <f t="shared" ref="Q41:Q55" si="23">Q29+1</f>
         <v>4</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A#4</v>
       </c>
       <c r="S41" t="s">
         <v>13</v>
       </c>
       <c r="T41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1003</v>
       </c>
       <c r="U41">
         <v>466.16</v>
       </c>
       <c r="V41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18234.082718379956</v>
       </c>
       <c r="W41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18234</v>
       </c>
       <c r="X41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>466.16211473072281</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.5364911678280606E-6</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD41">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="7"/>
+        <v>186464</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="17"/>
+        <v>911.70413591899774</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="18"/>
+        <v>912</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="19"/>
+        <v>186403.50877192983</v>
+      </c>
+      <c r="AI41" s="1">
+        <f t="shared" si="20"/>
+        <v>3.2441236951996633E-4</v>
+      </c>
+      <c r="AJ41" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <f>U41*$AD$26</f>
-        <v>186464</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="16"/>
-        <v>911.70413591899774</v>
-      </c>
-      <c r="AG41">
-        <f t="shared" si="17"/>
-        <v>912</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" si="18"/>
-        <v>186403.50877192983</v>
-      </c>
-      <c r="AI41" s="1">
-        <f t="shared" si="19"/>
-        <v>3.2441236951996633E-4</v>
-      </c>
-      <c r="AJ41" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>977</v>
       </c>
       <c r="O42">
@@ -4625,69 +4625,69 @@
         <v>2</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B4</v>
       </c>
       <c r="S42" t="s">
         <v>13</v>
       </c>
       <c r="T42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>900</v>
       </c>
       <c r="U42">
         <v>493.88</v>
       </c>
       <c r="V42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17210.658459544829</v>
       </c>
       <c r="W42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17211</v>
       </c>
       <c r="X42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>493.87019929115098</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.9844312077910153E-5</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-5.8102376387259014E-5</v>
       </c>
       <c r="AD42">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="7"/>
+        <v>197552</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="17"/>
+        <v>860.53292297724147</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="18"/>
+        <v>861</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="19"/>
+        <v>197444.83159117305</v>
+      </c>
+      <c r="AI42" s="1">
+        <f t="shared" si="20"/>
+        <v>5.4248202410989155E-4</v>
+      </c>
+      <c r="AJ42" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <f>U42*$AD$26</f>
-        <v>197552</v>
-      </c>
-      <c r="AF42">
-        <f t="shared" si="16"/>
-        <v>860.53292297724147</v>
-      </c>
-      <c r="AG42">
-        <f t="shared" si="17"/>
-        <v>861</v>
-      </c>
-      <c r="AH42">
-        <f t="shared" si="18"/>
-        <v>197444.83159117305</v>
-      </c>
-      <c r="AI42" s="1">
-        <f t="shared" si="19"/>
-        <v>5.4248202410989155E-4</v>
-      </c>
-      <c r="AJ42" s="1">
-        <f t="shared" si="20"/>
         <v>-1.1614401858304202E-3</v>
       </c>
     </row>
@@ -4703,11 +4703,11 @@
         <v>3</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>C4</v>
       </c>
       <c r="S43" t="s">
@@ -4721,57 +4721,57 @@
         <v>523.25</v>
       </c>
       <c r="V43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16244.624940277114</v>
       </c>
       <c r="W43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16245</v>
       </c>
       <c r="X43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>523.23791935980307</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3087702239688035E-5</v>
       </c>
       <c r="Z43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-6.1557402277534479E-5</v>
       </c>
       <c r="AD43">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="7"/>
+        <v>209300</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="17"/>
+        <v>812.23124701385575</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="18"/>
+        <v>812</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="19"/>
+        <v>209359.60591133006</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ43" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <f>U43*$AD$26</f>
-        <v>209300</v>
-      </c>
-      <c r="AF43">
-        <f t="shared" si="16"/>
-        <v>812.23124701385575</v>
-      </c>
-      <c r="AG43">
-        <f t="shared" si="17"/>
-        <v>812</v>
-      </c>
-      <c r="AH43">
-        <f t="shared" si="18"/>
-        <v>209359.60591133006</v>
-      </c>
-      <c r="AI43" s="1">
-        <f t="shared" si="19"/>
-        <v>-2.8478696287659311E-4</v>
-      </c>
-      <c r="AJ43" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N44">
-        <f t="shared" ref="N44:N55" si="23">L7</f>
+        <f t="shared" ref="N44:N55" si="24">L7</f>
         <v>2873</v>
       </c>
       <c r="O44">
@@ -4781,75 +4781,75 @@
         <v>9</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>C#4</v>
       </c>
       <c r="S44" t="s">
         <v>28</v>
       </c>
       <c r="T44">
-        <f t="shared" ref="T44:T55" si="24">O7</f>
+        <f t="shared" ref="T44:T55" si="25">O7</f>
         <v>2687</v>
       </c>
       <c r="U44">
         <v>554.37</v>
       </c>
       <c r="V44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15332.720024532353</v>
       </c>
       <c r="W44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15333</v>
       </c>
       <c r="X44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>554.35987738863889</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8259666578535061E-5</v>
       </c>
       <c r="Z44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-6.5218809104594655E-5</v>
       </c>
       <c r="AD44">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="7"/>
+        <v>221748</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="17"/>
+        <v>766.63600122661762</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="18"/>
+        <v>767</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="19"/>
+        <v>221642.76401564537</v>
+      </c>
+      <c r="AI44" s="1">
+        <f t="shared" si="20"/>
+        <v>4.7457467194578218E-4</v>
+      </c>
+      <c r="AJ44" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <f>U44*$AD$26</f>
-        <v>221748</v>
-      </c>
-      <c r="AF44">
-        <f t="shared" si="16"/>
-        <v>766.63600122661762</v>
-      </c>
-      <c r="AG44">
-        <f t="shared" si="17"/>
-        <v>767</v>
-      </c>
-      <c r="AH44">
-        <f t="shared" si="18"/>
-        <v>221642.76401564537</v>
-      </c>
-      <c r="AI44" s="1">
-        <f t="shared" si="19"/>
-        <v>4.7457467194578218E-4</v>
-      </c>
-      <c r="AJ44" s="1">
-        <f t="shared" si="20"/>
         <v>-1.3037809647979959E-3</v>
       </c>
     </row>
     <row r="45" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2500</v>
       </c>
       <c r="O45">
@@ -4859,75 +4859,75 @@
         <v>4</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>D4</v>
       </c>
       <c r="S45" t="s">
         <v>28</v>
       </c>
       <c r="T45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2356</v>
       </c>
       <c r="U45">
         <v>587.33000000000004</v>
       </c>
       <c r="V45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14472.272827882111</v>
       </c>
       <c r="W45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14472</v>
       </c>
       <c r="X45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>587.34107241569927</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.8852120101442438E-5</v>
       </c>
       <c r="Z45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD45">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="7"/>
+        <v>234932.00000000003</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="17"/>
+        <v>723.61364139410546</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="18"/>
+        <v>724</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="19"/>
+        <v>234806.62983425416</v>
+      </c>
+      <c r="AI45" s="1">
+        <f t="shared" si="20"/>
+        <v>5.3364448327974934E-4</v>
+      </c>
+      <c r="AJ45" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <f>U45*$AD$26</f>
-        <v>234932.00000000003</v>
-      </c>
-      <c r="AF45">
-        <f t="shared" si="16"/>
-        <v>723.61364139410546</v>
-      </c>
-      <c r="AG45">
-        <f t="shared" si="17"/>
-        <v>724</v>
-      </c>
-      <c r="AH45">
-        <f t="shared" si="18"/>
-        <v>234806.62983425416</v>
-      </c>
-      <c r="AI45" s="1">
-        <f t="shared" si="19"/>
-        <v>5.3364448327974934E-4</v>
-      </c>
-      <c r="AJ45" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2212</v>
       </c>
       <c r="O46">
@@ -4937,75 +4937,75 @@
         <v>10</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>D#4</v>
       </c>
       <c r="S46" t="s">
         <v>28</v>
       </c>
       <c r="T46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2098</v>
       </c>
       <c r="U46">
         <v>622.25</v>
       </c>
       <c r="V46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13660.104459622338</v>
       </c>
       <c r="W46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13660</v>
       </c>
       <c r="X46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>622.25475841874083</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.6471173013903382E-6</v>
       </c>
       <c r="Z46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD46">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="7"/>
+        <v>248900</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="17"/>
+        <v>683.00522298111696</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="18"/>
+        <v>683</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="19"/>
+        <v>248901.90336749633</v>
+      </c>
+      <c r="AI46" s="1">
+        <f t="shared" si="20"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="AJ46" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <f>U46*$AD$26</f>
-        <v>248900</v>
-      </c>
-      <c r="AF46">
-        <f t="shared" si="16"/>
-        <v>683.00522298111696</v>
-      </c>
-      <c r="AG46">
-        <f t="shared" si="17"/>
-        <v>683</v>
-      </c>
-      <c r="AH46">
-        <f t="shared" si="18"/>
-        <v>248901.90336749633</v>
-      </c>
-      <c r="AI46" s="1">
-        <f t="shared" si="19"/>
-        <v>-7.6471173013903382E-6</v>
-      </c>
-      <c r="AJ46" s="1">
-        <f t="shared" si="20"/>
         <v>-1.4641288433381305E-3</v>
       </c>
     </row>
     <row r="47" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1984</v>
       </c>
       <c r="O47">
@@ -5015,75 +5015,75 @@
         <v>5</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>E4</v>
       </c>
       <c r="S47" t="s">
         <v>28</v>
       </c>
       <c r="T47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1892</v>
       </c>
       <c r="U47">
         <v>659.25</v>
       </c>
       <c r="V47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12893.439514599924</v>
       </c>
       <c r="W47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12893</v>
       </c>
       <c r="X47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>659.27247343519741</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.4089397341618977E-5</v>
       </c>
       <c r="Z47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-7.756146746307202E-5</v>
       </c>
       <c r="AD47">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="7"/>
+        <v>263700</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="17"/>
+        <v>644.67197572999623</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="18"/>
+        <v>645</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="19"/>
+        <v>263565.89147286821</v>
+      </c>
+      <c r="AI47" s="1">
+        <f t="shared" si="20"/>
+        <v>5.0856475969585091E-4</v>
+      </c>
+      <c r="AJ47" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <f>U47*$AD$26</f>
-        <v>263700</v>
-      </c>
-      <c r="AF47">
-        <f t="shared" si="16"/>
-        <v>644.67197572999623</v>
-      </c>
-      <c r="AG47">
-        <f t="shared" si="17"/>
-        <v>645</v>
-      </c>
-      <c r="AH47">
-        <f t="shared" si="18"/>
-        <v>263565.89147286821</v>
-      </c>
-      <c r="AI47" s="1">
-        <f t="shared" si="19"/>
-        <v>5.0856475969585091E-4</v>
-      </c>
-      <c r="AJ47" s="1">
-        <f t="shared" si="20"/>
         <v>-1.5503875968991832E-3</v>
       </c>
     </row>
     <row r="48" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1799</v>
       </c>
       <c r="O48">
@@ -5093,75 +5093,75 @@
         <v>6</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>F4</v>
       </c>
       <c r="S48" t="s">
         <v>28</v>
       </c>
       <c r="T48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1722</v>
       </c>
       <c r="U48">
         <v>698.46</v>
       </c>
       <c r="V48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12169.630329582224</v>
       </c>
       <c r="W48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12170</v>
       </c>
       <c r="X48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>698.43878389482336</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0375547886318799E-5</v>
       </c>
       <c r="Z48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="7"/>
+        <v>279384</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="17"/>
+        <v>608.48151647911118</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="18"/>
+        <v>608</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="19"/>
+        <v>279605.26315789472</v>
+      </c>
+      <c r="AI48" s="1">
+        <f t="shared" si="20"/>
+        <v>-7.9196789327484751E-4</v>
+      </c>
+      <c r="AJ48" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <f>U48*$AD$26</f>
-        <v>279384</v>
-      </c>
-      <c r="AF48">
-        <f t="shared" si="16"/>
-        <v>608.48151647911118</v>
-      </c>
-      <c r="AG48">
-        <f t="shared" si="17"/>
-        <v>608</v>
-      </c>
-      <c r="AH48">
-        <f t="shared" si="18"/>
-        <v>279605.26315789472</v>
-      </c>
-      <c r="AI48" s="1">
-        <f t="shared" si="19"/>
-        <v>-7.9196789327484751E-4</v>
-      </c>
-      <c r="AJ48" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1645</v>
       </c>
       <c r="O49">
@@ -5171,75 +5171,75 @@
         <v>11</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>F#4</v>
       </c>
       <c r="S49" t="s">
         <v>28</v>
       </c>
       <c r="T49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1580</v>
       </c>
       <c r="U49">
         <v>739.99</v>
       </c>
       <c r="V49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11486.641711374479</v>
       </c>
       <c r="W49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11487</v>
       </c>
       <c r="X49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>739.9669191259685</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1190791810020713E-5</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-8.705493166183409E-5</v>
       </c>
       <c r="AD49">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="7"/>
+        <v>295996</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="17"/>
+        <v>574.33208556872387</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="18"/>
+        <v>574</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="19"/>
+        <v>296167.24738675955</v>
+      </c>
+      <c r="AI49" s="1">
+        <f t="shared" si="20"/>
+        <v>-5.78546286975401E-4</v>
+      </c>
+      <c r="AJ49" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <f>U49*$AD$26</f>
-        <v>295996</v>
-      </c>
-      <c r="AF49">
-        <f t="shared" si="16"/>
-        <v>574.33208556872387</v>
-      </c>
-      <c r="AG49">
-        <f t="shared" si="17"/>
-        <v>574</v>
-      </c>
-      <c r="AH49">
-        <f t="shared" si="18"/>
-        <v>296167.24738675955</v>
-      </c>
-      <c r="AI49" s="1">
-        <f t="shared" si="19"/>
-        <v>-5.78546286975401E-4</v>
-      </c>
-      <c r="AJ49" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1515</v>
       </c>
       <c r="O50">
@@ -5249,75 +5249,75 @@
         <v>7</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>G4</v>
       </c>
       <c r="S50" t="s">
         <v>28</v>
       </c>
       <c r="T50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1460</v>
       </c>
       <c r="U50">
         <v>783.99</v>
       </c>
       <c r="V50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10841.975025191648</v>
       </c>
       <c r="W50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10842</v>
       </c>
       <c r="X50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>783.98819406013649</v>
       </c>
       <c r="Y50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3035241055735511E-6</v>
       </c>
       <c r="Z50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD50">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="7"/>
+        <v>313596</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="17"/>
+        <v>542.0987512595824</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="18"/>
+        <v>542</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="19"/>
+        <v>313653.13653136534</v>
+      </c>
+      <c r="AI50" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.8219789590845359E-4</v>
+      </c>
+      <c r="AJ50" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <f>U50*$AD$26</f>
-        <v>313596</v>
-      </c>
-      <c r="AF50">
-        <f t="shared" si="16"/>
-        <v>542.0987512595824</v>
-      </c>
-      <c r="AG50">
-        <f t="shared" si="17"/>
-        <v>542</v>
-      </c>
-      <c r="AH50">
-        <f t="shared" si="18"/>
-        <v>313653.13653136534</v>
-      </c>
-      <c r="AI50" s="1">
-        <f t="shared" si="19"/>
-        <v>-1.8219789590845359E-4</v>
-      </c>
-      <c r="AJ50" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1405</v>
       </c>
       <c r="O51">
@@ -5327,75 +5327,75 @@
         <v>12</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>G#4</v>
       </c>
       <c r="S51" t="s">
         <v>28</v>
       </c>
       <c r="T51">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1357</v>
       </c>
       <c r="U51">
         <v>830.61</v>
       </c>
       <c r="V51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10233.442891368994</v>
       </c>
       <c r="W51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10233</v>
       </c>
       <c r="X51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>830.64594937945867</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.3280696667036267E-5</v>
       </c>
       <c r="Z51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-9.772305286825933E-5</v>
       </c>
       <c r="AD51">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="7"/>
+        <v>332244</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="17"/>
+        <v>511.67214456844971</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="18"/>
+        <v>512</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="19"/>
+        <v>332031.25</v>
+      </c>
+      <c r="AI51" s="1">
+        <f t="shared" si="20"/>
+        <v>6.403426397466605E-4</v>
+      </c>
+      <c r="AJ51" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <f>U51*$AD$26</f>
-        <v>332244</v>
-      </c>
-      <c r="AF51">
-        <f t="shared" si="16"/>
-        <v>511.67214456844971</v>
-      </c>
-      <c r="AG51">
-        <f t="shared" si="17"/>
-        <v>512</v>
-      </c>
-      <c r="AH51">
-        <f t="shared" si="18"/>
-        <v>332031.25</v>
-      </c>
-      <c r="AI51" s="1">
-        <f t="shared" si="19"/>
-        <v>6.403426397466605E-4</v>
-      </c>
-      <c r="AJ51" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1309</v>
       </c>
       <c r="O52">
@@ -5405,18 +5405,18 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A5</v>
       </c>
       <c r="S52" t="s">
         <v>28</v>
       </c>
       <c r="T52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1268</v>
       </c>
       <c r="U52">
@@ -5424,57 +5424,57 @@
         <v>880</v>
       </c>
       <c r="V52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9659.0909090909099</v>
       </c>
       <c r="W52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9659</v>
       </c>
       <c r="X52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>880.00828243089347</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.411853288066041E-6</v>
       </c>
       <c r="Z52" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.0353038616828236E-4</v>
       </c>
       <c r="AD52">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="7"/>
+        <v>352000</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="17"/>
+        <v>482.95454545454544</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="18"/>
+        <v>483</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="19"/>
+        <v>351966.87370600412</v>
+      </c>
+      <c r="AI52" s="1">
+        <f t="shared" si="20"/>
+        <v>9.4108789761015998E-5</v>
+      </c>
+      <c r="AJ52" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <f>U52*$AD$26</f>
-        <v>352000</v>
-      </c>
-      <c r="AF52">
-        <f t="shared" si="16"/>
-        <v>482.95454545454544</v>
-      </c>
-      <c r="AG52">
-        <f t="shared" si="17"/>
-        <v>483</v>
-      </c>
-      <c r="AH52">
-        <f t="shared" si="18"/>
-        <v>351966.87370600412</v>
-      </c>
-      <c r="AI52" s="1">
-        <f t="shared" si="19"/>
-        <v>9.4108789761015998E-5</v>
-      </c>
-      <c r="AJ52" s="1">
-        <f t="shared" si="20"/>
         <v>-2.0703933747412417E-3</v>
       </c>
     </row>
     <row r="53" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1226</v>
       </c>
       <c r="O53">
@@ -5484,76 +5484,76 @@
         <v>8</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A#5</v>
       </c>
       <c r="S53" t="s">
         <v>28</v>
       </c>
       <c r="T53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1189</v>
       </c>
       <c r="U53">
-        <f t="shared" ref="U53:U55" si="25">U41*2</f>
+        <f t="shared" ref="U53:U55" si="26">U41*2</f>
         <v>932.32</v>
       </c>
       <c r="V53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9117.0413591899778</v>
       </c>
       <c r="W53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9117</v>
       </c>
       <c r="X53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>932.32422946144561</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.5364911678280606E-6</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.0968520346610333E-4</v>
       </c>
       <c r="AD53">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="7"/>
+        <v>372928</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="17"/>
+        <v>455.85206795949887</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="18"/>
+        <v>456</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="19"/>
+        <v>372807.01754385966</v>
+      </c>
+      <c r="AI53" s="1">
+        <f t="shared" si="20"/>
+        <v>3.2441236951996633E-4</v>
+      </c>
+      <c r="AJ53" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <f>U53*$AD$26</f>
-        <v>372928</v>
-      </c>
-      <c r="AF53">
-        <f t="shared" si="16"/>
-        <v>455.85206795949887</v>
-      </c>
-      <c r="AG53">
-        <f t="shared" si="17"/>
-        <v>456</v>
-      </c>
-      <c r="AH53">
-        <f t="shared" si="18"/>
-        <v>372807.01754385966</v>
-      </c>
-      <c r="AI53" s="1">
-        <f t="shared" si="19"/>
-        <v>3.2441236951996633E-4</v>
-      </c>
-      <c r="AJ53" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1152</v>
       </c>
       <c r="O54">
@@ -5563,76 +5563,76 @@
         <v>2</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B5</v>
       </c>
       <c r="S54" t="s">
         <v>28</v>
       </c>
       <c r="T54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1120</v>
       </c>
       <c r="U54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>987.76</v>
       </c>
       <c r="V54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8605.3292297724147</v>
       </c>
       <c r="W54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8605</v>
       </c>
       <c r="X54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>987.79779198140614</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.82602873230109E-5</v>
       </c>
       <c r="Z54" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.162115049389012E-4</v>
       </c>
       <c r="AD54">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="7"/>
+        <v>395104</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="17"/>
+        <v>430.26646148862073</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="18"/>
+        <v>430</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="19"/>
+        <v>395348.83720930235</v>
+      </c>
+      <c r="AI54" s="1">
+        <f t="shared" si="20"/>
+        <v>-6.1967788051342509E-4</v>
+      </c>
+      <c r="AJ54" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE54">
-        <f>U54*$AD$26</f>
-        <v>395104</v>
-      </c>
-      <c r="AF54">
-        <f t="shared" si="16"/>
-        <v>430.26646148862073</v>
-      </c>
-      <c r="AG54">
-        <f t="shared" si="17"/>
-        <v>430</v>
-      </c>
-      <c r="AH54">
-        <f t="shared" si="18"/>
-        <v>395348.83720930235</v>
-      </c>
-      <c r="AI54" s="1">
-        <f t="shared" si="19"/>
-        <v>-6.1967788051342509E-4</v>
-      </c>
-      <c r="AJ54" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N55">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1087</v>
       </c>
       <c r="O55">
@@ -5642,70 +5642,70 @@
         <v>3</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>C5</v>
       </c>
       <c r="S55" t="s">
         <v>28</v>
       </c>
       <c r="T55">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1058</v>
       </c>
       <c r="U55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1046.5</v>
       </c>
       <c r="V55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8122.3124701385568</v>
       </c>
       <c r="W55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8122</v>
       </c>
       <c r="X55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1046.5402610194533</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.8472068278450067E-5</v>
       </c>
       <c r="Z55" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD55">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="7"/>
+        <v>418600</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="17"/>
+        <v>406.11562350692788</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="18"/>
+        <v>406</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="19"/>
+        <v>418719.21182266012</v>
+      </c>
+      <c r="AI55" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ55" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE55">
-        <f>U55*$AD$26</f>
-        <v>418600</v>
-      </c>
-      <c r="AF55">
-        <f t="shared" si="16"/>
-        <v>406.11562350692788</v>
-      </c>
-      <c r="AG55">
-        <f t="shared" si="17"/>
-        <v>406</v>
-      </c>
-      <c r="AH55">
-        <f t="shared" si="18"/>
-        <v>418719.21182266012</v>
-      </c>
-      <c r="AI55" s="1">
-        <f t="shared" si="19"/>
-        <v>-2.8478696287659311E-4</v>
-      </c>
-      <c r="AJ55" s="1">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5768,27 +5768,27 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <f t="shared" ref="K60:K123" si="26">T29</f>
+        <f t="shared" ref="K60:K86" si="27">T29</f>
         <v>2687</v>
       </c>
       <c r="L60">
-        <f t="shared" ref="L60:L123" si="27">$J$30</f>
+        <f t="shared" ref="L60:L86" si="28">$J$30</f>
         <v>20</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:M123" si="28">W29</f>
+        <f t="shared" ref="M60:M86" si="29">W29</f>
         <v>36468</v>
       </c>
       <c r="N60">
-        <f t="shared" ref="N60:N123" si="29">AD29</f>
+        <f t="shared" ref="N60:N86" si="30">AD29</f>
         <v>1</v>
       </c>
       <c r="O60">
-        <f t="shared" ref="O60:O123" si="30">AG29</f>
+        <f t="shared" ref="O60:O86" si="31">AG29</f>
         <v>1823</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" ref="P60:P86" si="31">CONCATENATE($J$58,J60,K$58,K60,$J$58,J60,L$58,L60,$J$58,J60,M$58,M60,$J$58,J60,N$58,N60,$J$58,J60,O$58,O60)</f>
+        <f t="shared" ref="P60:P86" si="32">CONCATENATE($J$58,J60,K$58,K60,$J$58,J60,L$58,L60,$J$58,J60,M$58,M60,$J$58,J60,N$58,N60,$J$58,J60,O$58,O60)</f>
         <v>; notes[1].ADC_VAL = 2687; notes[1].PWM_PR = 20; notes[1].PWM_ARR = 36468; notes[1].Synth_PR = 1; notes[1].Synth_ARR = 1823</v>
       </c>
     </row>
@@ -5797,27 +5797,27 @@
         <v>2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2356</v>
       </c>
       <c r="L61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>34421</v>
       </c>
       <c r="N61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1721</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[2].ADC_VAL = 2356; notes[2].PWM_PR = 20; notes[2].PWM_ARR = 34421; notes[2].Synth_PR = 1; notes[2].Synth_ARR = 1721</v>
       </c>
     </row>
@@ -5826,27 +5826,27 @@
         <v>3</v>
       </c>
       <c r="K62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2098</v>
       </c>
       <c r="L62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>32489</v>
       </c>
       <c r="N62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1624</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[3].ADC_VAL = 2098; notes[3].PWM_PR = 20; notes[3].PWM_ARR = 32489; notes[3].Synth_PR = 1; notes[3].Synth_ARR = 1624</v>
       </c>
     </row>
@@ -5855,27 +5855,27 @@
         <v>4</v>
       </c>
       <c r="K63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1892</v>
       </c>
       <c r="L63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>30665</v>
       </c>
       <c r="N63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O63">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1533</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[4].ADC_VAL = 1892; notes[4].PWM_PR = 20; notes[4].PWM_ARR = 30665; notes[4].Synth_PR = 1; notes[4].Synth_ARR = 1533</v>
       </c>
     </row>
@@ -5884,27 +5884,27 @@
         <v>5</v>
       </c>
       <c r="K64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1722</v>
       </c>
       <c r="L64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>28945</v>
       </c>
       <c r="N64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1447</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[5].ADC_VAL = 1722; notes[5].PWM_PR = 20; notes[5].PWM_ARR = 28945; notes[5].Synth_PR = 1; notes[5].Synth_ARR = 1447</v>
       </c>
     </row>
@@ -5913,27 +5913,27 @@
         <v>6</v>
       </c>
       <c r="K65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1580</v>
       </c>
       <c r="L65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>27320</v>
       </c>
       <c r="N65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1366</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[6].ADC_VAL = 1580; notes[6].PWM_PR = 20; notes[6].PWM_ARR = 27320; notes[6].Synth_PR = 1; notes[6].Synth_ARR = 1366</v>
       </c>
     </row>
@@ -5942,27 +5942,27 @@
         <v>7</v>
       </c>
       <c r="K66">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1460</v>
       </c>
       <c r="L66">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>25787</v>
       </c>
       <c r="N66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1289</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[7].ADC_VAL = 1460; notes[7].PWM_PR = 20; notes[7].PWM_ARR = 25787; notes[7].Synth_PR = 1; notes[7].Synth_ARR = 1289</v>
       </c>
     </row>
@@ -5971,27 +5971,27 @@
         <v>8</v>
       </c>
       <c r="K67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1357</v>
       </c>
       <c r="L67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>24339</v>
       </c>
       <c r="N67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1217</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[8].ADC_VAL = 1357; notes[8].PWM_PR = 20; notes[8].PWM_ARR = 24339; notes[8].Synth_PR = 1; notes[8].Synth_ARR = 1217</v>
       </c>
     </row>
@@ -6000,27 +6000,27 @@
         <v>9</v>
       </c>
       <c r="K68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1268</v>
       </c>
       <c r="L68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>22973</v>
       </c>
       <c r="N68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1149</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[9].ADC_VAL = 1268; notes[9].PWM_PR = 20; notes[9].PWM_ARR = 22973; notes[9].Synth_PR = 1; notes[9].Synth_ARR = 1149</v>
       </c>
     </row>
@@ -6029,27 +6029,27 @@
         <v>10</v>
       </c>
       <c r="K69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1189</v>
       </c>
       <c r="L69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>21684</v>
       </c>
       <c r="N69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1084</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[10].ADC_VAL = 1189; notes[10].PWM_PR = 20; notes[10].PWM_ARR = 21684; notes[10].Synth_PR = 1; notes[10].Synth_ARR = 1084</v>
       </c>
     </row>
@@ -6058,27 +6058,27 @@
         <v>11</v>
       </c>
       <c r="K70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1120</v>
       </c>
       <c r="L70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20467</v>
       </c>
       <c r="N70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1023</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[11].ADC_VAL = 1120; notes[11].PWM_PR = 20; notes[11].PWM_ARR = 20467; notes[11].Synth_PR = 1; notes[11].Synth_ARR = 1023</v>
       </c>
     </row>
@@ -6087,27 +6087,27 @@
         <v>12</v>
       </c>
       <c r="K71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1058</v>
       </c>
       <c r="L71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19318</v>
       </c>
       <c r="N71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>966</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[12].ADC_VAL = 1058; notes[12].PWM_PR = 20; notes[12].PWM_ARR = 19318; notes[12].Synth_PR = 1; notes[12].Synth_ARR = 966</v>
       </c>
     </row>
@@ -6116,27 +6116,27 @@
         <v>13</v>
       </c>
       <c r="K72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1003</v>
       </c>
       <c r="L72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>18234</v>
       </c>
       <c r="N72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>912</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[13].ADC_VAL = 1003; notes[13].PWM_PR = 20; notes[13].PWM_ARR = 18234; notes[13].Synth_PR = 1; notes[13].Synth_ARR = 912</v>
       </c>
     </row>
@@ -6145,27 +6145,27 @@
         <v>14</v>
       </c>
       <c r="K73">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>900</v>
       </c>
       <c r="L73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17211</v>
       </c>
       <c r="N73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>861</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[14].ADC_VAL = 900; notes[14].PWM_PR = 20; notes[14].PWM_ARR = 17211; notes[14].Synth_PR = 1; notes[14].Synth_ARR = 861</v>
       </c>
     </row>
@@ -6174,27 +6174,27 @@
         <v>15</v>
       </c>
       <c r="K74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3125</v>
       </c>
       <c r="L74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16245</v>
       </c>
       <c r="N74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>812</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[15].ADC_VAL = 3125; notes[15].PWM_PR = 20; notes[15].PWM_ARR = 16245; notes[15].Synth_PR = 1; notes[15].Synth_ARR = 812</v>
       </c>
     </row>
@@ -6203,27 +6203,27 @@
         <v>16</v>
       </c>
       <c r="K75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2687</v>
       </c>
       <c r="L75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15333</v>
       </c>
       <c r="N75">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>767</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[16].ADC_VAL = 2687; notes[16].PWM_PR = 20; notes[16].PWM_ARR = 15333; notes[16].Synth_PR = 1; notes[16].Synth_ARR = 767</v>
       </c>
     </row>
@@ -6232,27 +6232,27 @@
         <v>17</v>
       </c>
       <c r="K76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2356</v>
       </c>
       <c r="L76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14472</v>
       </c>
       <c r="N76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>724</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[17].ADC_VAL = 2356; notes[17].PWM_PR = 20; notes[17].PWM_ARR = 14472; notes[17].Synth_PR = 1; notes[17].Synth_ARR = 724</v>
       </c>
     </row>
@@ -6261,27 +6261,27 @@
         <v>18</v>
       </c>
       <c r="K77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2098</v>
       </c>
       <c r="L77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13660</v>
       </c>
       <c r="N77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>683</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[18].ADC_VAL = 2098; notes[18].PWM_PR = 20; notes[18].PWM_ARR = 13660; notes[18].Synth_PR = 1; notes[18].Synth_ARR = 683</v>
       </c>
     </row>
@@ -6290,27 +6290,27 @@
         <v>19</v>
       </c>
       <c r="K78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1892</v>
       </c>
       <c r="L78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12893</v>
       </c>
       <c r="N78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>645</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[19].ADC_VAL = 1892; notes[19].PWM_PR = 20; notes[19].PWM_ARR = 12893; notes[19].Synth_PR = 1; notes[19].Synth_ARR = 645</v>
       </c>
     </row>
@@ -6319,27 +6319,27 @@
         <v>20</v>
       </c>
       <c r="K79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1722</v>
       </c>
       <c r="L79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12170</v>
       </c>
       <c r="N79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>608</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[20].ADC_VAL = 1722; notes[20].PWM_PR = 20; notes[20].PWM_ARR = 12170; notes[20].Synth_PR = 1; notes[20].Synth_ARR = 608</v>
       </c>
     </row>
@@ -6348,27 +6348,27 @@
         <v>21</v>
       </c>
       <c r="K80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1580</v>
       </c>
       <c r="L80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11487</v>
       </c>
       <c r="N80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O80">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>574</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[21].ADC_VAL = 1580; notes[21].PWM_PR = 20; notes[21].PWM_ARR = 11487; notes[21].Synth_PR = 1; notes[21].Synth_ARR = 574</v>
       </c>
     </row>
@@ -6377,27 +6377,27 @@
         <v>22</v>
       </c>
       <c r="K81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1460</v>
       </c>
       <c r="L81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10842</v>
       </c>
       <c r="N81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>542</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[22].ADC_VAL = 1460; notes[22].PWM_PR = 20; notes[22].PWM_ARR = 10842; notes[22].Synth_PR = 1; notes[22].Synth_ARR = 542</v>
       </c>
     </row>
@@ -6406,27 +6406,27 @@
         <v>23</v>
       </c>
       <c r="K82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1357</v>
       </c>
       <c r="L82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10233</v>
       </c>
       <c r="N82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>512</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[23].ADC_VAL = 1357; notes[23].PWM_PR = 20; notes[23].PWM_ARR = 10233; notes[23].Synth_PR = 1; notes[23].Synth_ARR = 512</v>
       </c>
     </row>
@@ -6435,27 +6435,27 @@
         <v>24</v>
       </c>
       <c r="K83">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1268</v>
       </c>
       <c r="L83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9659</v>
       </c>
       <c r="N83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O83">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>483</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[24].ADC_VAL = 1268; notes[24].PWM_PR = 20; notes[24].PWM_ARR = 9659; notes[24].Synth_PR = 1; notes[24].Synth_ARR = 483</v>
       </c>
     </row>
@@ -6464,27 +6464,27 @@
         <v>25</v>
       </c>
       <c r="K84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1189</v>
       </c>
       <c r="L84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9117</v>
       </c>
       <c r="N84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O84">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>456</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[25].ADC_VAL = 1189; notes[25].PWM_PR = 20; notes[25].PWM_ARR = 9117; notes[25].Synth_PR = 1; notes[25].Synth_ARR = 456</v>
       </c>
     </row>
@@ -6493,27 +6493,27 @@
         <v>26</v>
       </c>
       <c r="K85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1120</v>
       </c>
       <c r="L85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8605</v>
       </c>
       <c r="N85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O85">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>430</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[26].ADC_VAL = 1120; notes[26].PWM_PR = 20; notes[26].PWM_ARR = 8605; notes[26].Synth_PR = 1; notes[26].Synth_ARR = 430</v>
       </c>
     </row>
@@ -6522,27 +6522,27 @@
         <v>27</v>
       </c>
       <c r="K86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1058</v>
       </c>
       <c r="L86">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="M86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8122</v>
       </c>
       <c r="N86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>406</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>; notes[27].ADC_VAL = 1058; notes[27].PWM_PR = 20; notes[27].PWM_ARR = 8122; notes[27].Synth_PR = 1; notes[27].Synth_ARR = 406</v>
       </c>
     </row>

--- a/Resistor calc.xlsx
+++ b/Resistor calc.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Home\MyProjects\Music\Stylophone\Firmware\StylophOverkill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamiens\STM32CubeIDE\workspace_1.3.0\StylophOverkill\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBBB66-71D1-4953-AFCC-7CBBFBE6C4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37230" windowHeight="12885"/>
+    <workbookView xWindow="3195" yWindow="945" windowWidth="18825" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Correctred 3.3V psu" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
   <si>
     <t>ADCNoteTable = {</t>
   </si>
@@ -124,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -144,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,13 +173,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,7 +198,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -201,7 +210,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -227,7 +235,1022 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correctred 3.3V psu'!$O$6:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C64C-431E-A195-C6C3F61FDB6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2080592816"/>
+        <c:axId val="1673291296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2080592816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673291296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1673291296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080592816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.49433426804555408"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correctred 3.3V psu'!$L$6:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correctred 3.3V psu'!$M$6:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FA4-452D-B676-B92A77E6DBF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Correctred 3.3V psu'!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correctred 3.3V psu'!$O$6:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correctred 3.3V psu'!$M$6:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FA4-452D-B676-B92A77E6DBF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Correctred 3.3V psu'!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correctred 3.3V psu'!$P$6:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correctred 3.3V psu'!$M$6:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5FA4-452D-B676-B92A77E6DBF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1874028799"/>
+        <c:axId val="1874029631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1874028799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4096"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874029631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1874029631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874028799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -401,7 +1424,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1673291296"/>
@@ -463,7 +1486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2080592816"/>
@@ -480,7 +1503,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -488,6 +1510,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -511,7 +1534,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -522,10 +1545,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -570,7 +1593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1086,7 +2109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1874029631"/>
@@ -1150,7 +2173,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1874028799"/>
@@ -1191,7 +2214,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1243,6 +2266,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2314,7 +3417,1120 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC69474-3735-4AE2-A6B1-904296687009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72996569-9104-49CD-A6A4-0EC61133B003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2687,14 +4903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA769C9E-19B2-4212-971A-F3B01589C300}">
   <dimension ref="G4:AJ86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L18" sqref="K18:L18"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -2744,6 +4960,3972 @@
         <v>2.4736842105263159</v>
       </c>
       <c r="L6">
+        <v>3268</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>L6-L7</f>
+        <v>482</v>
+      </c>
+      <c r="O6" s="2">
+        <f>ROUND(L7+N6/2,0)</f>
+        <v>3027</v>
+      </c>
+      <c r="P6">
+        <f>ROUND(L6-N6/2,0)</f>
+        <v>3027</v>
+      </c>
+      <c r="Q6">
+        <v>2.4736842110000001</v>
+      </c>
+      <c r="R6">
+        <v>2.4736842110000001</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" ref="S6:S19" si="0">CONCATENATE(S5,O6,",")</f>
+        <v>ADCNoteTable = {3500,3027,</v>
+      </c>
+    </row>
+    <row r="7" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>4700</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I20" si="1">G7+I6</f>
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K20" si="2">$I$4*H7/(H7+I7)</f>
+        <v>2.1044776119402986</v>
+      </c>
+      <c r="L7">
+        <v>2786</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N19" si="3">L7-L8</f>
+        <v>358</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:O19" si="4">ROUND(L8+N7/2,0)</f>
+        <v>2607</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P20" si="5">ROUND(L7-N7/2,0)</f>
+        <v>2607</v>
+      </c>
+      <c r="Q7">
+        <v>-0.36920659859999999</v>
+      </c>
+      <c r="R7">
+        <v>0.36920659859999999</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,</v>
+      </c>
+    </row>
+    <row r="8" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>4700</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1.8311688311688312</v>
+      </c>
+      <c r="L8">
+        <v>2428</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>274</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="4"/>
+        <v>2291</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>2291</v>
+      </c>
+      <c r="Q8">
+        <v>-0.27330878079999998</v>
+      </c>
+      <c r="R8">
+        <v>0.27330878079999998</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,</v>
+      </c>
+    </row>
+    <row r="9" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>4700</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>1.6206896551724137</v>
+      </c>
+      <c r="L9">
+        <v>2154</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>2043</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>2043</v>
+      </c>
+      <c r="Q9">
+        <v>-0.21047917599999999</v>
+      </c>
+      <c r="R9">
+        <v>0.21047917599999999</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,</v>
+      </c>
+    </row>
+    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>4700</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1.4536082474226804</v>
+      </c>
+      <c r="L10">
+        <v>1932</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="4"/>
+        <v>1841</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>1841</v>
+      </c>
+      <c r="Q10">
+        <v>-0.16708140769999999</v>
+      </c>
+      <c r="R10">
+        <v>0.16708140769999999</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,</v>
+      </c>
+    </row>
+    <row r="11" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>4700</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>1.3177570093457944</v>
+      </c>
+      <c r="L11">
+        <v>1749</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="4"/>
+        <v>1674</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>1674</v>
+      </c>
+      <c r="Q11">
+        <v>-0.13585123809999999</v>
+      </c>
+      <c r="R11">
+        <v>0.13585123809999999</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,</v>
+      </c>
+    </row>
+    <row r="12" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>4700</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>1.2051282051282051</v>
+      </c>
+      <c r="L12">
+        <v>1599</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="4"/>
+        <v>1535</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>1535</v>
+      </c>
+      <c r="Q12">
+        <v>-0.1126288042</v>
+      </c>
+      <c r="R12">
+        <v>0.1126288042</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,</v>
+      </c>
+    </row>
+    <row r="13" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>4700</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>1.110236220472441</v>
+      </c>
+      <c r="L13">
+        <v>1470</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="4"/>
+        <v>1415</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>1415</v>
+      </c>
+      <c r="Q13">
+        <v>-9.4891984659999998E-2</v>
+      </c>
+      <c r="R13">
+        <v>9.4891984659999998E-2</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,</v>
+      </c>
+    </row>
+    <row r="14" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>4700</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1.0291970802919708</v>
+      </c>
+      <c r="L14">
+        <v>1360</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="4"/>
+        <v>1311</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>1311</v>
+      </c>
+      <c r="Q14">
+        <v>-8.1039140179999997E-2</v>
+      </c>
+      <c r="R14">
+        <v>8.1039140179999997E-2</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,1311,</v>
+      </c>
+    </row>
+    <row r="15" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>4700</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0.95918367346938771</v>
+      </c>
+      <c r="L15">
+        <v>1261</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="4"/>
+        <v>1219</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>1219</v>
+      </c>
+      <c r="Q15">
+        <v>-7.0013406819999999E-2</v>
+      </c>
+      <c r="R15">
+        <v>7.0013406819999999E-2</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,1311,1219,</v>
+      </c>
+    </row>
+    <row r="16" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>4700</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0.89808917197452232</v>
+      </c>
+      <c r="L16">
+        <v>1177</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="4"/>
+        <v>1140</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
+      <c r="Q16">
+        <v>-6.1094501490000001E-2</v>
+      </c>
+      <c r="R16">
+        <v>6.1094501490000001E-2</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,1311,1219,1140,</v>
+      </c>
+    </row>
+    <row r="17" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>4700</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0.84431137724550898</v>
+      </c>
+      <c r="L17">
+        <v>1102</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="4"/>
+        <v>1068</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>1068</v>
+      </c>
+      <c r="Q17">
+        <v>-5.3777794730000002E-2</v>
+      </c>
+      <c r="R17">
+        <v>5.3777794730000002E-2</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,1311,1219,1140,1068,</v>
+      </c>
+    </row>
+    <row r="18" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>4700</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0.79661016949152541</v>
+      </c>
+      <c r="L18">
+        <v>1034</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="4"/>
+        <v>1005</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>1005</v>
+      </c>
+      <c r="Q18">
+        <v>-4.7701207750000002E-2</v>
+      </c>
+      <c r="R18">
+        <v>4.7701207750000002E-2</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,1311,1219,1140,1068,1005,</v>
+      </c>
+    </row>
+    <row r="19" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>4700</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0.75401069518716579</v>
+      </c>
+      <c r="L19">
+        <v>976</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="4"/>
+        <v>949</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>949</v>
+      </c>
+      <c r="Q19">
+        <v>-4.2599474300000002E-2</v>
+      </c>
+      <c r="R19">
+        <v>4.2599474300000002E-2</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="0"/>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,1311,1219,1140,1068,1005,949,</v>
+      </c>
+    </row>
+    <row r="20" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>4700</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0.71573604060913709</v>
+      </c>
+      <c r="L20">
+        <v>922</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>N19</f>
+        <v>54</v>
+      </c>
+      <c r="O20" s="2">
+        <v>900</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>895</v>
+      </c>
+      <c r="Q20">
+        <v>-3.8274654579999998E-2</v>
+      </c>
+      <c r="R20">
+        <v>3.8274654579999998E-2</v>
+      </c>
+      <c r="S20" t="str">
+        <f>CONCATENATE(S19,O20)</f>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,1311,1219,1140,1068,1005,949,900</v>
+      </c>
+    </row>
+    <row r="21" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="S21" t="str">
+        <f>CONCATENATE(S20,"};")</f>
+        <v>ADCNoteTable = {3500,3027,2607,2291,2043,1841,1674,1535,1415,1311,1219,1140,1068,1005,949,900};</v>
+      </c>
+    </row>
+    <row r="24" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f>M24/N24</f>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="26" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>170</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <f>I26*1000000</f>
+        <v>170000000</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>K27*1000000000</f>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <f>1/K26</f>
+        <v>5.8823529411764704E-9</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f>M28/N28</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3268</v>
+      </c>
+      <c r="N28">
+        <f>L6</f>
+        <v>3268</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28" t="str">
+        <f>_xlfn.CONCAT(P28,Q28)</f>
+        <v>A3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28">
+        <f>O6</f>
+        <v>3027</v>
+      </c>
+      <c r="U28">
+        <f>U40/2</f>
+        <v>220</v>
+      </c>
+      <c r="V28">
+        <f>$K$26/($J$30*U28)</f>
+        <v>38636.36363636364</v>
+      </c>
+      <c r="W28">
+        <f>ROUND(V28,0)</f>
+        <v>38636</v>
+      </c>
+      <c r="X28">
+        <f>$K$26/(W28*$J$30)</f>
+        <v>220.00207060772337</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>1-X28/U28</f>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z28" s="1">
+        <f>1-ROUND(W28/2,0)/(W28/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" ref="AE28:AE55" si="6">U28*$AD$26</f>
+        <v>88000</v>
+      </c>
+      <c r="AF28">
+        <f>$K$26/(AD28*AE28)</f>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="AG28">
+        <f>ROUND(AF28,0)</f>
+        <v>1932</v>
+      </c>
+      <c r="AH28">
+        <f>$K$26/(AG28*AD28)</f>
+        <v>87991.718426501029</v>
+      </c>
+      <c r="AI28" s="1">
+        <f>1-AH28/AE28</f>
+        <v>9.4108789761015998E-5</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f>1-ROUND(AG28/2,0)/(AG28/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" ref="L29:L42" si="7">M29/N29</f>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2786</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N42" si="8">L7</f>
+        <v>2786</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" ref="R29:R55" si="9">_xlfn.CONCAT(P29,Q29)</f>
+        <v>A#3</v>
+      </c>
+      <c r="S29" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T42" si="10">O7</f>
+        <v>2607</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U39" si="11">U41/2</f>
+        <v>233.08</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V55" si="12">$K$26/($J$30*U29)</f>
+        <v>36468.165436759911</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:W55" si="13">ROUND(V29,0)</f>
+        <v>36468</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ref="X29:X55" si="14">$K$26/(W29*$J$30)</f>
+        <v>233.0810573653614</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" ref="Y29:Y55" si="15">1-X29/U29</f>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" ref="Z29:Z55" si="16">1-ROUND(W29/2,0)/(W29/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f>AD28</f>
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="6"/>
+        <v>93232</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" ref="AF29:AF55" si="17">$K$26/(AD29*AE29)</f>
+        <v>1823.4082718379955</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" ref="AG29:AG55" si="18">ROUND(AF29,0)</f>
+        <v>1823</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" ref="AH29:AH55" si="19">$K$26/(AG29*AD29)</f>
+        <v>93252.879868348871</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" ref="AI29:AI55" si="20">1-AH29/AE29</f>
+        <v>-2.2395602742486531E-4</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" ref="AJ29:AJ55" si="21">1-ROUND(AG29/2,0)/(AG29/2)</f>
+        <v>-5.4854635216683434E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2428</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>2428</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="9"/>
+        <v>B3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="10"/>
+        <v>2291</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="11"/>
+        <v>246.94</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="12"/>
+        <v>34421.316919089659</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="13"/>
+        <v>34421</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="14"/>
+        <v>246.94227361203917</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="15"/>
+        <v>-9.2071435942031599E-6</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="16"/>
+        <v>-2.9052032189724741E-5</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" ref="AD30:AD55" si="22">AD29</f>
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="6"/>
+        <v>98776</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="17"/>
+        <v>1721.0658459544829</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="18"/>
+        <v>1721</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="19"/>
+        <v>98779.779198140619</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="20"/>
+        <v>-3.82602873230109E-5</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="21"/>
+        <v>-5.8105752469495009E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>450</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2154</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>2154</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="9"/>
+        <v>C3</v>
+      </c>
+      <c r="S31" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
+        <v>2043</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="11"/>
+        <v>261.625</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="12"/>
+        <v>32489.249880554227</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="13"/>
+        <v>32489</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="14"/>
+        <v>261.62701221952045</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="15"/>
+        <v>-7.6912356252734071E-6</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="16"/>
+        <v>-3.0779648496404022E-5</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="6"/>
+        <v>104650</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="17"/>
+        <v>1624.4624940277115</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="18"/>
+        <v>1624</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="19"/>
+        <v>104679.80295566503</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>J32/1000</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="J32">
+        <f>K26/J30/J31</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1932</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>1932</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="9"/>
+        <v>C#3</v>
+      </c>
+      <c r="S32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="10"/>
+        <v>1841</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="11"/>
+        <v>277.185</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="12"/>
+        <v>30665.440049064706</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="13"/>
+        <v>30665</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="14"/>
+        <v>277.18897766182943</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.4350205925328652E-5</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="16"/>
+        <v>-3.2610467960214606E-5</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="6"/>
+        <v>110874</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="17"/>
+        <v>1533.2720024532352</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="18"/>
+        <v>1533</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="19"/>
+        <v>110893.67253750816</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.7743147634385892E-4</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="21"/>
+        <v>-6.5231572080892697E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f>K27*J30*J31</f>
+        <v>5.2941176470588231E-5</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1749</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>1749</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="9"/>
+        <v>D3</v>
+      </c>
+      <c r="S33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="10"/>
+        <v>1674</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="11"/>
+        <v>293.66500000000002</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="12"/>
+        <v>28944.545655764221</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="13"/>
+        <v>28945</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="14"/>
+        <v>293.66039039557779</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="15"/>
+        <v>1.56968124298551E-5</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="16"/>
+        <v>-3.4548281222956945E-5</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="6"/>
+        <v>117466.00000000001</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="17"/>
+        <v>1447.2272827882109</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="18"/>
+        <v>1447</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="19"/>
+        <v>117484.45058742225</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.5707172647605461E-4</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f t="shared" si="21"/>
+        <v>-6.9108500345538282E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f>1/J33</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1599</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="8"/>
+        <v>1599</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="9"/>
+        <v>D#3</v>
+      </c>
+      <c r="S34" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="10"/>
+        <v>1535</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="11"/>
+        <v>311.125</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="12"/>
+        <v>27320.208919244677</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="13"/>
+        <v>27320</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="14"/>
+        <v>311.12737920937042</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="15"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="6"/>
+        <v>124450</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="17"/>
+        <v>1366.0104459622339</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="18"/>
+        <v>1366</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="19"/>
+        <v>124450.95168374816</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="20"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="AJ34" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1470</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="8"/>
+        <v>1470</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="9"/>
+        <v>E3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="10"/>
+        <v>1415</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="11"/>
+        <v>329.625</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="12"/>
+        <v>25786.879029199848</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="13"/>
+        <v>25787</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="14"/>
+        <v>329.62345367820996</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="15"/>
+        <v>4.6911544635541702E-6</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="16"/>
+        <v>-3.8779229844410068E-5</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="6"/>
+        <v>131850</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="17"/>
+        <v>1289.3439514599925</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="18"/>
+        <v>1289</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="19"/>
+        <v>131885.18231186966</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.6683588827958182E-4</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="21"/>
+        <v>-7.7579519006976128E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1360</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="8"/>
+        <v>1360</v>
+      </c>
+      <c r="O36">
+        <v>9</v>
+      </c>
+      <c r="P36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="9"/>
+        <v>F3</v>
+      </c>
+      <c r="S36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="10"/>
+        <v>1311</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="11"/>
+        <v>349.23</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="12"/>
+        <v>24339.260659164447</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="13"/>
+        <v>24339</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="14"/>
+        <v>349.23374008792473</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.070952645743084E-5</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="16"/>
+        <v>-4.1086322363215189E-5</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="6"/>
+        <v>139692</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="17"/>
+        <v>1216.9630329582224</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="18"/>
+        <v>1217</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="19"/>
+        <v>139687.75677896466</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="20"/>
+        <v>3.0375547886429821E-5</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="21"/>
+        <v>-8.2169268693510489E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1261</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="8"/>
+        <v>1261</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="9"/>
+        <v>F#3</v>
+      </c>
+      <c r="S37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="10"/>
+        <v>1219</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="11"/>
+        <v>369.995</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="12"/>
+        <v>22973.283422748958</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="13"/>
+        <v>22973</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="14"/>
+        <v>369.99956470639444</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.2337211028334849E-5</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="16"/>
+        <v>-4.3529360553629104E-5</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="6"/>
+        <v>147998</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="17"/>
+        <v>1148.6641711374477</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="18"/>
+        <v>1149</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="19"/>
+        <v>147954.74325500434</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="20"/>
+        <v>2.9227925374430974E-4</v>
+      </c>
+      <c r="AJ37" s="1">
+        <f t="shared" si="21"/>
+        <v>-8.7032201914705176E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f>K26/(J30*J31)</f>
+        <v>18888.888888888891</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1177</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="8"/>
+        <v>1177</v>
+      </c>
+      <c r="O38">
+        <v>11</v>
+      </c>
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="9"/>
+        <v>G3</v>
+      </c>
+      <c r="S38" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="10"/>
+        <v>1140</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="11"/>
+        <v>391.995</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="12"/>
+        <v>21683.950050383297</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="13"/>
+        <v>21684</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="14"/>
+        <v>391.99409703006825</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3035241055735511E-6</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="6"/>
+        <v>156798</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="17"/>
+        <v>1084.1975025191648</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="18"/>
+        <v>1084</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="19"/>
+        <v>156826.56826568267</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.8219789590845359E-4</v>
+      </c>
+      <c r="AJ38" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1102</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="8"/>
+        <v>1102</v>
+      </c>
+      <c r="O39">
+        <v>12</v>
+      </c>
+      <c r="P39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="9"/>
+        <v>G#3</v>
+      </c>
+      <c r="S39" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="10"/>
+        <v>1068</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="11"/>
+        <v>415.30500000000001</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="12"/>
+        <v>20466.885782737987</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="13"/>
+        <v>20467</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="14"/>
+        <v>415.30268236673669</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="15"/>
+        <v>5.580557092543792E-6</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="16"/>
+        <v>-4.8859139101908866E-5</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="6"/>
+        <v>166122</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="17"/>
+        <v>1023.3442891368994</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="18"/>
+        <v>1023</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="19"/>
+        <v>166177.90811339198</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="20"/>
+        <v>-3.3654852091835608E-4</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f t="shared" si="21"/>
+        <v>-9.7751710654936375E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1034</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="8"/>
+        <v>1034</v>
+      </c>
+      <c r="O40">
+        <v>13</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f>Q28+1</f>
+        <v>4</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="9"/>
+        <v>A4</v>
+      </c>
+      <c r="S40" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="10"/>
+        <v>1005</v>
+      </c>
+      <c r="U40">
+        <v>440</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="12"/>
+        <v>19318.18181818182</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="13"/>
+        <v>19318</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="14"/>
+        <v>440.00414121544674</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="15"/>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="6"/>
+        <v>176000</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="17"/>
+        <v>965.90909090909088</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="18"/>
+        <v>966</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="19"/>
+        <v>175983.43685300206</v>
+      </c>
+      <c r="AI40" s="1">
+        <f t="shared" si="20"/>
+        <v>9.4108789761015998E-5</v>
+      </c>
+      <c r="AJ40" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>976</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="8"/>
+        <v>976</v>
+      </c>
+      <c r="O41">
+        <v>14</v>
+      </c>
+      <c r="P41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q55" si="23">Q29+1</f>
+        <v>4</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="9"/>
+        <v>A#4</v>
+      </c>
+      <c r="S41" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="10"/>
+        <v>949</v>
+      </c>
+      <c r="U41">
+        <v>466.16</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="12"/>
+        <v>18234.082718379956</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="13"/>
+        <v>18234</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="14"/>
+        <v>466.16211473072281</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="6"/>
+        <v>186464</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="17"/>
+        <v>911.70413591899774</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="18"/>
+        <v>912</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="19"/>
+        <v>186403.50877192983</v>
+      </c>
+      <c r="AI41" s="1">
+        <f t="shared" si="20"/>
+        <v>3.2441236951996633E-4</v>
+      </c>
+      <c r="AJ41" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>922</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="8"/>
+        <v>922</v>
+      </c>
+      <c r="O42">
+        <v>15</v>
+      </c>
+      <c r="P42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="9"/>
+        <v>B4</v>
+      </c>
+      <c r="S42" t="s">
+        <v>13</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="10"/>
+        <v>900</v>
+      </c>
+      <c r="U42">
+        <v>493.88</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="12"/>
+        <v>17210.658459544829</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="13"/>
+        <v>17211</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="14"/>
+        <v>493.87019929115098</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="15"/>
+        <v>1.9844312077910153E-5</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="16"/>
+        <v>-5.8102376387259014E-5</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="6"/>
+        <v>197552</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="17"/>
+        <v>860.53292297724147</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="18"/>
+        <v>861</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="19"/>
+        <v>197444.83159117305</v>
+      </c>
+      <c r="AI42" s="1">
+        <f t="shared" si="20"/>
+        <v>5.4248202410989155E-4</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f t="shared" si="21"/>
+        <v>-1.1614401858304202E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f>L6</f>
+        <v>3268</v>
+      </c>
+      <c r="O43">
+        <v>16</v>
+      </c>
+      <c r="P43" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="9"/>
+        <v>C4</v>
+      </c>
+      <c r="S43" t="s">
+        <v>28</v>
+      </c>
+      <c r="T43">
+        <f>O6</f>
+        <v>3027</v>
+      </c>
+      <c r="U43">
+        <v>523.25</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="12"/>
+        <v>16244.624940277114</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="13"/>
+        <v>16245</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="14"/>
+        <v>523.23791935980307</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3087702239688035E-5</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="16"/>
+        <v>-6.1557402277534479E-5</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="6"/>
+        <v>209300</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="17"/>
+        <v>812.23124701385575</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="18"/>
+        <v>812</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="19"/>
+        <v>209359.60591133006</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ43" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f t="shared" ref="N44:N55" si="24">L7</f>
+        <v>2786</v>
+      </c>
+      <c r="O44">
+        <v>17</v>
+      </c>
+      <c r="P44" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="9"/>
+        <v>C#4</v>
+      </c>
+      <c r="S44" t="s">
+        <v>28</v>
+      </c>
+      <c r="T44">
+        <f t="shared" ref="T44:T55" si="25">O7</f>
+        <v>2607</v>
+      </c>
+      <c r="U44">
+        <v>554.37</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="12"/>
+        <v>15332.720024532353</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="13"/>
+        <v>15333</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="14"/>
+        <v>554.35987738863889</v>
+      </c>
+      <c r="Y44" s="1">
+        <f t="shared" si="15"/>
+        <v>1.8259666578535061E-5</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="16"/>
+        <v>-6.5218809104594655E-5</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="6"/>
+        <v>221748</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="17"/>
+        <v>766.63600122661762</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="18"/>
+        <v>767</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="19"/>
+        <v>221642.76401564537</v>
+      </c>
+      <c r="AI44" s="1">
+        <f t="shared" si="20"/>
+        <v>4.7457467194578218E-4</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="21"/>
+        <v>-1.3037809647979959E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f t="shared" si="24"/>
+        <v>2428</v>
+      </c>
+      <c r="O45">
+        <v>18</v>
+      </c>
+      <c r="P45" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="9"/>
+        <v>D4</v>
+      </c>
+      <c r="S45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="25"/>
+        <v>2291</v>
+      </c>
+      <c r="U45">
+        <v>587.33000000000004</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="12"/>
+        <v>14472.272827882111</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="13"/>
+        <v>14472</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="14"/>
+        <v>587.34107241569927</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.8852120101442438E-5</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="6"/>
+        <v>234932.00000000003</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="17"/>
+        <v>723.61364139410546</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="18"/>
+        <v>724</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="19"/>
+        <v>234806.62983425416</v>
+      </c>
+      <c r="AI45" s="1">
+        <f t="shared" si="20"/>
+        <v>5.3364448327974934E-4</v>
+      </c>
+      <c r="AJ45" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f t="shared" si="24"/>
+        <v>2154</v>
+      </c>
+      <c r="O46">
+        <v>19</v>
+      </c>
+      <c r="P46" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="9"/>
+        <v>D#4</v>
+      </c>
+      <c r="S46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="25"/>
+        <v>2043</v>
+      </c>
+      <c r="U46">
+        <v>622.25</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="12"/>
+        <v>13660.104459622338</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="13"/>
+        <v>13660</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="14"/>
+        <v>622.25475841874083</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" si="15"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="6"/>
+        <v>248900</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="17"/>
+        <v>683.00522298111696</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="18"/>
+        <v>683</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="19"/>
+        <v>248901.90336749633</v>
+      </c>
+      <c r="AI46" s="1">
+        <f t="shared" si="20"/>
+        <v>-7.6471173013903382E-6</v>
+      </c>
+      <c r="AJ46" s="1">
+        <f t="shared" si="21"/>
+        <v>-1.4641288433381305E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f t="shared" si="24"/>
+        <v>1932</v>
+      </c>
+      <c r="O47">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="9"/>
+        <v>E4</v>
+      </c>
+      <c r="S47" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="25"/>
+        <v>1841</v>
+      </c>
+      <c r="U47">
+        <v>659.25</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="12"/>
+        <v>12893.439514599924</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="13"/>
+        <v>12893</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="14"/>
+        <v>659.27247343519741</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.4089397341618977E-5</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" si="16"/>
+        <v>-7.756146746307202E-5</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="6"/>
+        <v>263700</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="17"/>
+        <v>644.67197572999623</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="18"/>
+        <v>645</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="19"/>
+        <v>263565.89147286821</v>
+      </c>
+      <c r="AI47" s="1">
+        <f t="shared" si="20"/>
+        <v>5.0856475969585091E-4</v>
+      </c>
+      <c r="AJ47" s="1">
+        <f t="shared" si="21"/>
+        <v>-1.5503875968991832E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f t="shared" si="24"/>
+        <v>1749</v>
+      </c>
+      <c r="O48">
+        <v>21</v>
+      </c>
+      <c r="P48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="9"/>
+        <v>F4</v>
+      </c>
+      <c r="S48" t="s">
+        <v>28</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="25"/>
+        <v>1674</v>
+      </c>
+      <c r="U48">
+        <v>698.46</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="12"/>
+        <v>12169.630329582224</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="13"/>
+        <v>12170</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="14"/>
+        <v>698.43878389482336</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="15"/>
+        <v>3.0375547886318799E-5</v>
+      </c>
+      <c r="Z48" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="6"/>
+        <v>279384</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="17"/>
+        <v>608.48151647911118</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="18"/>
+        <v>608</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="19"/>
+        <v>279605.26315789472</v>
+      </c>
+      <c r="AI48" s="1">
+        <f t="shared" si="20"/>
+        <v>-7.9196789327484751E-4</v>
+      </c>
+      <c r="AJ48" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f t="shared" si="24"/>
+        <v>1599</v>
+      </c>
+      <c r="O49">
+        <v>22</v>
+      </c>
+      <c r="P49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="9"/>
+        <v>F#4</v>
+      </c>
+      <c r="S49" t="s">
+        <v>28</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="25"/>
+        <v>1535</v>
+      </c>
+      <c r="U49">
+        <v>739.99</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="12"/>
+        <v>11486.641711374479</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="13"/>
+        <v>11487</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="14"/>
+        <v>739.9669191259685</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="15"/>
+        <v>3.1190791810020713E-5</v>
+      </c>
+      <c r="Z49" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.705493166183409E-5</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="6"/>
+        <v>295996</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="17"/>
+        <v>574.33208556872387</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="18"/>
+        <v>574</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="19"/>
+        <v>296167.24738675955</v>
+      </c>
+      <c r="AI49" s="1">
+        <f t="shared" si="20"/>
+        <v>-5.78546286975401E-4</v>
+      </c>
+      <c r="AJ49" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f t="shared" si="24"/>
+        <v>1470</v>
+      </c>
+      <c r="O50">
+        <v>23</v>
+      </c>
+      <c r="P50" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="9"/>
+        <v>G4</v>
+      </c>
+      <c r="S50" t="s">
+        <v>28</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="25"/>
+        <v>1415</v>
+      </c>
+      <c r="U50">
+        <v>783.99</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="12"/>
+        <v>10841.975025191648</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="13"/>
+        <v>10842</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="14"/>
+        <v>783.98819406013649</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3035241055735511E-6</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="6"/>
+        <v>313596</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="17"/>
+        <v>542.0987512595824</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="18"/>
+        <v>542</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="19"/>
+        <v>313653.13653136534</v>
+      </c>
+      <c r="AI50" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.8219789590845359E-4</v>
+      </c>
+      <c r="AJ50" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f t="shared" si="24"/>
+        <v>1360</v>
+      </c>
+      <c r="O51">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="9"/>
+        <v>G#4</v>
+      </c>
+      <c r="S51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="25"/>
+        <v>1311</v>
+      </c>
+      <c r="U51">
+        <v>830.61</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="12"/>
+        <v>10233.442891368994</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="13"/>
+        <v>10233</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="14"/>
+        <v>830.64594937945867</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.3280696667036267E-5</v>
+      </c>
+      <c r="Z51" s="1">
+        <f t="shared" si="16"/>
+        <v>-9.772305286825933E-5</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="6"/>
+        <v>332244</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="17"/>
+        <v>511.67214456844971</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="18"/>
+        <v>512</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="19"/>
+        <v>332031.25</v>
+      </c>
+      <c r="AI51" s="1">
+        <f t="shared" si="20"/>
+        <v>6.403426397466605E-4</v>
+      </c>
+      <c r="AJ51" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <f t="shared" si="24"/>
+        <v>1261</v>
+      </c>
+      <c r="O52">
+        <v>25</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="9"/>
+        <v>A5</v>
+      </c>
+      <c r="S52" t="s">
+        <v>28</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="25"/>
+        <v>1219</v>
+      </c>
+      <c r="U52">
+        <f>U40*2</f>
+        <v>880</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="12"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="13"/>
+        <v>9659</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="14"/>
+        <v>880.00828243089347</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" si="15"/>
+        <v>-9.411853288066041E-6</v>
+      </c>
+      <c r="Z52" s="1">
+        <f t="shared" si="16"/>
+        <v>-1.0353038616828236E-4</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="6"/>
+        <v>352000</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="17"/>
+        <v>482.95454545454544</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="18"/>
+        <v>483</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="19"/>
+        <v>351966.87370600412</v>
+      </c>
+      <c r="AI52" s="1">
+        <f t="shared" si="20"/>
+        <v>9.4108789761015998E-5</v>
+      </c>
+      <c r="AJ52" s="1">
+        <f t="shared" si="21"/>
+        <v>-2.0703933747412417E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <f t="shared" si="24"/>
+        <v>1177</v>
+      </c>
+      <c r="O53">
+        <v>26</v>
+      </c>
+      <c r="P53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="9"/>
+        <v>A#5</v>
+      </c>
+      <c r="S53" t="s">
+        <v>28</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="25"/>
+        <v>1140</v>
+      </c>
+      <c r="U53">
+        <f t="shared" ref="U53:U55" si="26">U41*2</f>
+        <v>932.32</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="12"/>
+        <v>9117.0413591899778</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="13"/>
+        <v>9117</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="14"/>
+        <v>932.32422946144561</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.5364911678280606E-6</v>
+      </c>
+      <c r="Z53" s="1">
+        <f t="shared" si="16"/>
+        <v>-1.0968520346610333E-4</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="6"/>
+        <v>372928</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="17"/>
+        <v>455.85206795949887</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="18"/>
+        <v>456</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="19"/>
+        <v>372807.01754385966</v>
+      </c>
+      <c r="AI53" s="1">
+        <f t="shared" si="20"/>
+        <v>3.2441236951996633E-4</v>
+      </c>
+      <c r="AJ53" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <f t="shared" si="24"/>
+        <v>1102</v>
+      </c>
+      <c r="O54">
+        <v>27</v>
+      </c>
+      <c r="P54" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="9"/>
+        <v>B5</v>
+      </c>
+      <c r="S54" t="s">
+        <v>28</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="25"/>
+        <v>1068</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="26"/>
+        <v>987.76</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="12"/>
+        <v>8605.3292297724147</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="13"/>
+        <v>8605</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="14"/>
+        <v>987.79779198140614</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.82602873230109E-5</v>
+      </c>
+      <c r="Z54" s="1">
+        <f t="shared" si="16"/>
+        <v>-1.162115049389012E-4</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="6"/>
+        <v>395104</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="17"/>
+        <v>430.26646148862073</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="18"/>
+        <v>430</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="19"/>
+        <v>395348.83720930235</v>
+      </c>
+      <c r="AI54" s="1">
+        <f t="shared" si="20"/>
+        <v>-6.1967788051342509E-4</v>
+      </c>
+      <c r="AJ54" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <f t="shared" si="24"/>
+        <v>1034</v>
+      </c>
+      <c r="O55">
+        <v>28</v>
+      </c>
+      <c r="P55" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="9"/>
+        <v>C5</v>
+      </c>
+      <c r="S55" t="s">
+        <v>28</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="25"/>
+        <v>1005</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="26"/>
+        <v>1046.5</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="12"/>
+        <v>8122.3124701385568</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="13"/>
+        <v>8122</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="14"/>
+        <v>1046.5402610194533</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8472068278450067E-5</v>
+      </c>
+      <c r="Z55" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="6"/>
+        <v>418600</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="17"/>
+        <v>406.11562350692788</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="18"/>
+        <v>406</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="19"/>
+        <v>418719.21182266012</v>
+      </c>
+      <c r="AI55" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.8478696287659311E-4</v>
+      </c>
+      <c r="AJ55" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f>T28</f>
+        <v>3027</v>
+      </c>
+      <c r="L59">
+        <f>$J$30</f>
+        <v>20</v>
+      </c>
+      <c r="M59">
+        <f>W28</f>
+        <v>38636</v>
+      </c>
+      <c r="N59">
+        <f>AD28</f>
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <f>AG28</f>
+        <v>1932</v>
+      </c>
+      <c r="P59" t="str">
+        <f>CONCATENATE($J$58,J59,K$58,K59,$J$58,J59,L$58,L59,$J$58,J59,M$58,M59,$J$58,J59,N$58,N59,$J$58,J59,O$58,O59)</f>
+        <v>; notes[0].ADC_VAL = 3027; notes[0].PWM_PR = 20; notes[0].PWM_ARR = 38636; notes[0].Synth_PR = 1; notes[0].Synth_ARR = 1932</v>
+      </c>
+    </row>
+    <row r="60" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60:K86" si="27">T29</f>
+        <v>2607</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ref="L60:L86" si="28">$J$30</f>
+        <v>20</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ref="M60:M86" si="29">W29</f>
+        <v>36468</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60:N86" si="30">AD29</f>
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ref="O60:O86" si="31">AG29</f>
+        <v>1823</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" ref="P60:P86" si="32">CONCATENATE($J$58,J60,K$58,K60,$J$58,J60,L$58,L60,$J$58,J60,M$58,M60,$J$58,J60,N$58,N60,$J$58,J60,O$58,O60)</f>
+        <v>; notes[1].ADC_VAL = 2607; notes[1].PWM_PR = 20; notes[1].PWM_ARR = 36468; notes[1].Synth_PR = 1; notes[1].Synth_ARR = 1823</v>
+      </c>
+    </row>
+    <row r="61" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="27"/>
+        <v>2291</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="29"/>
+        <v>34421</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="31"/>
+        <v>1721</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[2].ADC_VAL = 2291; notes[2].PWM_PR = 20; notes[2].PWM_ARR = 34421; notes[2].Synth_PR = 1; notes[2].Synth_ARR = 1721</v>
+      </c>
+    </row>
+    <row r="62" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="27"/>
+        <v>2043</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="29"/>
+        <v>32489</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="31"/>
+        <v>1624</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[3].ADC_VAL = 2043; notes[3].PWM_PR = 20; notes[3].PWM_ARR = 32489; notes[3].Synth_PR = 1; notes[3].Synth_ARR = 1624</v>
+      </c>
+    </row>
+    <row r="63" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="27"/>
+        <v>1841</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="29"/>
+        <v>30665</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="31"/>
+        <v>1533</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[4].ADC_VAL = 1841; notes[4].PWM_PR = 20; notes[4].PWM_ARR = 30665; notes[4].Synth_PR = 1; notes[4].Synth_ARR = 1533</v>
+      </c>
+    </row>
+    <row r="64" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="27"/>
+        <v>1674</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="29"/>
+        <v>28945</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="31"/>
+        <v>1447</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[5].ADC_VAL = 1674; notes[5].PWM_PR = 20; notes[5].PWM_ARR = 28945; notes[5].Synth_PR = 1; notes[5].Synth_ARR = 1447</v>
+      </c>
+    </row>
+    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="27"/>
+        <v>1535</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="29"/>
+        <v>27320</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="31"/>
+        <v>1366</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[6].ADC_VAL = 1535; notes[6].PWM_PR = 20; notes[6].PWM_ARR = 27320; notes[6].Synth_PR = 1; notes[6].Synth_ARR = 1366</v>
+      </c>
+    </row>
+    <row r="66" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>7</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="27"/>
+        <v>1415</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="29"/>
+        <v>25787</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="31"/>
+        <v>1289</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[7].ADC_VAL = 1415; notes[7].PWM_PR = 20; notes[7].PWM_ARR = 25787; notes[7].Synth_PR = 1; notes[7].Synth_ARR = 1289</v>
+      </c>
+    </row>
+    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="27"/>
+        <v>1311</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="29"/>
+        <v>24339</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="31"/>
+        <v>1217</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[8].ADC_VAL = 1311; notes[8].PWM_PR = 20; notes[8].PWM_ARR = 24339; notes[8].Synth_PR = 1; notes[8].Synth_ARR = 1217</v>
+      </c>
+    </row>
+    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="27"/>
+        <v>1219</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="29"/>
+        <v>22973</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="31"/>
+        <v>1149</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[9].ADC_VAL = 1219; notes[9].PWM_PR = 20; notes[9].PWM_ARR = 22973; notes[9].Synth_PR = 1; notes[9].Synth_ARR = 1149</v>
+      </c>
+    </row>
+    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="27"/>
+        <v>1140</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="29"/>
+        <v>21684</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="31"/>
+        <v>1084</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[10].ADC_VAL = 1140; notes[10].PWM_PR = 20; notes[10].PWM_ARR = 21684; notes[10].Synth_PR = 1; notes[10].Synth_ARR = 1084</v>
+      </c>
+    </row>
+    <row r="70" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>11</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="27"/>
+        <v>1068</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="29"/>
+        <v>20467</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="31"/>
+        <v>1023</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[11].ADC_VAL = 1068; notes[11].PWM_PR = 20; notes[11].PWM_ARR = 20467; notes[11].Synth_PR = 1; notes[11].Synth_ARR = 1023</v>
+      </c>
+    </row>
+    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>12</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="27"/>
+        <v>1005</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="29"/>
+        <v>19318</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="31"/>
+        <v>966</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[12].ADC_VAL = 1005; notes[12].PWM_PR = 20; notes[12].PWM_ARR = 19318; notes[12].Synth_PR = 1; notes[12].Synth_ARR = 966</v>
+      </c>
+    </row>
+    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>13</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="27"/>
+        <v>949</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="29"/>
+        <v>18234</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="31"/>
+        <v>912</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[13].ADC_VAL = 949; notes[13].PWM_PR = 20; notes[13].PWM_ARR = 18234; notes[13].Synth_PR = 1; notes[13].Synth_ARR = 912</v>
+      </c>
+    </row>
+    <row r="73" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>14</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="27"/>
+        <v>900</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="29"/>
+        <v>17211</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="31"/>
+        <v>861</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[14].ADC_VAL = 900; notes[14].PWM_PR = 20; notes[14].PWM_ARR = 17211; notes[14].Synth_PR = 1; notes[14].Synth_ARR = 861</v>
+      </c>
+    </row>
+    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>15</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="27"/>
+        <v>3027</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="29"/>
+        <v>16245</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="31"/>
+        <v>812</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[15].ADC_VAL = 3027; notes[15].PWM_PR = 20; notes[15].PWM_ARR = 16245; notes[15].Synth_PR = 1; notes[15].Synth_ARR = 812</v>
+      </c>
+    </row>
+    <row r="75" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>16</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="27"/>
+        <v>2607</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="29"/>
+        <v>15333</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="31"/>
+        <v>767</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[16].ADC_VAL = 2607; notes[16].PWM_PR = 20; notes[16].PWM_ARR = 15333; notes[16].Synth_PR = 1; notes[16].Synth_ARR = 767</v>
+      </c>
+    </row>
+    <row r="76" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>17</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="27"/>
+        <v>2291</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="29"/>
+        <v>14472</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="31"/>
+        <v>724</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[17].ADC_VAL = 2291; notes[17].PWM_PR = 20; notes[17].PWM_ARR = 14472; notes[17].Synth_PR = 1; notes[17].Synth_ARR = 724</v>
+      </c>
+    </row>
+    <row r="77" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>18</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="27"/>
+        <v>2043</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="29"/>
+        <v>13660</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="31"/>
+        <v>683</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[18].ADC_VAL = 2043; notes[18].PWM_PR = 20; notes[18].PWM_ARR = 13660; notes[18].Synth_PR = 1; notes[18].Synth_ARR = 683</v>
+      </c>
+    </row>
+    <row r="78" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>19</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="27"/>
+        <v>1841</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="29"/>
+        <v>12893</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="31"/>
+        <v>645</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[19].ADC_VAL = 1841; notes[19].PWM_PR = 20; notes[19].PWM_ARR = 12893; notes[19].Synth_PR = 1; notes[19].Synth_ARR = 645</v>
+      </c>
+    </row>
+    <row r="79" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>20</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="27"/>
+        <v>1674</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="29"/>
+        <v>12170</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="31"/>
+        <v>608</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[20].ADC_VAL = 1674; notes[20].PWM_PR = 20; notes[20].PWM_ARR = 12170; notes[20].Synth_PR = 1; notes[20].Synth_ARR = 608</v>
+      </c>
+    </row>
+    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>21</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="27"/>
+        <v>1535</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="29"/>
+        <v>11487</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="31"/>
+        <v>574</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[21].ADC_VAL = 1535; notes[21].PWM_PR = 20; notes[21].PWM_ARR = 11487; notes[21].Synth_PR = 1; notes[21].Synth_ARR = 574</v>
+      </c>
+    </row>
+    <row r="81" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>22</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="27"/>
+        <v>1415</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="29"/>
+        <v>10842</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="31"/>
+        <v>542</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[22].ADC_VAL = 1415; notes[22].PWM_PR = 20; notes[22].PWM_ARR = 10842; notes[22].Synth_PR = 1; notes[22].Synth_ARR = 542</v>
+      </c>
+    </row>
+    <row r="82" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>23</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="27"/>
+        <v>1311</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="29"/>
+        <v>10233</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="31"/>
+        <v>512</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[23].ADC_VAL = 1311; notes[23].PWM_PR = 20; notes[23].PWM_ARR = 10233; notes[23].Synth_PR = 1; notes[23].Synth_ARR = 512</v>
+      </c>
+    </row>
+    <row r="83" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>24</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="27"/>
+        <v>1219</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="29"/>
+        <v>9659</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="31"/>
+        <v>483</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[24].ADC_VAL = 1219; notes[24].PWM_PR = 20; notes[24].PWM_ARR = 9659; notes[24].Synth_PR = 1; notes[24].Synth_ARR = 483</v>
+      </c>
+    </row>
+    <row r="84" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="27"/>
+        <v>1140</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="29"/>
+        <v>9117</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="31"/>
+        <v>456</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[25].ADC_VAL = 1140; notes[25].PWM_PR = 20; notes[25].PWM_ARR = 9117; notes[25].Synth_PR = 1; notes[25].Synth_ARR = 456</v>
+      </c>
+    </row>
+    <row r="85" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>26</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="27"/>
+        <v>1068</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="29"/>
+        <v>8605</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="31"/>
+        <v>430</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[26].ADC_VAL = 1068; notes[26].PWM_PR = 20; notes[26].PWM_ARR = 8605; notes[26].Synth_PR = 1; notes[26].Synth_ARR = 430</v>
+      </c>
+    </row>
+    <row r="86" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>27</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="27"/>
+        <v>1005</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="29"/>
+        <v>8122</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="31"/>
+        <v>406</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="32"/>
+        <v>; notes[27].ADC_VAL = 1005; notes[27].PWM_PR = 20; notes[27].PWM_ARR = 8122; notes[27].Synth_PR = 1; notes[27].Synth_ARR = 406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="G4:AJ86"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>3500</v>
+      </c>
+      <c r="S5" t="str">
+        <f>CONCATENATE(S4,O5,",")</f>
+        <v>ADCNoteTable = {3500,</v>
+      </c>
+    </row>
+    <row r="6" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>4700</v>
+      </c>
+      <c r="I6">
+        <f>G6+I5</f>
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>$I$4*H6/(H6+I6)</f>
+        <v>2.4736842105263159</v>
+      </c>
+      <c r="L6">
         <f t="shared" ref="L6:L20" si="0">ROUND(K6*(2^$L$4-1)/$I$4,0)</f>
         <v>3377</v>
       </c>
@@ -3450,6 +9632,18 @@
         <v>ADCNoteTable = {3500,3125,2687,2356,2098,1892,1722,1580,1460,1357,1268,1189,1120,1058,1003,900};</v>
       </c>
     </row>
+    <row r="24" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f>M24/N24</f>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3.3</v>
+      </c>
+    </row>
     <row r="26" spans="7:36" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>170</v>
@@ -3485,6 +9679,13 @@
       </c>
     </row>
     <row r="28" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f>M28/N28</f>
+        <v>0.96772283091501332</v>
+      </c>
+      <c r="M28">
+        <v>3268</v>
+      </c>
       <c r="N28">
         <f>L6</f>
         <v>3377</v>
@@ -3562,8 +9763,15 @@
       </c>
     </row>
     <row r="29" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" ref="L29:L42" si="8">M29/N29</f>
+        <v>0.96971806474068922</v>
+      </c>
+      <c r="M29">
+        <v>2786</v>
+      </c>
       <c r="N29">
-        <f t="shared" ref="N29:N42" si="8">L7</f>
+        <f t="shared" ref="N29:N42" si="9">L7</f>
         <v>2873</v>
       </c>
       <c r="O29">
@@ -3576,38 +9784,38 @@
         <v>3</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" ref="R29:R55" si="9">_xlfn.CONCAT(P29,Q29)</f>
+        <f t="shared" ref="R29:R55" si="10">_xlfn.CONCAT(P29,Q29)</f>
         <v>A#3</v>
       </c>
       <c r="S29" t="s">
         <v>13</v>
       </c>
       <c r="T29">
-        <f t="shared" ref="T29:T42" si="10">O7</f>
+        <f t="shared" ref="T29:T42" si="11">O7</f>
         <v>2687</v>
       </c>
       <c r="U29">
-        <f t="shared" ref="U29:U39" si="11">U41/2</f>
+        <f t="shared" ref="U29:U39" si="12">U41/2</f>
         <v>233.08</v>
       </c>
       <c r="V29">
-        <f t="shared" ref="V29:V55" si="12">$K$26/($J$30*U29)</f>
+        <f t="shared" ref="V29:V55" si="13">$K$26/($J$30*U29)</f>
         <v>36468.165436759911</v>
       </c>
       <c r="W29">
-        <f t="shared" ref="W29:W55" si="13">ROUND(V29,0)</f>
+        <f t="shared" ref="W29:W55" si="14">ROUND(V29,0)</f>
         <v>36468</v>
       </c>
       <c r="X29">
-        <f t="shared" ref="X29:X55" si="14">$K$26/(W29*$J$30)</f>
+        <f t="shared" ref="X29:X55" si="15">$K$26/(W29*$J$30)</f>
         <v>233.0810573653614</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" ref="Y29:Y55" si="15">1-X29/U29</f>
+        <f t="shared" ref="Y29:Y55" si="16">1-X29/U29</f>
         <v>-4.5364911678280606E-6</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" ref="Z29:Z55" si="16">1-ROUND(W29/2,0)/(W29/2)</f>
+        <f t="shared" ref="Z29:Z55" si="17">1-ROUND(W29/2,0)/(W29/2)</f>
         <v>0</v>
       </c>
       <c r="AD29">
@@ -3619,23 +9827,23 @@
         <v>93232</v>
       </c>
       <c r="AF29">
-        <f t="shared" ref="AF29:AF55" si="17">$K$26/(AD29*AE29)</f>
+        <f t="shared" ref="AF29:AF55" si="18">$K$26/(AD29*AE29)</f>
         <v>1823.4082718379955</v>
       </c>
       <c r="AG29">
-        <f t="shared" ref="AG29:AG55" si="18">ROUND(AF29,0)</f>
+        <f t="shared" ref="AG29:AG55" si="19">ROUND(AF29,0)</f>
         <v>1823</v>
       </c>
       <c r="AH29">
-        <f t="shared" ref="AH29:AH55" si="19">$K$26/(AG29*AD29)</f>
+        <f t="shared" ref="AH29:AH55" si="20">$K$26/(AG29*AD29)</f>
         <v>93252.879868348871</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" ref="AI29:AI55" si="20">1-AH29/AE29</f>
+        <f t="shared" ref="AI29:AI55" si="21">1-AH29/AE29</f>
         <v>-2.2395602742486531E-4</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" ref="AJ29:AJ55" si="21">1-ROUND(AG29/2,0)/(AG29/2)</f>
+        <f t="shared" ref="AJ29:AJ55" si="22">1-ROUND(AG29/2,0)/(AG29/2)</f>
         <v>-5.4854635216683434E-4</v>
       </c>
     </row>
@@ -3646,8 +9854,15 @@
       <c r="J30">
         <v>20</v>
       </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="M30">
+        <v>2428</v>
+      </c>
       <c r="N30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2500</v>
       </c>
       <c r="O30">
@@ -3660,42 +9875,42 @@
         <v>3</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>B3</v>
       </c>
       <c r="S30" t="s">
         <v>13</v>
       </c>
       <c r="T30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2356</v>
       </c>
       <c r="U30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>246.94</v>
       </c>
       <c r="V30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>34421.316919089659</v>
       </c>
       <c r="W30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34421</v>
       </c>
       <c r="X30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>246.94227361203917</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-9.2071435942031599E-6</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-2.9052032189724741E-5</v>
       </c>
       <c r="AD30">
-        <f t="shared" ref="AD30:AD55" si="22">AD29</f>
+        <f t="shared" ref="AD30:AD55" si="23">AD29</f>
         <v>1</v>
       </c>
       <c r="AE30">
@@ -3703,23 +9918,23 @@
         <v>98776</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1721.0658459544829</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1721</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>98779.779198140619</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.82602873230109E-5</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-5.8105752469495009E-4</v>
       </c>
     </row>
@@ -3730,8 +9945,15 @@
       <c r="J31">
         <v>450</v>
       </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>0.97377938517179019</v>
+      </c>
+      <c r="M31">
+        <v>2154</v>
+      </c>
       <c r="N31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2212</v>
       </c>
       <c r="O31">
@@ -3744,42 +9966,42 @@
         <v>3</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>C3</v>
       </c>
       <c r="S31" t="s">
         <v>13</v>
       </c>
       <c r="T31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2098</v>
       </c>
       <c r="U31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>261.625</v>
       </c>
       <c r="V31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32489.249880554227</v>
       </c>
       <c r="W31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32489</v>
       </c>
       <c r="X31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>261.62701221952045</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-7.6912356252734071E-6</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.0779648496404022E-5</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE31">
@@ -3787,23 +10009,23 @@
         <v>104650</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1624.4624940277115</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1624</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>104679.80295566503</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.8478696287659311E-4</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -3820,10 +10042,14 @@
         <v>18</v>
       </c>
       <c r="L32">
-        <v>20000</v>
+        <f t="shared" si="8"/>
+        <v>0.97379032258064513</v>
+      </c>
+      <c r="M32">
+        <v>1932</v>
       </c>
       <c r="N32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1984</v>
       </c>
       <c r="O32">
@@ -3836,42 +10062,42 @@
         <v>3</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>C#3</v>
       </c>
       <c r="S32" t="s">
         <v>13</v>
       </c>
       <c r="T32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1892</v>
       </c>
       <c r="U32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>277.185</v>
       </c>
       <c r="V32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30665.440049064706</v>
       </c>
       <c r="W32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30665</v>
       </c>
       <c r="X32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>277.18897766182943</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.4350205925328652E-5</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.2610467960214606E-5</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE32">
@@ -3879,23 +10105,23 @@
         <v>110874</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1533.2720024532352</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1533</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>110893.67253750816</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.7743147634385892E-4</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.5231572080892697E-4</v>
       </c>
     </row>
@@ -3904,8 +10130,15 @@
         <f>K27*J30*J31</f>
         <v>5.2941176470588231E-5</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>0.97220678154530293</v>
+      </c>
+      <c r="M33">
+        <v>1749</v>
+      </c>
       <c r="N33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1799</v>
       </c>
       <c r="O33">
@@ -3918,42 +10151,42 @@
         <v>3</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>D3</v>
       </c>
       <c r="S33" t="s">
         <v>13</v>
       </c>
       <c r="T33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1722</v>
       </c>
       <c r="U33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>293.66500000000002</v>
       </c>
       <c r="V33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28944.545655764221</v>
       </c>
       <c r="W33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28945</v>
       </c>
       <c r="X33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>293.66039039557779</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.56968124298551E-5</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.4548281222956945E-5</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE33">
@@ -3961,23 +10194,23 @@
         <v>117466.00000000001</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1447.2272827882109</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1447</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>117484.45058742225</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.5707172647605461E-4</v>
       </c>
       <c r="AJ33" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.9108500345538282E-4</v>
       </c>
     </row>
@@ -3986,8 +10219,15 @@
         <f>1/J33</f>
         <v>18888.888888888891</v>
       </c>
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>0.97203647416413375</v>
+      </c>
+      <c r="M34">
+        <v>1599</v>
+      </c>
       <c r="N34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1645</v>
       </c>
       <c r="O34">
@@ -4000,42 +10240,42 @@
         <v>3</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>D#3</v>
       </c>
       <c r="S34" t="s">
         <v>13</v>
       </c>
       <c r="T34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1580</v>
       </c>
       <c r="U34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>311.125</v>
       </c>
       <c r="V34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27320.208919244677</v>
       </c>
       <c r="W34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27320</v>
       </c>
       <c r="X34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>311.12737920937042</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-7.6471173013903382E-6</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE34">
@@ -4043,29 +10283,36 @@
         <v>124450</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1366.0104459622339</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1366</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>124450.95168374816</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-7.6471173013903382E-6</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>0.97029702970297027</v>
+      </c>
+      <c r="M35">
+        <v>1470</v>
+      </c>
       <c r="N35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1515</v>
       </c>
       <c r="O35">
@@ -4078,42 +10325,42 @@
         <v>3</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>E3</v>
       </c>
       <c r="S35" t="s">
         <v>13</v>
       </c>
       <c r="T35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1460</v>
       </c>
       <c r="U35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>329.625</v>
       </c>
       <c r="V35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25786.879029199848</v>
       </c>
       <c r="W35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25787</v>
       </c>
       <c r="X35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>329.62345367820996</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.6911544635541702E-6</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.8779229844410068E-5</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE35">
@@ -4121,29 +10368,36 @@
         <v>131850</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1289.3439514599925</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1289</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>131885.18231186966</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.6683588827958182E-4</v>
       </c>
       <c r="AJ35" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-7.7579519006976128E-4</v>
       </c>
     </row>
     <row r="36" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>0.96797153024911031</v>
+      </c>
+      <c r="M36">
+        <v>1360</v>
+      </c>
       <c r="N36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1405</v>
       </c>
       <c r="O36">
@@ -4156,42 +10410,42 @@
         <v>3</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F3</v>
       </c>
       <c r="S36" t="s">
         <v>13</v>
       </c>
       <c r="T36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1357</v>
       </c>
       <c r="U36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>349.23</v>
       </c>
       <c r="V36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24339.260659164447</v>
       </c>
       <c r="W36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24339</v>
       </c>
       <c r="X36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>349.23374008792473</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.070952645743084E-5</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-4.1086322363215189E-5</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE36">
@@ -4199,29 +10453,36 @@
         <v>139692</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1216.9630329582224</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1217</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>139687.75677896466</v>
       </c>
       <c r="AI36" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.0375547886429821E-5</v>
       </c>
       <c r="AJ36" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-8.2169268693510489E-4</v>
       </c>
     </row>
     <row r="37" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>0.96333078686019857</v>
+      </c>
+      <c r="M37">
+        <v>1261</v>
+      </c>
       <c r="N37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1309</v>
       </c>
       <c r="O37">
@@ -4234,42 +10495,42 @@
         <v>3</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F#3</v>
       </c>
       <c r="S37" t="s">
         <v>13</v>
       </c>
       <c r="T37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1268</v>
       </c>
       <c r="U37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>369.995</v>
       </c>
       <c r="V37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22973.283422748958</v>
       </c>
       <c r="W37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22973</v>
       </c>
       <c r="X37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>369.99956470639444</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.2337211028334849E-5</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-4.3529360553629104E-5</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE37">
@@ -4277,23 +10538,23 @@
         <v>147998</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1148.6641711374477</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1149</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>147954.74325500434</v>
       </c>
       <c r="AI37" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.9227925374430974E-4</v>
       </c>
       <c r="AJ37" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-8.7032201914705176E-4</v>
       </c>
     </row>
@@ -4302,8 +10563,15 @@
         <f>K26/(J30*J31)</f>
         <v>18888.888888888891</v>
       </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>0.96003262642740617</v>
+      </c>
+      <c r="M38">
+        <v>1177</v>
+      </c>
       <c r="N38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1226</v>
       </c>
       <c r="O38">
@@ -4316,42 +10584,42 @@
         <v>3</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>G3</v>
       </c>
       <c r="S38" t="s">
         <v>13</v>
       </c>
       <c r="T38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1189</v>
       </c>
       <c r="U38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>391.995</v>
       </c>
       <c r="V38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21683.950050383297</v>
       </c>
       <c r="W38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21684</v>
       </c>
       <c r="X38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>391.99409703006825</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.3035241055735511E-6</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE38">
@@ -4359,29 +10627,36 @@
         <v>156798</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1084.1975025191648</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1084</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>156826.56826568267</v>
       </c>
       <c r="AI38" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.8219789590845359E-4</v>
       </c>
       <c r="AJ38" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>0.95659722222222221</v>
+      </c>
+      <c r="M39">
+        <v>1102</v>
+      </c>
       <c r="N39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1152</v>
       </c>
       <c r="O39">
@@ -4394,42 +10669,42 @@
         <v>3</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>G#3</v>
       </c>
       <c r="S39" t="s">
         <v>13</v>
       </c>
       <c r="T39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1120</v>
       </c>
       <c r="U39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>415.30500000000001</v>
       </c>
       <c r="V39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20466.885782737987</v>
       </c>
       <c r="W39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20467</v>
       </c>
       <c r="X39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>415.30268236673669</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.580557092543792E-6</v>
       </c>
       <c r="Z39" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-4.8859139101908866E-5</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE39">
@@ -4437,29 +10712,36 @@
         <v>166122</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1023.3442891368994</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>166177.90811339198</v>
       </c>
       <c r="AI39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.3654852091835608E-4</v>
       </c>
       <c r="AJ39" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-9.7751710654936375E-4</v>
       </c>
     </row>
     <row r="40" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>0.95124195032198711</v>
+      </c>
+      <c r="M40">
+        <v>1034</v>
+      </c>
       <c r="N40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1087</v>
       </c>
       <c r="O40">
@@ -4473,41 +10755,41 @@
         <v>4</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A4</v>
       </c>
       <c r="S40" t="s">
         <v>13</v>
       </c>
       <c r="T40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1058</v>
       </c>
       <c r="U40">
         <v>440</v>
       </c>
       <c r="V40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19318.18181818182</v>
       </c>
       <c r="W40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19318</v>
       </c>
       <c r="X40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>440.00414121544674</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-9.411853288066041E-6</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE40">
@@ -4515,29 +10797,36 @@
         <v>176000</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>965.90909090909088</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>966</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>175983.43685300206</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.4108789761015998E-5</v>
       </c>
       <c r="AJ40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>0.94849368318756078</v>
+      </c>
+      <c r="M41">
+        <v>976</v>
+      </c>
       <c r="N41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1029</v>
       </c>
       <c r="O41">
@@ -4547,45 +10836,45 @@
         <v>8</v>
       </c>
       <c r="Q41">
-        <f t="shared" ref="Q41:Q55" si="23">Q29+1</f>
+        <f t="shared" ref="Q41:Q55" si="24">Q29+1</f>
         <v>4</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A#4</v>
       </c>
       <c r="S41" t="s">
         <v>13</v>
       </c>
       <c r="T41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1003</v>
       </c>
       <c r="U41">
         <v>466.16</v>
       </c>
       <c r="V41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18234.082718379956</v>
       </c>
       <c r="W41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18234</v>
       </c>
       <c r="X41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>466.16211473072281</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.5364911678280606E-6</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE41">
@@ -4593,29 +10882,36 @@
         <v>186464</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>911.70413591899774</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>912</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>186403.50877192983</v>
       </c>
       <c r="AI41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.2441236951996633E-4</v>
       </c>
       <c r="AJ41" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>0.94370522006141244</v>
+      </c>
+      <c r="M42">
+        <v>922</v>
+      </c>
       <c r="N42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>977</v>
       </c>
       <c r="O42">
@@ -4625,45 +10921,45 @@
         <v>2</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>B4</v>
       </c>
       <c r="S42" t="s">
         <v>13</v>
       </c>
       <c r="T42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>900</v>
       </c>
       <c r="U42">
         <v>493.88</v>
       </c>
       <c r="V42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17210.658459544829</v>
       </c>
       <c r="W42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17211</v>
       </c>
       <c r="X42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>493.87019929115098</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.9844312077910153E-5</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-5.8102376387259014E-5</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE42">
@@ -4671,23 +10967,23 @@
         <v>197552</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>860.53292297724147</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>861</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>197444.83159117305</v>
       </c>
       <c r="AI42" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.4248202410989155E-4</v>
       </c>
       <c r="AJ42" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.1614401858304202E-3</v>
       </c>
     </row>
@@ -4703,11 +10999,11 @@
         <v>3</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>C4</v>
       </c>
       <c r="S43" t="s">
@@ -4721,27 +11017,27 @@
         <v>523.25</v>
       </c>
       <c r="V43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16244.624940277114</v>
       </c>
       <c r="W43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16245</v>
       </c>
       <c r="X43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>523.23791935980307</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.3087702239688035E-5</v>
       </c>
       <c r="Z43" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-6.1557402277534479E-5</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE43">
@@ -4749,29 +11045,29 @@
         <v>209300</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>812.23124701385575</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>812</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>209359.60591133006</v>
       </c>
       <c r="AI43" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.8478696287659311E-4</v>
       </c>
       <c r="AJ43" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N44">
-        <f t="shared" ref="N44:N55" si="24">L7</f>
+        <f t="shared" ref="N44:N55" si="25">L7</f>
         <v>2873</v>
       </c>
       <c r="O44">
@@ -4781,45 +11077,45 @@
         <v>9</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>C#4</v>
       </c>
       <c r="S44" t="s">
         <v>28</v>
       </c>
       <c r="T44">
-        <f t="shared" ref="T44:T55" si="25">O7</f>
+        <f t="shared" ref="T44:T55" si="26">O7</f>
         <v>2687</v>
       </c>
       <c r="U44">
         <v>554.37</v>
       </c>
       <c r="V44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15332.720024532353</v>
       </c>
       <c r="W44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15333</v>
       </c>
       <c r="X44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>554.35987738863889</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.8259666578535061E-5</v>
       </c>
       <c r="Z44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-6.5218809104594655E-5</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE44">
@@ -4827,29 +11123,29 @@
         <v>221748</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>766.63600122661762</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>767</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>221642.76401564537</v>
       </c>
       <c r="AI44" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7457467194578218E-4</v>
       </c>
       <c r="AJ44" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.3037809647979959E-3</v>
       </c>
     </row>
     <row r="45" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2500</v>
       </c>
       <c r="O45">
@@ -4859,45 +11155,45 @@
         <v>4</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>D4</v>
       </c>
       <c r="S45" t="s">
         <v>28</v>
       </c>
       <c r="T45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2356</v>
       </c>
       <c r="U45">
         <v>587.33000000000004</v>
       </c>
       <c r="V45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14472.272827882111</v>
       </c>
       <c r="W45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14472</v>
       </c>
       <c r="X45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>587.34107241569927</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.8852120101442438E-5</v>
       </c>
       <c r="Z45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE45">
@@ -4905,29 +11201,29 @@
         <v>234932.00000000003</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>723.61364139410546</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>724</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>234806.62983425416</v>
       </c>
       <c r="AI45" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.3364448327974934E-4</v>
       </c>
       <c r="AJ45" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2212</v>
       </c>
       <c r="O46">
@@ -4937,45 +11233,45 @@
         <v>10</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>D#4</v>
       </c>
       <c r="S46" t="s">
         <v>28</v>
       </c>
       <c r="T46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2098</v>
       </c>
       <c r="U46">
         <v>622.25</v>
       </c>
       <c r="V46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13660.104459622338</v>
       </c>
       <c r="W46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13660</v>
       </c>
       <c r="X46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>622.25475841874083</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-7.6471173013903382E-6</v>
       </c>
       <c r="Z46" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE46">
@@ -4983,29 +11279,29 @@
         <v>248900</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>683.00522298111696</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>683</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>248901.90336749633</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-7.6471173013903382E-6</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.4641288433381305E-3</v>
       </c>
     </row>
     <row r="47" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1984</v>
       </c>
       <c r="O47">
@@ -5015,45 +11311,45 @@
         <v>5</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>E4</v>
       </c>
       <c r="S47" t="s">
         <v>28</v>
       </c>
       <c r="T47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1892</v>
       </c>
       <c r="U47">
         <v>659.25</v>
       </c>
       <c r="V47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12893.439514599924</v>
       </c>
       <c r="W47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12893</v>
       </c>
       <c r="X47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>659.27247343519741</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.4089397341618977E-5</v>
       </c>
       <c r="Z47" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-7.756146746307202E-5</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE47">
@@ -5061,29 +11357,29 @@
         <v>263700</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>644.67197572999623</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>645</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>263565.89147286821</v>
       </c>
       <c r="AI47" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.0856475969585091E-4</v>
       </c>
       <c r="AJ47" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.5503875968991832E-3</v>
       </c>
     </row>
     <row r="48" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1799</v>
       </c>
       <c r="O48">
@@ -5093,45 +11389,45 @@
         <v>6</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F4</v>
       </c>
       <c r="S48" t="s">
         <v>28</v>
       </c>
       <c r="T48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1722</v>
       </c>
       <c r="U48">
         <v>698.46</v>
       </c>
       <c r="V48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12169.630329582224</v>
       </c>
       <c r="W48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12170</v>
       </c>
       <c r="X48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>698.43878389482336</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0375547886318799E-5</v>
       </c>
       <c r="Z48" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE48">
@@ -5139,29 +11435,29 @@
         <v>279384</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>608.48151647911118</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>608</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>279605.26315789472</v>
       </c>
       <c r="AI48" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-7.9196789327484751E-4</v>
       </c>
       <c r="AJ48" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1645</v>
       </c>
       <c r="O49">
@@ -5171,45 +11467,45 @@
         <v>11</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F#4</v>
       </c>
       <c r="S49" t="s">
         <v>28</v>
       </c>
       <c r="T49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1580</v>
       </c>
       <c r="U49">
         <v>739.99</v>
       </c>
       <c r="V49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11486.641711374479</v>
       </c>
       <c r="W49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11487</v>
       </c>
       <c r="X49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>739.9669191259685</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.1190791810020713E-5</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-8.705493166183409E-5</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE49">
@@ -5217,29 +11513,29 @@
         <v>295996</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>574.33208556872387</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>574</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>296167.24738675955</v>
       </c>
       <c r="AI49" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5.78546286975401E-4</v>
       </c>
       <c r="AJ49" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1515</v>
       </c>
       <c r="O50">
@@ -5249,45 +11545,45 @@
         <v>7</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>G4</v>
       </c>
       <c r="S50" t="s">
         <v>28</v>
       </c>
       <c r="T50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1460</v>
       </c>
       <c r="U50">
         <v>783.99</v>
       </c>
       <c r="V50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10841.975025191648</v>
       </c>
       <c r="W50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10842</v>
       </c>
       <c r="X50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>783.98819406013649</v>
       </c>
       <c r="Y50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.3035241055735511E-6</v>
       </c>
       <c r="Z50" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE50">
@@ -5295,29 +11591,29 @@
         <v>313596</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>542.0987512595824</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>542</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>313653.13653136534</v>
       </c>
       <c r="AI50" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.8219789590845359E-4</v>
       </c>
       <c r="AJ50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N51">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1405</v>
       </c>
       <c r="O51">
@@ -5327,45 +11623,45 @@
         <v>12</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>G#4</v>
       </c>
       <c r="S51" t="s">
         <v>28</v>
       </c>
       <c r="T51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1357</v>
       </c>
       <c r="U51">
         <v>830.61</v>
       </c>
       <c r="V51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10233.442891368994</v>
       </c>
       <c r="W51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10233</v>
       </c>
       <c r="X51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>830.64594937945867</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.3280696667036267E-5</v>
       </c>
       <c r="Z51" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.772305286825933E-5</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE51">
@@ -5373,29 +11669,29 @@
         <v>332244</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>511.67214456844971</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>512</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>332031.25</v>
       </c>
       <c r="AI51" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.403426397466605E-4</v>
       </c>
       <c r="AJ51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1309</v>
       </c>
       <c r="O52">
@@ -5405,18 +11701,18 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A5</v>
       </c>
       <c r="S52" t="s">
         <v>28</v>
       </c>
       <c r="T52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1268</v>
       </c>
       <c r="U52">
@@ -5424,27 +11720,27 @@
         <v>880</v>
       </c>
       <c r="V52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9659.0909090909099</v>
       </c>
       <c r="W52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9659</v>
       </c>
       <c r="X52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>880.00828243089347</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-9.411853288066041E-6</v>
       </c>
       <c r="Z52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.0353038616828236E-4</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE52">
@@ -5452,29 +11748,29 @@
         <v>352000</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>482.95454545454544</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>483</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>351966.87370600412</v>
       </c>
       <c r="AI52" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.4108789761015998E-5</v>
       </c>
       <c r="AJ52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-2.0703933747412417E-3</v>
       </c>
     </row>
     <row r="53" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1226</v>
       </c>
       <c r="O53">
@@ -5484,46 +11780,46 @@
         <v>8</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A#5</v>
       </c>
       <c r="S53" t="s">
         <v>28</v>
       </c>
       <c r="T53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1189</v>
       </c>
       <c r="U53">
-        <f t="shared" ref="U53:U55" si="26">U41*2</f>
+        <f t="shared" ref="U53:U55" si="27">U41*2</f>
         <v>932.32</v>
       </c>
       <c r="V53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9117.0413591899778</v>
       </c>
       <c r="W53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9117</v>
       </c>
       <c r="X53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>932.32422946144561</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.5364911678280606E-6</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.0968520346610333E-4</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE53">
@@ -5531,29 +11827,29 @@
         <v>372928</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>455.85206795949887</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>456</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>372807.01754385966</v>
       </c>
       <c r="AI53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.2441236951996633E-4</v>
       </c>
       <c r="AJ53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1152</v>
       </c>
       <c r="O54">
@@ -5563,46 +11859,46 @@
         <v>2</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>B5</v>
       </c>
       <c r="S54" t="s">
         <v>28</v>
       </c>
       <c r="T54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1120</v>
       </c>
       <c r="U54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>987.76</v>
       </c>
       <c r="V54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8605.3292297724147</v>
       </c>
       <c r="W54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8605</v>
       </c>
       <c r="X54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>987.79779198140614</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.82602873230109E-5</v>
       </c>
       <c r="Z54" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.162115049389012E-4</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE54">
@@ -5610,29 +11906,29 @@
         <v>395104</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>430.26646148862073</v>
       </c>
       <c r="AG54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>430</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>395348.83720930235</v>
       </c>
       <c r="AI54" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-6.1967788051342509E-4</v>
       </c>
       <c r="AJ54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="10:36" x14ac:dyDescent="0.25">
       <c r="N55">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1087</v>
       </c>
       <c r="O55">
@@ -5642,46 +11938,46 @@
         <v>3</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>C5</v>
       </c>
       <c r="S55" t="s">
         <v>28</v>
       </c>
       <c r="T55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1058</v>
       </c>
       <c r="U55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1046.5</v>
       </c>
       <c r="V55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8122.3124701385568</v>
       </c>
       <c r="W55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8122</v>
       </c>
       <c r="X55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1046.5402610194533</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8472068278450067E-5</v>
       </c>
       <c r="Z55" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AE55">
@@ -5689,23 +11985,23 @@
         <v>418600</v>
       </c>
       <c r="AF55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>406.11562350692788</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>406</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>418719.21182266012</v>
       </c>
       <c r="AI55" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.8478696287659311E-4</v>
       </c>
       <c r="AJ55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -5768,27 +12064,27 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <f t="shared" ref="K60:K86" si="27">T29</f>
+        <f t="shared" ref="K60:K86" si="28">T29</f>
         <v>2687</v>
       </c>
       <c r="L60">
-        <f t="shared" ref="L60:L86" si="28">$J$30</f>
+        <f t="shared" ref="L60:L86" si="29">$J$30</f>
         <v>20</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:M86" si="29">W29</f>
+        <f t="shared" ref="M60:M86" si="30">W29</f>
         <v>36468</v>
       </c>
       <c r="N60">
-        <f t="shared" ref="N60:N86" si="30">AD29</f>
+        <f t="shared" ref="N60:N86" si="31">AD29</f>
         <v>1</v>
       </c>
       <c r="O60">
-        <f t="shared" ref="O60:O86" si="31">AG29</f>
+        <f t="shared" ref="O60:O86" si="32">AG29</f>
         <v>1823</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" ref="P60:P86" si="32">CONCATENATE($J$58,J60,K$58,K60,$J$58,J60,L$58,L60,$J$58,J60,M$58,M60,$J$58,J60,N$58,N60,$J$58,J60,O$58,O60)</f>
+        <f t="shared" ref="P60:P86" si="33">CONCATENATE($J$58,J60,K$58,K60,$J$58,J60,L$58,L60,$J$58,J60,M$58,M60,$J$58,J60,N$58,N60,$J$58,J60,O$58,O60)</f>
         <v>; notes[1].ADC_VAL = 2687; notes[1].PWM_PR = 20; notes[1].PWM_ARR = 36468; notes[1].Synth_PR = 1; notes[1].Synth_ARR = 1823</v>
       </c>
     </row>
@@ -5797,27 +12093,27 @@
         <v>2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2356</v>
       </c>
       <c r="L61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>34421</v>
       </c>
       <c r="N61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1721</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[2].ADC_VAL = 2356; notes[2].PWM_PR = 20; notes[2].PWM_ARR = 34421; notes[2].Synth_PR = 1; notes[2].Synth_ARR = 1721</v>
       </c>
     </row>
@@ -5826,27 +12122,27 @@
         <v>3</v>
       </c>
       <c r="K62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2098</v>
       </c>
       <c r="L62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>32489</v>
       </c>
       <c r="N62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1624</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[3].ADC_VAL = 2098; notes[3].PWM_PR = 20; notes[3].PWM_ARR = 32489; notes[3].Synth_PR = 1; notes[3].Synth_ARR = 1624</v>
       </c>
     </row>
@@ -5855,27 +12151,27 @@
         <v>4</v>
       </c>
       <c r="K63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1892</v>
       </c>
       <c r="L63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>30665</v>
       </c>
       <c r="N63">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1533</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[4].ADC_VAL = 1892; notes[4].PWM_PR = 20; notes[4].PWM_ARR = 30665; notes[4].Synth_PR = 1; notes[4].Synth_ARR = 1533</v>
       </c>
     </row>
@@ -5884,27 +12180,27 @@
         <v>5</v>
       </c>
       <c r="K64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1722</v>
       </c>
       <c r="L64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28945</v>
       </c>
       <c r="N64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1447</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[5].ADC_VAL = 1722; notes[5].PWM_PR = 20; notes[5].PWM_ARR = 28945; notes[5].Synth_PR = 1; notes[5].Synth_ARR = 1447</v>
       </c>
     </row>
@@ -5913,27 +12209,27 @@
         <v>6</v>
       </c>
       <c r="K65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1580</v>
       </c>
       <c r="L65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>27320</v>
       </c>
       <c r="N65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1366</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[6].ADC_VAL = 1580; notes[6].PWM_PR = 20; notes[6].PWM_ARR = 27320; notes[6].Synth_PR = 1; notes[6].Synth_ARR = 1366</v>
       </c>
     </row>
@@ -5942,27 +12238,27 @@
         <v>7</v>
       </c>
       <c r="K66">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1460</v>
       </c>
       <c r="L66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>25787</v>
       </c>
       <c r="N66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1289</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[7].ADC_VAL = 1460; notes[7].PWM_PR = 20; notes[7].PWM_ARR = 25787; notes[7].Synth_PR = 1; notes[7].Synth_ARR = 1289</v>
       </c>
     </row>
@@ -5971,27 +12267,27 @@
         <v>8</v>
       </c>
       <c r="K67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1357</v>
       </c>
       <c r="L67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24339</v>
       </c>
       <c r="N67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1217</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[8].ADC_VAL = 1357; notes[8].PWM_PR = 20; notes[8].PWM_ARR = 24339; notes[8].Synth_PR = 1; notes[8].Synth_ARR = 1217</v>
       </c>
     </row>
@@ -6000,27 +12296,27 @@
         <v>9</v>
       </c>
       <c r="K68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1268</v>
       </c>
       <c r="L68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>22973</v>
       </c>
       <c r="N68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1149</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[9].ADC_VAL = 1268; notes[9].PWM_PR = 20; notes[9].PWM_ARR = 22973; notes[9].Synth_PR = 1; notes[9].Synth_ARR = 1149</v>
       </c>
     </row>
@@ -6029,27 +12325,27 @@
         <v>10</v>
       </c>
       <c r="K69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1189</v>
       </c>
       <c r="L69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>21684</v>
       </c>
       <c r="N69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1084</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[10].ADC_VAL = 1189; notes[10].PWM_PR = 20; notes[10].PWM_ARR = 21684; notes[10].Synth_PR = 1; notes[10].Synth_ARR = 1084</v>
       </c>
     </row>
@@ -6058,27 +12354,27 @@
         <v>11</v>
       </c>
       <c r="K70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1120</v>
       </c>
       <c r="L70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20467</v>
       </c>
       <c r="N70">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1023</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[11].ADC_VAL = 1120; notes[11].PWM_PR = 20; notes[11].PWM_ARR = 20467; notes[11].Synth_PR = 1; notes[11].Synth_ARR = 1023</v>
       </c>
     </row>
@@ -6087,27 +12383,27 @@
         <v>12</v>
       </c>
       <c r="K71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1058</v>
       </c>
       <c r="L71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19318</v>
       </c>
       <c r="N71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>966</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[12].ADC_VAL = 1058; notes[12].PWM_PR = 20; notes[12].PWM_ARR = 19318; notes[12].Synth_PR = 1; notes[12].Synth_ARR = 966</v>
       </c>
     </row>
@@ -6116,27 +12412,27 @@
         <v>13</v>
       </c>
       <c r="K72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1003</v>
       </c>
       <c r="L72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18234</v>
       </c>
       <c r="N72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>912</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[13].ADC_VAL = 1003; notes[13].PWM_PR = 20; notes[13].PWM_ARR = 18234; notes[13].Synth_PR = 1; notes[13].Synth_ARR = 912</v>
       </c>
     </row>
@@ -6145,27 +12441,27 @@
         <v>14</v>
       </c>
       <c r="K73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>900</v>
       </c>
       <c r="L73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17211</v>
       </c>
       <c r="N73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>861</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[14].ADC_VAL = 900; notes[14].PWM_PR = 20; notes[14].PWM_ARR = 17211; notes[14].Synth_PR = 1; notes[14].Synth_ARR = 861</v>
       </c>
     </row>
@@ -6174,27 +12470,27 @@
         <v>15</v>
       </c>
       <c r="K74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3125</v>
       </c>
       <c r="L74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16245</v>
       </c>
       <c r="N74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>812</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[15].ADC_VAL = 3125; notes[15].PWM_PR = 20; notes[15].PWM_ARR = 16245; notes[15].Synth_PR = 1; notes[15].Synth_ARR = 812</v>
       </c>
     </row>
@@ -6203,27 +12499,27 @@
         <v>16</v>
       </c>
       <c r="K75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2687</v>
       </c>
       <c r="L75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M75">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15333</v>
       </c>
       <c r="N75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O75">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>767</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[16].ADC_VAL = 2687; notes[16].PWM_PR = 20; notes[16].PWM_ARR = 15333; notes[16].Synth_PR = 1; notes[16].Synth_ARR = 767</v>
       </c>
     </row>
@@ -6232,27 +12528,27 @@
         <v>17</v>
       </c>
       <c r="K76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2356</v>
       </c>
       <c r="L76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14472</v>
       </c>
       <c r="N76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>724</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[17].ADC_VAL = 2356; notes[17].PWM_PR = 20; notes[17].PWM_ARR = 14472; notes[17].Synth_PR = 1; notes[17].Synth_ARR = 724</v>
       </c>
     </row>
@@ -6261,27 +12557,27 @@
         <v>18</v>
       </c>
       <c r="K77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2098</v>
       </c>
       <c r="L77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13660</v>
       </c>
       <c r="N77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O77">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>683</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[18].ADC_VAL = 2098; notes[18].PWM_PR = 20; notes[18].PWM_ARR = 13660; notes[18].Synth_PR = 1; notes[18].Synth_ARR = 683</v>
       </c>
     </row>
@@ -6290,27 +12586,27 @@
         <v>19</v>
       </c>
       <c r="K78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1892</v>
       </c>
       <c r="L78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12893</v>
       </c>
       <c r="N78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O78">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>645</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[19].ADC_VAL = 1892; notes[19].PWM_PR = 20; notes[19].PWM_ARR = 12893; notes[19].Synth_PR = 1; notes[19].Synth_ARR = 645</v>
       </c>
     </row>
@@ -6319,27 +12615,27 @@
         <v>20</v>
       </c>
       <c r="K79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1722</v>
       </c>
       <c r="L79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12170</v>
       </c>
       <c r="N79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O79">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>608</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[20].ADC_VAL = 1722; notes[20].PWM_PR = 20; notes[20].PWM_ARR = 12170; notes[20].Synth_PR = 1; notes[20].Synth_ARR = 608</v>
       </c>
     </row>
@@ -6348,27 +12644,27 @@
         <v>21</v>
       </c>
       <c r="K80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1580</v>
       </c>
       <c r="L80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11487</v>
       </c>
       <c r="N80">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O80">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>574</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[21].ADC_VAL = 1580; notes[21].PWM_PR = 20; notes[21].PWM_ARR = 11487; notes[21].Synth_PR = 1; notes[21].Synth_ARR = 574</v>
       </c>
     </row>
@@ -6377,27 +12673,27 @@
         <v>22</v>
       </c>
       <c r="K81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1460</v>
       </c>
       <c r="L81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10842</v>
       </c>
       <c r="N81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>542</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[22].ADC_VAL = 1460; notes[22].PWM_PR = 20; notes[22].PWM_ARR = 10842; notes[22].Synth_PR = 1; notes[22].Synth_ARR = 542</v>
       </c>
     </row>
@@ -6406,27 +12702,27 @@
         <v>23</v>
       </c>
       <c r="K82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1357</v>
       </c>
       <c r="L82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10233</v>
       </c>
       <c r="N82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>512</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[23].ADC_VAL = 1357; notes[23].PWM_PR = 20; notes[23].PWM_ARR = 10233; notes[23].Synth_PR = 1; notes[23].Synth_ARR = 512</v>
       </c>
     </row>
@@ -6435,27 +12731,27 @@
         <v>24</v>
       </c>
       <c r="K83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1268</v>
       </c>
       <c r="L83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9659</v>
       </c>
       <c r="N83">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O83">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>483</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[24].ADC_VAL = 1268; notes[24].PWM_PR = 20; notes[24].PWM_ARR = 9659; notes[24].Synth_PR = 1; notes[24].Synth_ARR = 483</v>
       </c>
     </row>
@@ -6464,27 +12760,27 @@
         <v>25</v>
       </c>
       <c r="K84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1189</v>
       </c>
       <c r="L84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9117</v>
       </c>
       <c r="N84">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O84">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>456</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[25].ADC_VAL = 1189; notes[25].PWM_PR = 20; notes[25].PWM_ARR = 9117; notes[25].Synth_PR = 1; notes[25].Synth_ARR = 456</v>
       </c>
     </row>
@@ -6493,27 +12789,27 @@
         <v>26</v>
       </c>
       <c r="K85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1120</v>
       </c>
       <c r="L85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8605</v>
       </c>
       <c r="N85">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>430</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[26].ADC_VAL = 1120; notes[26].PWM_PR = 20; notes[26].PWM_ARR = 8605; notes[26].Synth_PR = 1; notes[26].Synth_ARR = 430</v>
       </c>
     </row>
@@ -6522,27 +12818,27 @@
         <v>27</v>
       </c>
       <c r="K86">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1058</v>
       </c>
       <c r="L86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="M86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8122</v>
       </c>
       <c r="N86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>406</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>; notes[27].ADC_VAL = 1058; notes[27].PWM_PR = 20; notes[27].PWM_ARR = 8122; notes[27].Synth_PR = 1; notes[27].Synth_ARR = 406</v>
       </c>
     </row>

--- a/Resistor calc.xlsx
+++ b/Resistor calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamiens\STM32CubeIDE\workspace_1.3.0\StylophOverkill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBBB66-71D1-4953-AFCC-7CBBFBE6C4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929A81AB-D006-4899-A8EF-B106B9369304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="945" windowWidth="18825" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37590" yWindow="-150" windowWidth="37710" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correctred 3.3V psu" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
   <si>
     <t>ADCNoteTable = {</t>
   </si>
@@ -4906,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA769C9E-19B2-4212-971A-F3B01589C300}">
   <dimension ref="G4:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6144,7 +6144,7 @@
         <v>-6.5231572080892697E-4</v>
       </c>
     </row>
-    <row r="33" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:36" x14ac:dyDescent="0.25">
       <c r="J33">
         <f>K27*J30*J31</f>
         <v>5.2941176470588231E-5</v>
@@ -6233,7 +6233,7 @@
         <v>-6.9108500345538282E-4</v>
       </c>
     </row>
-    <row r="34" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:36" x14ac:dyDescent="0.25">
       <c r="J34">
         <f>1/J33</f>
         <v>18888.888888888891</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:36" x14ac:dyDescent="0.25">
       <c r="L35">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -6407,7 +6407,7 @@
         <v>-7.7579519006976128E-4</v>
       </c>
     </row>
-    <row r="36" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:36" x14ac:dyDescent="0.25">
       <c r="L36">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -6492,7 +6492,7 @@
         <v>-8.2169268693510489E-4</v>
       </c>
     </row>
-    <row r="37" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:36" x14ac:dyDescent="0.25">
       <c r="L37">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -6577,7 +6577,7 @@
         <v>-8.7032201914705176E-4</v>
       </c>
     </row>
-    <row r="38" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:36" x14ac:dyDescent="0.25">
       <c r="K38">
         <f>K26/(J30*J31)</f>
         <v>18888.888888888891</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:36" x14ac:dyDescent="0.25">
       <c r="L39">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>-9.7751710654936375E-4</v>
       </c>
     </row>
-    <row r="40" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:36" x14ac:dyDescent="0.25">
       <c r="L40">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:36" x14ac:dyDescent="0.25">
       <c r="L41">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:36" x14ac:dyDescent="0.25">
       <c r="L42">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>-1.1614401858304202E-3</v>
       </c>
     </row>
-    <row r="43" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:36" x14ac:dyDescent="0.25">
       <c r="N43">
         <f>L6</f>
         <v>3268</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:36" x14ac:dyDescent="0.25">
       <c r="N44">
         <f t="shared" ref="N44:N55" si="24">L7</f>
         <v>2786</v>
@@ -7162,7 +7162,7 @@
         <v>-1.3037809647979959E-3</v>
       </c>
     </row>
-    <row r="45" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:36" x14ac:dyDescent="0.25">
       <c r="N45">
         <f t="shared" si="24"/>
         <v>2428</v>
@@ -7240,7 +7240,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>170</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <f>I46*1000000</f>
+        <v>170000000</v>
+      </c>
       <c r="N46">
         <f t="shared" si="24"/>
         <v>2154</v>
@@ -7318,7 +7328,18 @@
         <v>-1.4641288433381305E-3</v>
       </c>
     </row>
-    <row r="47" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f>K47*1000000000</f>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47">
+        <f>1/K46</f>
+        <v>5.8823529411764704E-9</v>
+      </c>
       <c r="N47">
         <f t="shared" si="24"/>
         <v>1932</v>
@@ -7396,7 +7417,7 @@
         <v>-1.5503875968991832E-3</v>
       </c>
     </row>
-    <row r="48" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:36" x14ac:dyDescent="0.25">
       <c r="N48">
         <f t="shared" si="24"/>
         <v>1749</v>
@@ -7474,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:36" x14ac:dyDescent="0.25">
       <c r="N49">
         <f t="shared" si="24"/>
         <v>1599</v>
@@ -7552,7 +7573,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50">
+        <v>170</v>
+      </c>
       <c r="N50">
         <f t="shared" si="24"/>
         <v>1470</v>
@@ -7630,7 +7657,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>1000</v>
+      </c>
       <c r="N51">
         <f t="shared" si="24"/>
         <v>1360</v>
@@ -7708,7 +7741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>J52/1000</f>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f>K46/J50/J51</f>
+        <v>1000</v>
+      </c>
       <c r="N52">
         <f t="shared" si="24"/>
         <v>1261</v>
@@ -7787,7 +7828,11 @@
         <v>-2.0703933747412417E-3</v>
       </c>
     </row>
-    <row r="53" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f>K47*J50*J51</f>
+        <v>1E-3</v>
+      </c>
       <c r="N53">
         <f t="shared" si="24"/>
         <v>1177</v>
@@ -7866,7 +7911,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f>1/J53</f>
+        <v>1000</v>
+      </c>
       <c r="N54">
         <f t="shared" si="24"/>
         <v>1102</v>
@@ -7945,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:36" x14ac:dyDescent="0.25">
       <c r="N55">
         <f t="shared" si="24"/>
         <v>1034</v>
@@ -8024,15 +8073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="10:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:36" x14ac:dyDescent="0.25">
       <c r="K57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="J58" t="s">
-        <v>27</v>
-      </c>
+    <row r="58" spans="9:36" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
         <v>22</v>
       </c>
@@ -8049,10 +8095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="J59">
-        <v>0</v>
-      </c>
+    <row r="59" spans="9:36" x14ac:dyDescent="0.25">
       <c r="K59">
         <f>T28</f>
         <v>3027</v>
@@ -8075,13 +8118,10 @@
       </c>
       <c r="P59" t="str">
         <f>CONCATENATE($J$58,J59,K$58,K59,$J$58,J59,L$58,L59,$J$58,J59,M$58,M59,$J$58,J59,N$58,N59,$J$58,J59,O$58,O59)</f>
-        <v>; notes[0].ADC_VAL = 3027; notes[0].PWM_PR = 20; notes[0].PWM_ARR = 38636; notes[0].Synth_PR = 1; notes[0].Synth_ARR = 1932</v>
-      </c>
-    </row>
-    <row r="60" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="J60">
-        <v>1</v>
-      </c>
+        <v>].ADC_VAL = 3027].PWM_PR = 20].PWM_ARR = 38636].Synth_PR = 1].Synth_ARR = 1932</v>
+      </c>
+    </row>
+    <row r="60" spans="9:36" x14ac:dyDescent="0.25">
       <c r="K60">
         <f t="shared" ref="K60:K86" si="27">T29</f>
         <v>2607</v>
@@ -8104,10 +8144,10 @@
       </c>
       <c r="P60" t="str">
         <f t="shared" ref="P60:P86" si="32">CONCATENATE($J$58,J60,K$58,K60,$J$58,J60,L$58,L60,$J$58,J60,M$58,M60,$J$58,J60,N$58,N60,$J$58,J60,O$58,O60)</f>
-        <v>; notes[1].ADC_VAL = 2607; notes[1].PWM_PR = 20; notes[1].PWM_ARR = 36468; notes[1].Synth_PR = 1; notes[1].Synth_ARR = 1823</v>
-      </c>
-    </row>
-    <row r="61" spans="10:36" x14ac:dyDescent="0.25">
+        <v>].ADC_VAL = 2607].PWM_PR = 20].PWM_ARR = 36468].Synth_PR = 1].Synth_ARR = 1823</v>
+      </c>
+    </row>
+    <row r="61" spans="9:36" x14ac:dyDescent="0.25">
       <c r="J61">
         <v>2</v>
       </c>
@@ -8133,10 +8173,10 @@
       </c>
       <c r="P61" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[2].ADC_VAL = 2291; notes[2].PWM_PR = 20; notes[2].PWM_ARR = 34421; notes[2].Synth_PR = 1; notes[2].Synth_ARR = 1721</v>
-      </c>
-    </row>
-    <row r="62" spans="10:36" x14ac:dyDescent="0.25">
+        <v>2].ADC_VAL = 22912].PWM_PR = 202].PWM_ARR = 344212].Synth_PR = 12].Synth_ARR = 1721</v>
+      </c>
+    </row>
+    <row r="62" spans="9:36" x14ac:dyDescent="0.25">
       <c r="J62">
         <v>3</v>
       </c>
@@ -8162,10 +8202,10 @@
       </c>
       <c r="P62" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[3].ADC_VAL = 2043; notes[3].PWM_PR = 20; notes[3].PWM_ARR = 32489; notes[3].Synth_PR = 1; notes[3].Synth_ARR = 1624</v>
-      </c>
-    </row>
-    <row r="63" spans="10:36" x14ac:dyDescent="0.25">
+        <v>3].ADC_VAL = 20433].PWM_PR = 203].PWM_ARR = 324893].Synth_PR = 13].Synth_ARR = 1624</v>
+      </c>
+    </row>
+    <row r="63" spans="9:36" x14ac:dyDescent="0.25">
       <c r="J63">
         <v>4</v>
       </c>
@@ -8191,10 +8231,10 @@
       </c>
       <c r="P63" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[4].ADC_VAL = 1841; notes[4].PWM_PR = 20; notes[4].PWM_ARR = 30665; notes[4].Synth_PR = 1; notes[4].Synth_ARR = 1533</v>
-      </c>
-    </row>
-    <row r="64" spans="10:36" x14ac:dyDescent="0.25">
+        <v>4].ADC_VAL = 18414].PWM_PR = 204].PWM_ARR = 306654].Synth_PR = 14].Synth_ARR = 1533</v>
+      </c>
+    </row>
+    <row r="64" spans="9:36" x14ac:dyDescent="0.25">
       <c r="J64">
         <v>5</v>
       </c>
@@ -8220,7 +8260,7 @@
       </c>
       <c r="P64" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[5].ADC_VAL = 1674; notes[5].PWM_PR = 20; notes[5].PWM_ARR = 28945; notes[5].Synth_PR = 1; notes[5].Synth_ARR = 1447</v>
+        <v>5].ADC_VAL = 16745].PWM_PR = 205].PWM_ARR = 289455].Synth_PR = 15].Synth_ARR = 1447</v>
       </c>
     </row>
     <row r="65" spans="10:16" x14ac:dyDescent="0.25">
@@ -8249,7 +8289,7 @@
       </c>
       <c r="P65" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[6].ADC_VAL = 1535; notes[6].PWM_PR = 20; notes[6].PWM_ARR = 27320; notes[6].Synth_PR = 1; notes[6].Synth_ARR = 1366</v>
+        <v>6].ADC_VAL = 15356].PWM_PR = 206].PWM_ARR = 273206].Synth_PR = 16].Synth_ARR = 1366</v>
       </c>
     </row>
     <row r="66" spans="10:16" x14ac:dyDescent="0.25">
@@ -8278,7 +8318,7 @@
       </c>
       <c r="P66" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[7].ADC_VAL = 1415; notes[7].PWM_PR = 20; notes[7].PWM_ARR = 25787; notes[7].Synth_PR = 1; notes[7].Synth_ARR = 1289</v>
+        <v>7].ADC_VAL = 14157].PWM_PR = 207].PWM_ARR = 257877].Synth_PR = 17].Synth_ARR = 1289</v>
       </c>
     </row>
     <row r="67" spans="10:16" x14ac:dyDescent="0.25">
@@ -8307,7 +8347,7 @@
       </c>
       <c r="P67" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[8].ADC_VAL = 1311; notes[8].PWM_PR = 20; notes[8].PWM_ARR = 24339; notes[8].Synth_PR = 1; notes[8].Synth_ARR = 1217</v>
+        <v>8].ADC_VAL = 13118].PWM_PR = 208].PWM_ARR = 243398].Synth_PR = 18].Synth_ARR = 1217</v>
       </c>
     </row>
     <row r="68" spans="10:16" x14ac:dyDescent="0.25">
@@ -8336,7 +8376,7 @@
       </c>
       <c r="P68" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[9].ADC_VAL = 1219; notes[9].PWM_PR = 20; notes[9].PWM_ARR = 22973; notes[9].Synth_PR = 1; notes[9].Synth_ARR = 1149</v>
+        <v>9].ADC_VAL = 12199].PWM_PR = 209].PWM_ARR = 229739].Synth_PR = 19].Synth_ARR = 1149</v>
       </c>
     </row>
     <row r="69" spans="10:16" x14ac:dyDescent="0.25">
@@ -8365,7 +8405,7 @@
       </c>
       <c r="P69" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[10].ADC_VAL = 1140; notes[10].PWM_PR = 20; notes[10].PWM_ARR = 21684; notes[10].Synth_PR = 1; notes[10].Synth_ARR = 1084</v>
+        <v>10].ADC_VAL = 114010].PWM_PR = 2010].PWM_ARR = 2168410].Synth_PR = 110].Synth_ARR = 1084</v>
       </c>
     </row>
     <row r="70" spans="10:16" x14ac:dyDescent="0.25">
@@ -8394,7 +8434,7 @@
       </c>
       <c r="P70" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[11].ADC_VAL = 1068; notes[11].PWM_PR = 20; notes[11].PWM_ARR = 20467; notes[11].Synth_PR = 1; notes[11].Synth_ARR = 1023</v>
+        <v>11].ADC_VAL = 106811].PWM_PR = 2011].PWM_ARR = 2046711].Synth_PR = 111].Synth_ARR = 1023</v>
       </c>
     </row>
     <row r="71" spans="10:16" x14ac:dyDescent="0.25">
@@ -8423,7 +8463,7 @@
       </c>
       <c r="P71" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[12].ADC_VAL = 1005; notes[12].PWM_PR = 20; notes[12].PWM_ARR = 19318; notes[12].Synth_PR = 1; notes[12].Synth_ARR = 966</v>
+        <v>12].ADC_VAL = 100512].PWM_PR = 2012].PWM_ARR = 1931812].Synth_PR = 112].Synth_ARR = 966</v>
       </c>
     </row>
     <row r="72" spans="10:16" x14ac:dyDescent="0.25">
@@ -8452,7 +8492,7 @@
       </c>
       <c r="P72" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[13].ADC_VAL = 949; notes[13].PWM_PR = 20; notes[13].PWM_ARR = 18234; notes[13].Synth_PR = 1; notes[13].Synth_ARR = 912</v>
+        <v>13].ADC_VAL = 94913].PWM_PR = 2013].PWM_ARR = 1823413].Synth_PR = 113].Synth_ARR = 912</v>
       </c>
     </row>
     <row r="73" spans="10:16" x14ac:dyDescent="0.25">
@@ -8481,7 +8521,7 @@
       </c>
       <c r="P73" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[14].ADC_VAL = 900; notes[14].PWM_PR = 20; notes[14].PWM_ARR = 17211; notes[14].Synth_PR = 1; notes[14].Synth_ARR = 861</v>
+        <v>14].ADC_VAL = 90014].PWM_PR = 2014].PWM_ARR = 1721114].Synth_PR = 114].Synth_ARR = 861</v>
       </c>
     </row>
     <row r="74" spans="10:16" x14ac:dyDescent="0.25">
@@ -8510,7 +8550,7 @@
       </c>
       <c r="P74" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[15].ADC_VAL = 3027; notes[15].PWM_PR = 20; notes[15].PWM_ARR = 16245; notes[15].Synth_PR = 1; notes[15].Synth_ARR = 812</v>
+        <v>15].ADC_VAL = 302715].PWM_PR = 2015].PWM_ARR = 1624515].Synth_PR = 115].Synth_ARR = 812</v>
       </c>
     </row>
     <row r="75" spans="10:16" x14ac:dyDescent="0.25">
@@ -8539,7 +8579,7 @@
       </c>
       <c r="P75" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[16].ADC_VAL = 2607; notes[16].PWM_PR = 20; notes[16].PWM_ARR = 15333; notes[16].Synth_PR = 1; notes[16].Synth_ARR = 767</v>
+        <v>16].ADC_VAL = 260716].PWM_PR = 2016].PWM_ARR = 1533316].Synth_PR = 116].Synth_ARR = 767</v>
       </c>
     </row>
     <row r="76" spans="10:16" x14ac:dyDescent="0.25">
@@ -8568,7 +8608,7 @@
       </c>
       <c r="P76" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[17].ADC_VAL = 2291; notes[17].PWM_PR = 20; notes[17].PWM_ARR = 14472; notes[17].Synth_PR = 1; notes[17].Synth_ARR = 724</v>
+        <v>17].ADC_VAL = 229117].PWM_PR = 2017].PWM_ARR = 1447217].Synth_PR = 117].Synth_ARR = 724</v>
       </c>
     </row>
     <row r="77" spans="10:16" x14ac:dyDescent="0.25">
@@ -8597,7 +8637,7 @@
       </c>
       <c r="P77" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[18].ADC_VAL = 2043; notes[18].PWM_PR = 20; notes[18].PWM_ARR = 13660; notes[18].Synth_PR = 1; notes[18].Synth_ARR = 683</v>
+        <v>18].ADC_VAL = 204318].PWM_PR = 2018].PWM_ARR = 1366018].Synth_PR = 118].Synth_ARR = 683</v>
       </c>
     </row>
     <row r="78" spans="10:16" x14ac:dyDescent="0.25">
@@ -8626,7 +8666,7 @@
       </c>
       <c r="P78" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[19].ADC_VAL = 1841; notes[19].PWM_PR = 20; notes[19].PWM_ARR = 12893; notes[19].Synth_PR = 1; notes[19].Synth_ARR = 645</v>
+        <v>19].ADC_VAL = 184119].PWM_PR = 2019].PWM_ARR = 1289319].Synth_PR = 119].Synth_ARR = 645</v>
       </c>
     </row>
     <row r="79" spans="10:16" x14ac:dyDescent="0.25">
@@ -8655,7 +8695,7 @@
       </c>
       <c r="P79" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[20].ADC_VAL = 1674; notes[20].PWM_PR = 20; notes[20].PWM_ARR = 12170; notes[20].Synth_PR = 1; notes[20].Synth_ARR = 608</v>
+        <v>20].ADC_VAL = 167420].PWM_PR = 2020].PWM_ARR = 1217020].Synth_PR = 120].Synth_ARR = 608</v>
       </c>
     </row>
     <row r="80" spans="10:16" x14ac:dyDescent="0.25">
@@ -8684,7 +8724,7 @@
       </c>
       <c r="P80" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[21].ADC_VAL = 1535; notes[21].PWM_PR = 20; notes[21].PWM_ARR = 11487; notes[21].Synth_PR = 1; notes[21].Synth_ARR = 574</v>
+        <v>21].ADC_VAL = 153521].PWM_PR = 2021].PWM_ARR = 1148721].Synth_PR = 121].Synth_ARR = 574</v>
       </c>
     </row>
     <row r="81" spans="10:16" x14ac:dyDescent="0.25">
@@ -8713,7 +8753,7 @@
       </c>
       <c r="P81" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[22].ADC_VAL = 1415; notes[22].PWM_PR = 20; notes[22].PWM_ARR = 10842; notes[22].Synth_PR = 1; notes[22].Synth_ARR = 542</v>
+        <v>22].ADC_VAL = 141522].PWM_PR = 2022].PWM_ARR = 1084222].Synth_PR = 122].Synth_ARR = 542</v>
       </c>
     </row>
     <row r="82" spans="10:16" x14ac:dyDescent="0.25">
@@ -8742,7 +8782,7 @@
       </c>
       <c r="P82" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[23].ADC_VAL = 1311; notes[23].PWM_PR = 20; notes[23].PWM_ARR = 10233; notes[23].Synth_PR = 1; notes[23].Synth_ARR = 512</v>
+        <v>23].ADC_VAL = 131123].PWM_PR = 2023].PWM_ARR = 1023323].Synth_PR = 123].Synth_ARR = 512</v>
       </c>
     </row>
     <row r="83" spans="10:16" x14ac:dyDescent="0.25">
@@ -8771,7 +8811,7 @@
       </c>
       <c r="P83" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[24].ADC_VAL = 1219; notes[24].PWM_PR = 20; notes[24].PWM_ARR = 9659; notes[24].Synth_PR = 1; notes[24].Synth_ARR = 483</v>
+        <v>24].ADC_VAL = 121924].PWM_PR = 2024].PWM_ARR = 965924].Synth_PR = 124].Synth_ARR = 483</v>
       </c>
     </row>
     <row r="84" spans="10:16" x14ac:dyDescent="0.25">
@@ -8800,7 +8840,7 @@
       </c>
       <c r="P84" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[25].ADC_VAL = 1140; notes[25].PWM_PR = 20; notes[25].PWM_ARR = 9117; notes[25].Synth_PR = 1; notes[25].Synth_ARR = 456</v>
+        <v>25].ADC_VAL = 114025].PWM_PR = 2025].PWM_ARR = 911725].Synth_PR = 125].Synth_ARR = 456</v>
       </c>
     </row>
     <row r="85" spans="10:16" x14ac:dyDescent="0.25">
@@ -8829,7 +8869,7 @@
       </c>
       <c r="P85" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[26].ADC_VAL = 1068; notes[26].PWM_PR = 20; notes[26].PWM_ARR = 8605; notes[26].Synth_PR = 1; notes[26].Synth_ARR = 430</v>
+        <v>26].ADC_VAL = 106826].PWM_PR = 2026].PWM_ARR = 860526].Synth_PR = 126].Synth_ARR = 430</v>
       </c>
     </row>
     <row r="86" spans="10:16" x14ac:dyDescent="0.25">
@@ -8858,7 +8898,7 @@
       </c>
       <c r="P86" t="str">
         <f t="shared" si="32"/>
-        <v>; notes[27].ADC_VAL = 1005; notes[27].PWM_PR = 20; notes[27].PWM_ARR = 8122; notes[27].Synth_PR = 1; notes[27].Synth_ARR = 406</v>
+        <v>27].ADC_VAL = 100527].PWM_PR = 2027].PWM_ARR = 812227].Synth_PR = 127].Synth_ARR = 406</v>
       </c>
     </row>
   </sheetData>
